--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A5E8E1-1119-4FCE-8038-B595C1CEC83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE35AE-3118-47FA-991F-14A1421E516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -501,10 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +525,10 @@
     <col min="20" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="35" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -596,8 +598,38 @@
       <c r="Y1" s="1">
         <v>44792</v>
       </c>
+      <c r="Z1" s="1">
+        <v>44795</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44796</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44797</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44798</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44799</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44802</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44803</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44804</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44805</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44806</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -673,8 +705,38 @@
       <c r="Y2" t="s">
         <v>31</v>
       </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -747,8 +809,11 @@
       <c r="X3" t="s">
         <v>35</v>
       </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -821,8 +886,11 @@
       <c r="X4" t="s">
         <v>35</v>
       </c>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -895,8 +963,11 @@
       <c r="X5" t="s">
         <v>35</v>
       </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -969,8 +1040,11 @@
       <c r="X6" t="s">
         <v>35</v>
       </c>
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1043,8 +1117,11 @@
       <c r="X7" t="s">
         <v>35</v>
       </c>
+      <c r="Z7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1117,8 +1194,11 @@
       <c r="X8" t="s">
         <v>35</v>
       </c>
+      <c r="Z8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1191,8 +1271,11 @@
       <c r="X9" t="s">
         <v>35</v>
       </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1348,11 @@
       <c r="X10" t="s">
         <v>35</v>
       </c>
+      <c r="Z10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1339,8 +1425,11 @@
       <c r="X11" t="s">
         <v>35</v>
       </c>
+      <c r="Z11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1413,8 +1502,11 @@
       <c r="X12" t="s">
         <v>34</v>
       </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1487,8 +1579,11 @@
       <c r="X13" t="s">
         <v>35</v>
       </c>
+      <c r="Z13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1561,8 +1656,11 @@
       <c r="X14" t="s">
         <v>35</v>
       </c>
+      <c r="Z14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1635,8 +1733,11 @@
       <c r="X15" t="s">
         <v>35</v>
       </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1709,8 +1810,11 @@
       <c r="X16" t="s">
         <v>35</v>
       </c>
+      <c r="Z16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1783,8 +1887,11 @@
       <c r="X17" t="s">
         <v>35</v>
       </c>
+      <c r="Z17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1857,8 +1964,11 @@
       <c r="X18" t="s">
         <v>35</v>
       </c>
+      <c r="Z18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1931,8 +2041,11 @@
       <c r="X19" t="s">
         <v>35</v>
       </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2005,8 +2118,11 @@
       <c r="X20" t="s">
         <v>35</v>
       </c>
+      <c r="Z20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2079,8 +2195,11 @@
       <c r="X21" t="s">
         <v>35</v>
       </c>
+      <c r="Z21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2153,8 +2272,11 @@
       <c r="X22" t="s">
         <v>34</v>
       </c>
+      <c r="Z22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2227,8 +2349,11 @@
       <c r="X23" t="s">
         <v>35</v>
       </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2301,8 +2426,11 @@
       <c r="X24" t="s">
         <v>35</v>
       </c>
+      <c r="Z24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2375,8 +2503,11 @@
       <c r="X25" t="s">
         <v>35</v>
       </c>
+      <c r="Z25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2449,8 +2580,11 @@
       <c r="X26" t="s">
         <v>35</v>
       </c>
+      <c r="Z26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2523,8 +2657,11 @@
       <c r="X27" t="s">
         <v>35</v>
       </c>
+      <c r="Z27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2597,8 +2734,11 @@
       <c r="X28" t="s">
         <v>35</v>
       </c>
+      <c r="Z28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2671,8 +2811,11 @@
       <c r="X29" t="s">
         <v>35</v>
       </c>
+      <c r="Z29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2745,9 +2888,12 @@
       <c r="X30" t="s">
         <v>35</v>
       </c>
+      <c r="Z30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:X30">
+  <conditionalFormatting sqref="C3:X30 Z3:Z30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE35AE-3118-47FA-991F-14A1421E516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD0338-957A-48FC-AC11-5FC24E76653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF17" sqref="AF17"/>
+      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,6 +809,9 @@
       <c r="X3" t="s">
         <v>35</v>
       </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
       <c r="Z3" t="s">
         <v>35</v>
       </c>
@@ -886,6 +889,9 @@
       <c r="X4" t="s">
         <v>35</v>
       </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
       <c r="Z4" t="s">
         <v>35</v>
       </c>
@@ -963,6 +969,9 @@
       <c r="X5" t="s">
         <v>35</v>
       </c>
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
       <c r="Z5" t="s">
         <v>35</v>
       </c>
@@ -1040,6 +1049,9 @@
       <c r="X6" t="s">
         <v>35</v>
       </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
       <c r="Z6" t="s">
         <v>35</v>
       </c>
@@ -1117,6 +1129,9 @@
       <c r="X7" t="s">
         <v>35</v>
       </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
       <c r="Z7" t="s">
         <v>35</v>
       </c>
@@ -1194,6 +1209,9 @@
       <c r="X8" t="s">
         <v>35</v>
       </c>
+      <c r="Y8" t="s">
+        <v>35</v>
+      </c>
       <c r="Z8" t="s">
         <v>35</v>
       </c>
@@ -1271,6 +1289,9 @@
       <c r="X9" t="s">
         <v>35</v>
       </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
       <c r="Z9" t="s">
         <v>34</v>
       </c>
@@ -1348,6 +1369,9 @@
       <c r="X10" t="s">
         <v>35</v>
       </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
       <c r="Z10" t="s">
         <v>35</v>
       </c>
@@ -1425,6 +1449,9 @@
       <c r="X11" t="s">
         <v>35</v>
       </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
       <c r="Z11" t="s">
         <v>35</v>
       </c>
@@ -1502,6 +1529,9 @@
       <c r="X12" t="s">
         <v>34</v>
       </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
       <c r="Z12" t="s">
         <v>34</v>
       </c>
@@ -1579,6 +1609,9 @@
       <c r="X13" t="s">
         <v>35</v>
       </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
       <c r="Z13" t="s">
         <v>35</v>
       </c>
@@ -1656,6 +1689,9 @@
       <c r="X14" t="s">
         <v>35</v>
       </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
       <c r="Z14" t="s">
         <v>35</v>
       </c>
@@ -1733,6 +1769,9 @@
       <c r="X15" t="s">
         <v>35</v>
       </c>
+      <c r="Y15" t="s">
+        <v>35</v>
+      </c>
       <c r="Z15" t="s">
         <v>34</v>
       </c>
@@ -1810,6 +1849,9 @@
       <c r="X16" t="s">
         <v>35</v>
       </c>
+      <c r="Y16" t="s">
+        <v>35</v>
+      </c>
       <c r="Z16" t="s">
         <v>35</v>
       </c>
@@ -1887,6 +1929,9 @@
       <c r="X17" t="s">
         <v>35</v>
       </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
       <c r="Z17" t="s">
         <v>35</v>
       </c>
@@ -1964,6 +2009,9 @@
       <c r="X18" t="s">
         <v>35</v>
       </c>
+      <c r="Y18" t="s">
+        <v>35</v>
+      </c>
       <c r="Z18" t="s">
         <v>35</v>
       </c>
@@ -2041,6 +2089,9 @@
       <c r="X19" t="s">
         <v>35</v>
       </c>
+      <c r="Y19" t="s">
+        <v>35</v>
+      </c>
       <c r="Z19" t="s">
         <v>34</v>
       </c>
@@ -2118,6 +2169,9 @@
       <c r="X20" t="s">
         <v>35</v>
       </c>
+      <c r="Y20" t="s">
+        <v>35</v>
+      </c>
       <c r="Z20" t="s">
         <v>35</v>
       </c>
@@ -2195,6 +2249,9 @@
       <c r="X21" t="s">
         <v>35</v>
       </c>
+      <c r="Y21" t="s">
+        <v>35</v>
+      </c>
       <c r="Z21" t="s">
         <v>35</v>
       </c>
@@ -2272,6 +2329,9 @@
       <c r="X22" t="s">
         <v>34</v>
       </c>
+      <c r="Y22" t="s">
+        <v>35</v>
+      </c>
       <c r="Z22" t="s">
         <v>35</v>
       </c>
@@ -2349,8 +2409,11 @@
       <c r="X23" t="s">
         <v>35</v>
       </c>
+      <c r="Y23" t="s">
+        <v>35</v>
+      </c>
       <c r="Z23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2426,6 +2489,9 @@
       <c r="X24" t="s">
         <v>35</v>
       </c>
+      <c r="Y24" t="s">
+        <v>35</v>
+      </c>
       <c r="Z24" t="s">
         <v>35</v>
       </c>
@@ -2503,6 +2569,9 @@
       <c r="X25" t="s">
         <v>35</v>
       </c>
+      <c r="Y25" t="s">
+        <v>35</v>
+      </c>
       <c r="Z25" t="s">
         <v>35</v>
       </c>
@@ -2580,6 +2649,9 @@
       <c r="X26" t="s">
         <v>35</v>
       </c>
+      <c r="Y26" t="s">
+        <v>35</v>
+      </c>
       <c r="Z26" t="s">
         <v>35</v>
       </c>
@@ -2657,6 +2729,9 @@
       <c r="X27" t="s">
         <v>35</v>
       </c>
+      <c r="Y27" t="s">
+        <v>35</v>
+      </c>
       <c r="Z27" t="s">
         <v>35</v>
       </c>
@@ -2734,6 +2809,9 @@
       <c r="X28" t="s">
         <v>35</v>
       </c>
+      <c r="Y28" t="s">
+        <v>35</v>
+      </c>
       <c r="Z28" t="s">
         <v>34</v>
       </c>
@@ -2811,6 +2889,9 @@
       <c r="X29" t="s">
         <v>35</v>
       </c>
+      <c r="Y29" t="s">
+        <v>35</v>
+      </c>
       <c r="Z29" t="s">
         <v>35</v>
       </c>
@@ -2888,12 +2969,15 @@
       <c r="X30" t="s">
         <v>35</v>
       </c>
+      <c r="Y30" t="s">
+        <v>35</v>
+      </c>
       <c r="Z30" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:X30 Z3:Z30">
+  <conditionalFormatting sqref="C3:Z30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD0338-957A-48FC-AC11-5FC24E76653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF953C1-8F9D-4C3A-84A4-A0C52D9CB059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -178,9 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="topRight" activeCell="AD11" sqref="AD10:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +816,9 @@
       <c r="Z3" t="s">
         <v>35</v>
       </c>
+      <c r="AA3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -895,6 +899,9 @@
       <c r="Z4" t="s">
         <v>35</v>
       </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -975,6 +982,9 @@
       <c r="Z5" t="s">
         <v>35</v>
       </c>
+      <c r="AA5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1055,6 +1065,9 @@
       <c r="Z6" t="s">
         <v>35</v>
       </c>
+      <c r="AA6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1135,6 +1148,9 @@
       <c r="Z7" t="s">
         <v>35</v>
       </c>
+      <c r="AA7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1215,6 +1231,9 @@
       <c r="Z8" t="s">
         <v>35</v>
       </c>
+      <c r="AA8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1375,6 +1394,10 @@
       <c r="Z10" t="s">
         <v>35</v>
       </c>
+      <c r="AA10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1455,6 +1478,10 @@
       <c r="Z11" t="s">
         <v>35</v>
       </c>
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1615,6 +1642,9 @@
       <c r="Z13" t="s">
         <v>35</v>
       </c>
+      <c r="AA13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1695,6 +1725,9 @@
       <c r="Z14" t="s">
         <v>35</v>
       </c>
+      <c r="AA14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1775,6 +1808,9 @@
       <c r="Z15" t="s">
         <v>34</v>
       </c>
+      <c r="AA15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1855,8 +1891,11 @@
       <c r="Z16" t="s">
         <v>35</v>
       </c>
+      <c r="AA16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1935,8 +1974,11 @@
       <c r="Z17" t="s">
         <v>35</v>
       </c>
+      <c r="AA17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2015,8 +2057,11 @@
       <c r="Z18" t="s">
         <v>35</v>
       </c>
+      <c r="AA18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2095,8 +2140,11 @@
       <c r="Z19" t="s">
         <v>34</v>
       </c>
+      <c r="AA19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2175,8 +2223,11 @@
       <c r="Z20" t="s">
         <v>35</v>
       </c>
+      <c r="AA20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2255,8 +2306,11 @@
       <c r="Z21" t="s">
         <v>35</v>
       </c>
+      <c r="AA21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2335,8 +2389,11 @@
       <c r="Z22" t="s">
         <v>35</v>
       </c>
+      <c r="AA22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2415,8 +2472,11 @@
       <c r="Z23" t="s">
         <v>35</v>
       </c>
+      <c r="AA23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2495,8 +2555,11 @@
       <c r="Z24" t="s">
         <v>35</v>
       </c>
+      <c r="AA24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2575,8 +2638,11 @@
       <c r="Z25" t="s">
         <v>35</v>
       </c>
+      <c r="AA25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2655,8 +2721,11 @@
       <c r="Z26" t="s">
         <v>35</v>
       </c>
+      <c r="AA26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2735,8 +2804,11 @@
       <c r="Z27" t="s">
         <v>35</v>
       </c>
+      <c r="AA27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2815,8 +2887,11 @@
       <c r="Z28" t="s">
         <v>34</v>
       </c>
+      <c r="AA28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2895,8 +2970,11 @@
       <c r="Z29" t="s">
         <v>35</v>
       </c>
+      <c r="AA29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2975,13 +3053,17 @@
       <c r="Z30" t="s">
         <v>35</v>
       </c>
+      <c r="AA30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:Z30">
+  <conditionalFormatting sqref="C3:Z30 AA3:AA8 AA10:AA11 AA13:AA30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF953C1-8F9D-4C3A-84A4-A0C52D9CB059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95958996-5182-4748-8EB8-2D5933219070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,10 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD11" sqref="AD10:AD11"/>
+      <selection pane="topRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1396,6 @@
       <c r="AA10" t="s">
         <v>35</v>
       </c>
-      <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1481,7 +1479,6 @@
       <c r="AA11" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1865,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S16" t="s">
         <v>35</v>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25603"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95958996-5182-4748-8EB8-2D5933219070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F631ACB-5DE1-4B63-BB74-3C9158DE7453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -178,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R31" sqref="R31"/>
+      <selection pane="topRight" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +817,9 @@
       <c r="AA3" t="s">
         <v>35</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -901,6 +903,9 @@
       <c r="AA4" t="s">
         <v>34</v>
       </c>
+      <c r="AB4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -984,6 +989,9 @@
       <c r="AA5" t="s">
         <v>35</v>
       </c>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1067,6 +1075,9 @@
       <c r="AA6" t="s">
         <v>34</v>
       </c>
+      <c r="AB6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1150,6 +1161,9 @@
       <c r="AA7" t="s">
         <v>35</v>
       </c>
+      <c r="AB7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1233,6 +1247,9 @@
       <c r="AA8" t="s">
         <v>35</v>
       </c>
+      <c r="AB8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1313,6 +1330,12 @@
       <c r="Z9" t="s">
         <v>34</v>
       </c>
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1396,6 +1419,9 @@
       <c r="AA10" t="s">
         <v>35</v>
       </c>
+      <c r="AB10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1479,6 +1505,9 @@
       <c r="AA11" t="s">
         <v>35</v>
       </c>
+      <c r="AB11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1642,6 +1671,9 @@
       <c r="AA13" t="s">
         <v>35</v>
       </c>
+      <c r="AB13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1725,6 +1757,9 @@
       <c r="AA14" t="s">
         <v>35</v>
       </c>
+      <c r="AB14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1808,6 +1843,9 @@
       <c r="AA15" t="s">
         <v>35</v>
       </c>
+      <c r="AB15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1891,8 +1929,11 @@
       <c r="AA16" t="s">
         <v>35</v>
       </c>
+      <c r="AB16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1974,8 +2015,11 @@
       <c r="AA17" t="s">
         <v>35</v>
       </c>
+      <c r="AB17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2057,8 +2101,11 @@
       <c r="AA18" t="s">
         <v>35</v>
       </c>
+      <c r="AB18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2140,8 +2187,11 @@
       <c r="AA19" t="s">
         <v>35</v>
       </c>
+      <c r="AB19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2223,8 +2273,11 @@
       <c r="AA20" t="s">
         <v>35</v>
       </c>
+      <c r="AB20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2306,8 +2359,11 @@
       <c r="AA21" t="s">
         <v>35</v>
       </c>
+      <c r="AB21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2445,11 @@
       <c r="AA22" t="s">
         <v>35</v>
       </c>
+      <c r="AB22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2472,8 +2531,11 @@
       <c r="AA23" t="s">
         <v>35</v>
       </c>
+      <c r="AB23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2555,8 +2617,11 @@
       <c r="AA24" t="s">
         <v>35</v>
       </c>
+      <c r="AB24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2638,8 +2703,11 @@
       <c r="AA25" t="s">
         <v>35</v>
       </c>
+      <c r="AB25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2721,8 +2789,11 @@
       <c r="AA26" t="s">
         <v>35</v>
       </c>
+      <c r="AB26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2804,8 +2875,11 @@
       <c r="AA27" t="s">
         <v>35</v>
       </c>
+      <c r="AB27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2887,8 +2961,11 @@
       <c r="AA28" t="s">
         <v>35</v>
       </c>
+      <c r="AB28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2970,8 +3047,11 @@
       <c r="AA29" t="s">
         <v>35</v>
       </c>
+      <c r="AB29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3053,9 +3133,12 @@
       <c r="AA30" t="s">
         <v>35</v>
       </c>
+      <c r="AB30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:Z30 AA3:AA8 AA10:AA11 AA13:AA30">
+  <conditionalFormatting sqref="C3:Z30 AA3:AB11 AA13:AB30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F631ACB-5DE1-4B63-BB74-3C9158DE7453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A73880-611B-4E17-BC6C-AD3BB81E6F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,10 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB3" sqref="AB3"/>
+      <selection pane="topRight" activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +635,10 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -651,10 +650,10 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -666,10 +665,10 @@
         <v>32</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
@@ -681,10 +680,10 @@
         <v>32</v>
       </c>
       <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
         <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -696,10 +695,10 @@
         <v>32</v>
       </c>
       <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
         <v>29</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
       </c>
       <c r="Y2" t="s">
         <v>31</v>
@@ -711,10 +710,10 @@
         <v>32</v>
       </c>
       <c r="AB2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" t="s">
         <v>29</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>30</v>
       </c>
       <c r="AD2" t="s">
         <v>31</v>
@@ -726,10 +725,10 @@
         <v>32</v>
       </c>
       <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
         <v>29</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>30</v>
       </c>
       <c r="AI2" t="s">
         <v>31</v>
@@ -817,7 +816,7 @@
       <c r="AA3" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A73880-611B-4E17-BC6C-AD3BB81E6F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EBC830-FA84-4AA0-9FFC-B7F16C936E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI2" sqref="AI2"/>
+      <selection pane="topRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,19 +552,19 @@
         <v>44734</v>
       </c>
       <c r="F1" s="1">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="G1" s="1">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="H1" s="1">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="I1" s="1">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="J1" s="1">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="K1" s="1">
         <v>44774</v>
@@ -3138,8 +3153,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z30 AA3:AB11 AA13:AB30">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"f"</formula>
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EBC830-FA84-4AA0-9FFC-B7F16C936E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0119779-BA28-4B2A-8131-3E21E1093480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -188,16 +188,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W15" sqref="W15"/>
+      <selection pane="topRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +834,18 @@
       <c r="AB3" t="s">
         <v>35</v>
       </c>
+      <c r="AC3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -920,6 +932,18 @@
       <c r="AB4" t="s">
         <v>35</v>
       </c>
+      <c r="AC4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1006,6 +1030,18 @@
       <c r="AB5" t="s">
         <v>35</v>
       </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1092,6 +1128,18 @@
       <c r="AB6" t="s">
         <v>35</v>
       </c>
+      <c r="AC6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1178,6 +1226,18 @@
       <c r="AB7" t="s">
         <v>35</v>
       </c>
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1264,6 +1324,18 @@
       <c r="AB8" t="s">
         <v>35</v>
       </c>
+      <c r="AC8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1350,6 +1422,18 @@
       <c r="AB9" t="s">
         <v>35</v>
       </c>
+      <c r="AC9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1436,6 +1520,18 @@
       <c r="AB10" t="s">
         <v>35</v>
       </c>
+      <c r="AC10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1522,6 +1618,18 @@
       <c r="AB11" t="s">
         <v>35</v>
       </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1602,6 +1710,12 @@
       <c r="Z12" t="s">
         <v>34</v>
       </c>
+      <c r="AC12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1688,6 +1802,18 @@
       <c r="AB13" t="s">
         <v>35</v>
       </c>
+      <c r="AC13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1774,6 +1900,18 @@
       <c r="AB14" t="s">
         <v>35</v>
       </c>
+      <c r="AC14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1860,6 +1998,18 @@
       <c r="AB15" t="s">
         <v>35</v>
       </c>
+      <c r="AC15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1946,8 +2096,20 @@
       <c r="AB16" t="s">
         <v>35</v>
       </c>
+      <c r="AC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2032,8 +2194,20 @@
       <c r="AB17" t="s">
         <v>35</v>
       </c>
+      <c r="AC17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2118,8 +2292,20 @@
       <c r="AB18" t="s">
         <v>35</v>
       </c>
+      <c r="AC18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2204,8 +2390,20 @@
       <c r="AB19" t="s">
         <v>35</v>
       </c>
+      <c r="AC19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2290,8 +2488,20 @@
       <c r="AB20" t="s">
         <v>35</v>
       </c>
+      <c r="AC20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2376,8 +2586,20 @@
       <c r="AB21" t="s">
         <v>35</v>
       </c>
+      <c r="AC21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2462,8 +2684,20 @@
       <c r="AB22" t="s">
         <v>35</v>
       </c>
+      <c r="AC22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2548,8 +2782,20 @@
       <c r="AB23" t="s">
         <v>35</v>
       </c>
+      <c r="AC23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2634,8 +2880,20 @@
       <c r="AB24" t="s">
         <v>35</v>
       </c>
+      <c r="AC24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2720,8 +2978,20 @@
       <c r="AB25" t="s">
         <v>35</v>
       </c>
+      <c r="AC25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2806,8 +3076,20 @@
       <c r="AB26" t="s">
         <v>35</v>
       </c>
+      <c r="AC26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2892,8 +3174,20 @@
       <c r="AB27" t="s">
         <v>35</v>
       </c>
+      <c r="AC27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2978,8 +3272,20 @@
       <c r="AB28" t="s">
         <v>35</v>
       </c>
+      <c r="AC28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3064,8 +3370,20 @@
       <c r="AB29" t="s">
         <v>35</v>
       </c>
+      <c r="AC29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3148,18 +3466,35 @@
         <v>35</v>
       </c>
       <c r="AB30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF30" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z30 AA3:AB11 AA13:AB30">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AD30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"F"</formula>
+      <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0119779-BA28-4B2A-8131-3E21E1093480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB2EF7-703A-4784-B15D-92FDE27B8ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG9" sqref="AG9"/>
+      <selection pane="topRight" activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2008,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB2EF7-703A-4784-B15D-92FDE27B8ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF9329-C632-499D-A0A5-665BCCC002F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -147,8 +147,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,9 +184,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG16" sqref="AG16"/>
+      <selection pane="topRight" activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +855,9 @@
       <c r="AF3" t="s">
         <v>35</v>
       </c>
+      <c r="AG3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -944,6 +956,9 @@
       <c r="AF4" t="s">
         <v>35</v>
       </c>
+      <c r="AG4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1042,6 +1057,9 @@
       <c r="AF5" t="s">
         <v>35</v>
       </c>
+      <c r="AG5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1140,6 +1158,9 @@
       <c r="AF6" t="s">
         <v>35</v>
       </c>
+      <c r="AG6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1238,6 +1259,9 @@
       <c r="AF7" t="s">
         <v>35</v>
       </c>
+      <c r="AG7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1336,6 +1360,9 @@
       <c r="AF8" t="s">
         <v>35</v>
       </c>
+      <c r="AG8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1434,6 +1461,9 @@
       <c r="AF9" t="s">
         <v>35</v>
       </c>
+      <c r="AG9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1532,6 +1562,9 @@
       <c r="AF10" t="s">
         <v>35</v>
       </c>
+      <c r="AG10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1630,6 +1663,9 @@
       <c r="AF11" t="s">
         <v>35</v>
       </c>
+      <c r="AG11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1814,6 +1850,9 @@
       <c r="AF13" t="s">
         <v>35</v>
       </c>
+      <c r="AG13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1912,6 +1951,9 @@
       <c r="AF14" t="s">
         <v>35</v>
       </c>
+      <c r="AG14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2010,6 +2052,9 @@
       <c r="AF15" t="s">
         <v>35</v>
       </c>
+      <c r="AG15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2108,8 +2153,11 @@
       <c r="AF16" t="s">
         <v>34</v>
       </c>
+      <c r="AG16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2206,8 +2254,11 @@
       <c r="AF17" t="s">
         <v>35</v>
       </c>
+      <c r="AG17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2304,8 +2355,11 @@
       <c r="AF18" t="s">
         <v>35</v>
       </c>
+      <c r="AG18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2402,8 +2456,11 @@
       <c r="AF19" t="s">
         <v>35</v>
       </c>
+      <c r="AG19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2500,8 +2557,11 @@
       <c r="AF20" t="s">
         <v>35</v>
       </c>
+      <c r="AG20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2598,8 +2658,11 @@
       <c r="AF21" t="s">
         <v>35</v>
       </c>
+      <c r="AG21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2696,8 +2759,12 @@
       <c r="AF22" t="s">
         <v>34</v>
       </c>
+      <c r="AG22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2794,8 +2861,11 @@
       <c r="AF23" t="s">
         <v>34</v>
       </c>
+      <c r="AG23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2892,8 +2962,11 @@
       <c r="AF24" t="s">
         <v>35</v>
       </c>
+      <c r="AG24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2990,8 +3063,11 @@
       <c r="AF25" t="s">
         <v>35</v>
       </c>
+      <c r="AG25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3088,8 +3164,11 @@
       <c r="AF26" t="s">
         <v>35</v>
       </c>
+      <c r="AG26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3186,8 +3265,11 @@
       <c r="AF27" t="s">
         <v>34</v>
       </c>
+      <c r="AG27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3284,8 +3366,11 @@
       <c r="AF28" t="s">
         <v>35</v>
       </c>
+      <c r="AG28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3382,8 +3467,11 @@
       <c r="AF29" t="s">
         <v>35</v>
       </c>
+      <c r="AG29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3478,6 +3566,9 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF9329-C632-499D-A0A5-665BCCC002F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD65BB-596C-48D1-BD8E-B89CFC1785D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -184,10 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI22" sqref="AI22"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +752,7 @@
       <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AI2" t="s">
@@ -858,6 +859,9 @@
       <c r="AG3" t="s">
         <v>35</v>
       </c>
+      <c r="AH3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -959,6 +963,9 @@
       <c r="AG4" t="s">
         <v>35</v>
       </c>
+      <c r="AH4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1060,6 +1067,9 @@
       <c r="AG5" t="s">
         <v>35</v>
       </c>
+      <c r="AH5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1161,6 +1171,9 @@
       <c r="AG6" t="s">
         <v>35</v>
       </c>
+      <c r="AH6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1262,6 +1275,9 @@
       <c r="AG7" t="s">
         <v>35</v>
       </c>
+      <c r="AH7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1363,6 +1379,9 @@
       <c r="AG8" t="s">
         <v>35</v>
       </c>
+      <c r="AH8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1464,6 +1483,9 @@
       <c r="AG9" t="s">
         <v>35</v>
       </c>
+      <c r="AH9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1565,6 +1587,9 @@
       <c r="AG10" t="s">
         <v>35</v>
       </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1666,6 +1691,9 @@
       <c r="AG11" t="s">
         <v>35</v>
       </c>
+      <c r="AH11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1853,6 +1881,9 @@
       <c r="AG13" t="s">
         <v>35</v>
       </c>
+      <c r="AH13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1954,6 +1985,9 @@
       <c r="AG14" t="s">
         <v>35</v>
       </c>
+      <c r="AH14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2055,6 +2089,9 @@
       <c r="AG15" t="s">
         <v>35</v>
       </c>
+      <c r="AH15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2156,6 +2193,9 @@
       <c r="AG16" t="s">
         <v>35</v>
       </c>
+      <c r="AH16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2257,6 +2297,9 @@
       <c r="AG17" t="s">
         <v>35</v>
       </c>
+      <c r="AH17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2358,6 +2401,9 @@
       <c r="AG18" t="s">
         <v>35</v>
       </c>
+      <c r="AH18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2459,6 +2505,9 @@
       <c r="AG19" t="s">
         <v>35</v>
       </c>
+      <c r="AH19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2560,6 +2609,9 @@
       <c r="AG20" t="s">
         <v>35</v>
       </c>
+      <c r="AH20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2661,6 +2713,9 @@
       <c r="AG21" t="s">
         <v>34</v>
       </c>
+      <c r="AH21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2760,6 +2815,9 @@
         <v>34</v>
       </c>
       <c r="AG22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH22" t="s">
         <v>35</v>
       </c>
       <c r="AI22" s="2"/>
@@ -2864,6 +2922,9 @@
       <c r="AG23" t="s">
         <v>35</v>
       </c>
+      <c r="AH23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2965,6 +3026,9 @@
       <c r="AG24" t="s">
         <v>35</v>
       </c>
+      <c r="AH24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3066,6 +3130,9 @@
       <c r="AG25" t="s">
         <v>35</v>
       </c>
+      <c r="AH25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3167,6 +3234,9 @@
       <c r="AG26" t="s">
         <v>35</v>
       </c>
+      <c r="AH26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3268,6 +3338,9 @@
       <c r="AG27" t="s">
         <v>35</v>
       </c>
+      <c r="AH27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3369,6 +3442,9 @@
       <c r="AG28" t="s">
         <v>35</v>
       </c>
+      <c r="AH28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3470,6 +3546,9 @@
       <c r="AG29" t="s">
         <v>35</v>
       </c>
+      <c r="AH29" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3570,6 +3649,9 @@
       </c>
       <c r="AG30" t="s">
         <v>35</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD65BB-596C-48D1-BD8E-B89CFC1785D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F304411-4BC5-4063-971F-DFDDCC473603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -147,16 +147,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,10 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +518,8 @@
   <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +743,7 @@
       <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" t="s">
         <v>29</v>
       </c>
       <c r="AI2" t="s">
@@ -862,6 +853,9 @@
       <c r="AH3" t="s">
         <v>35</v>
       </c>
+      <c r="AI3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -966,6 +960,9 @@
       <c r="AH4" t="s">
         <v>34</v>
       </c>
+      <c r="AI4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1070,6 +1067,9 @@
       <c r="AH5" t="s">
         <v>35</v>
       </c>
+      <c r="AI5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1174,6 +1174,9 @@
       <c r="AH6" t="s">
         <v>34</v>
       </c>
+      <c r="AI6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1278,6 +1281,9 @@
       <c r="AH7" t="s">
         <v>35</v>
       </c>
+      <c r="AI7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1382,6 +1388,9 @@
       <c r="AH8" t="s">
         <v>35</v>
       </c>
+      <c r="AI8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1486,6 +1495,9 @@
       <c r="AH9" t="s">
         <v>35</v>
       </c>
+      <c r="AI9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1590,6 +1602,9 @@
       <c r="AH10" t="s">
         <v>35</v>
       </c>
+      <c r="AI10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1694,6 +1709,9 @@
       <c r="AH11" t="s">
         <v>35</v>
       </c>
+      <c r="AI11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1884,6 +1902,9 @@
       <c r="AH13" t="s">
         <v>35</v>
       </c>
+      <c r="AI13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1988,6 +2009,9 @@
       <c r="AH14" t="s">
         <v>35</v>
       </c>
+      <c r="AI14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2092,6 +2116,9 @@
       <c r="AH15" t="s">
         <v>35</v>
       </c>
+      <c r="AI15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2196,6 +2223,9 @@
       <c r="AH16" t="s">
         <v>35</v>
       </c>
+      <c r="AI16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2300,6 +2330,9 @@
       <c r="AH17" t="s">
         <v>35</v>
       </c>
+      <c r="AI17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2404,6 +2437,9 @@
       <c r="AH18" t="s">
         <v>35</v>
       </c>
+      <c r="AI18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2508,6 +2544,9 @@
       <c r="AH19" t="s">
         <v>35</v>
       </c>
+      <c r="AI19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2612,6 +2651,9 @@
       <c r="AH20" t="s">
         <v>35</v>
       </c>
+      <c r="AI20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2716,6 +2758,9 @@
       <c r="AH21" t="s">
         <v>35</v>
       </c>
+      <c r="AI21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2820,7 +2865,9 @@
       <c r="AH22" t="s">
         <v>35</v>
       </c>
-      <c r="AI22" s="2"/>
+      <c r="AI22" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2925,6 +2972,9 @@
       <c r="AH23" t="s">
         <v>35</v>
       </c>
+      <c r="AI23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3029,6 +3079,9 @@
       <c r="AH24" t="s">
         <v>35</v>
       </c>
+      <c r="AI24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3133,6 +3186,9 @@
       <c r="AH25" t="s">
         <v>35</v>
       </c>
+      <c r="AI25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3237,6 +3293,9 @@
       <c r="AH26" t="s">
         <v>35</v>
       </c>
+      <c r="AI26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3341,6 +3400,9 @@
       <c r="AH27" t="s">
         <v>35</v>
       </c>
+      <c r="AI27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3445,6 +3507,9 @@
       <c r="AH28" t="s">
         <v>35</v>
       </c>
+      <c r="AI28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3549,6 +3614,9 @@
       <c r="AH29" t="s">
         <v>35</v>
       </c>
+      <c r="AI29" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3652,6 +3720,9 @@
       </c>
       <c r="AH30" t="s">
         <v>34</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F304411-4BC5-4063-971F-DFDDCC473603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DBBBBE-5234-4133-A6F9-14D82E902D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -179,7 +179,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI27" sqref="AI27"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +541,10 @@
     <col min="20" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="35" width="7" customWidth="1"/>
+    <col min="26" max="50" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -642,8 +644,38 @@
       <c r="AI1" s="1">
         <v>44806</v>
       </c>
+      <c r="AJ1" s="2">
+        <v>44809</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>44810</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>44811</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>44812</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>44813</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>44816</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>44817</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>44818</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>44819</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>44820</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -749,8 +781,53 @@
       <c r="AI2" t="s">
         <v>31</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -856,8 +933,11 @@
       <c r="AI3" t="s">
         <v>35</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -963,8 +1043,11 @@
       <c r="AI4" t="s">
         <v>35</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1070,8 +1153,11 @@
       <c r="AI5" t="s">
         <v>35</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1177,8 +1263,11 @@
       <c r="AI6" t="s">
         <v>35</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1284,8 +1373,11 @@
       <c r="AI7" t="s">
         <v>35</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1391,8 +1483,11 @@
       <c r="AI8" t="s">
         <v>35</v>
       </c>
+      <c r="AJ8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1498,8 +1593,11 @@
       <c r="AI9" t="s">
         <v>35</v>
       </c>
+      <c r="AJ9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1605,8 +1703,11 @@
       <c r="AI10" t="s">
         <v>35</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1712,8 +1813,11 @@
       <c r="AI11" t="s">
         <v>35</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1905,8 +2009,11 @@
       <c r="AI13" t="s">
         <v>35</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2012,8 +2119,11 @@
       <c r="AI14" t="s">
         <v>35</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2119,8 +2229,11 @@
       <c r="AI15" t="s">
         <v>34</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2226,8 +2339,11 @@
       <c r="AI16" t="s">
         <v>35</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2333,8 +2449,11 @@
       <c r="AI17" t="s">
         <v>35</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2559,11 @@
       <c r="AI18" t="s">
         <v>35</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2547,8 +2669,11 @@
       <c r="AI19" t="s">
         <v>35</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2654,8 +2779,11 @@
       <c r="AI20" t="s">
         <v>35</v>
       </c>
+      <c r="AJ20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2761,8 +2889,11 @@
       <c r="AI21" t="s">
         <v>35</v>
       </c>
+      <c r="AJ21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2865,11 +2996,14 @@
       <c r="AH22" t="s">
         <v>35</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AI22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2975,8 +3109,11 @@
       <c r="AI23" t="s">
         <v>35</v>
       </c>
+      <c r="AJ23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3082,8 +3219,11 @@
       <c r="AI24" t="s">
         <v>35</v>
       </c>
+      <c r="AJ24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3189,8 +3329,11 @@
       <c r="AI25" t="s">
         <v>35</v>
       </c>
+      <c r="AJ25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3296,8 +3439,11 @@
       <c r="AI26" t="s">
         <v>35</v>
       </c>
+      <c r="AJ26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3403,8 +3549,11 @@
       <c r="AI27" t="s">
         <v>35</v>
       </c>
+      <c r="AJ27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3510,8 +3659,11 @@
       <c r="AI28" t="s">
         <v>35</v>
       </c>
+      <c r="AJ28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3617,8 +3769,11 @@
       <c r="AI29" t="s">
         <v>35</v>
       </c>
+      <c r="AJ29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3722,6 +3877,9 @@
         <v>34</v>
       </c>
       <c r="AI30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DBBBBE-5234-4133-A6F9-14D82E902D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A467902-6E12-48F6-9883-68124FF353D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -520,8 +520,8 @@
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO9" sqref="AO9"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,6 +936,9 @@
       <c r="AJ3" t="s">
         <v>34</v>
       </c>
+      <c r="AK3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1046,6 +1049,9 @@
       <c r="AJ4" t="s">
         <v>35</v>
       </c>
+      <c r="AK4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1156,6 +1162,9 @@
       <c r="AJ5" t="s">
         <v>35</v>
       </c>
+      <c r="AK5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1266,6 +1275,9 @@
       <c r="AJ6" t="s">
         <v>35</v>
       </c>
+      <c r="AK6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1376,6 +1388,9 @@
       <c r="AJ7" t="s">
         <v>35</v>
       </c>
+      <c r="AK7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1486,6 +1501,9 @@
       <c r="AJ8" t="s">
         <v>35</v>
       </c>
+      <c r="AK8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1596,6 +1614,9 @@
       <c r="AJ9" t="s">
         <v>35</v>
       </c>
+      <c r="AK9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1706,6 +1727,9 @@
       <c r="AJ10" t="s">
         <v>35</v>
       </c>
+      <c r="AK10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1816,6 +1840,9 @@
       <c r="AJ11" t="s">
         <v>35</v>
       </c>
+      <c r="AK11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2012,6 +2039,9 @@
       <c r="AJ13" t="s">
         <v>35</v>
       </c>
+      <c r="AK13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2122,6 +2152,9 @@
       <c r="AJ14" t="s">
         <v>35</v>
       </c>
+      <c r="AK14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2232,6 +2265,9 @@
       <c r="AJ15" t="s">
         <v>35</v>
       </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2342,8 +2378,11 @@
       <c r="AJ16" t="s">
         <v>35</v>
       </c>
+      <c r="AK16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2452,8 +2491,11 @@
       <c r="AJ17" t="s">
         <v>35</v>
       </c>
+      <c r="AK17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2562,8 +2604,11 @@
       <c r="AJ18" t="s">
         <v>35</v>
       </c>
+      <c r="AK18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2672,8 +2717,11 @@
       <c r="AJ19" t="s">
         <v>35</v>
       </c>
+      <c r="AK19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2782,8 +2830,11 @@
       <c r="AJ20" t="s">
         <v>35</v>
       </c>
+      <c r="AK20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2892,8 +2943,11 @@
       <c r="AJ21" t="s">
         <v>35</v>
       </c>
+      <c r="AK21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3002,8 +3056,11 @@
       <c r="AJ22" t="s">
         <v>35</v>
       </c>
+      <c r="AK22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3112,8 +3169,11 @@
       <c r="AJ23" t="s">
         <v>35</v>
       </c>
+      <c r="AK23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3222,8 +3282,11 @@
       <c r="AJ24" t="s">
         <v>35</v>
       </c>
+      <c r="AK24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3332,8 +3395,11 @@
       <c r="AJ25" t="s">
         <v>35</v>
       </c>
+      <c r="AK25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3442,8 +3508,11 @@
       <c r="AJ26" t="s">
         <v>35</v>
       </c>
+      <c r="AK26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3552,8 +3621,11 @@
       <c r="AJ27" t="s">
         <v>35</v>
       </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3662,8 +3734,11 @@
       <c r="AJ28" t="s">
         <v>35</v>
       </c>
+      <c r="AK28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3772,8 +3847,11 @@
       <c r="AJ29" t="s">
         <v>35</v>
       </c>
+      <c r="AK29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3880,6 +3958,9 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A467902-6E12-48F6-9883-68124FF353D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA06BA-BD15-4B35-9557-6B25D91280BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -520,8 +520,8 @@
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT10" sqref="AT10"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL31" sqref="AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +939,9 @@
       <c r="AK3" t="s">
         <v>35</v>
       </c>
+      <c r="AL3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1052,6 +1055,9 @@
       <c r="AK4" t="s">
         <v>35</v>
       </c>
+      <c r="AL4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1165,6 +1171,9 @@
       <c r="AK5" t="s">
         <v>35</v>
       </c>
+      <c r="AL5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1278,6 +1287,9 @@
       <c r="AK6" t="s">
         <v>35</v>
       </c>
+      <c r="AL6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1391,6 +1403,9 @@
       <c r="AK7" t="s">
         <v>35</v>
       </c>
+      <c r="AL7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1504,6 +1519,9 @@
       <c r="AK8" t="s">
         <v>35</v>
       </c>
+      <c r="AL8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1617,6 +1635,9 @@
       <c r="AK9" t="s">
         <v>34</v>
       </c>
+      <c r="AL9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1730,6 +1751,9 @@
       <c r="AK10" t="s">
         <v>35</v>
       </c>
+      <c r="AL10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1843,6 +1867,9 @@
       <c r="AK11" t="s">
         <v>35</v>
       </c>
+      <c r="AL11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2042,6 +2069,9 @@
       <c r="AK13" t="s">
         <v>35</v>
       </c>
+      <c r="AL13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2155,6 +2185,9 @@
       <c r="AK14" t="s">
         <v>35</v>
       </c>
+      <c r="AL14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2268,6 +2301,9 @@
       <c r="AK15" t="s">
         <v>34</v>
       </c>
+      <c r="AL15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2381,8 +2417,11 @@
       <c r="AK16" t="s">
         <v>35</v>
       </c>
+      <c r="AL16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2494,8 +2533,11 @@
       <c r="AK17" t="s">
         <v>35</v>
       </c>
+      <c r="AL17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2607,8 +2649,11 @@
       <c r="AK18" t="s">
         <v>35</v>
       </c>
+      <c r="AL18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2720,8 +2765,11 @@
       <c r="AK19" t="s">
         <v>35</v>
       </c>
+      <c r="AL19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2833,8 +2881,11 @@
       <c r="AK20" t="s">
         <v>35</v>
       </c>
+      <c r="AL20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2946,8 +2997,11 @@
       <c r="AK21" t="s">
         <v>35</v>
       </c>
+      <c r="AL21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3059,8 +3113,11 @@
       <c r="AK22" t="s">
         <v>35</v>
       </c>
+      <c r="AL22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3172,8 +3229,11 @@
       <c r="AK23" t="s">
         <v>35</v>
       </c>
+      <c r="AL23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3285,8 +3345,11 @@
       <c r="AK24" t="s">
         <v>35</v>
       </c>
+      <c r="AL24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3398,8 +3461,11 @@
       <c r="AK25" t="s">
         <v>35</v>
       </c>
+      <c r="AL25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3511,8 +3577,11 @@
       <c r="AK26" t="s">
         <v>34</v>
       </c>
+      <c r="AL26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3624,8 +3693,11 @@
       <c r="AK27" t="s">
         <v>35</v>
       </c>
+      <c r="AL27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3737,8 +3809,11 @@
       <c r="AK28" t="s">
         <v>35</v>
       </c>
+      <c r="AL28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3850,8 +3925,11 @@
       <c r="AK29" t="s">
         <v>35</v>
       </c>
+      <c r="AL29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3961,6 +4039,9 @@
         <v>35</v>
       </c>
       <c r="AK30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA06BA-BD15-4B35-9557-6B25D91280BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0336A1-1CEC-4812-ACB4-5C17B8A43E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,7 +521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL31" sqref="AL31"/>
+      <selection pane="topRight" activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,6 +942,12 @@
       <c r="AL3" t="s">
         <v>35</v>
       </c>
+      <c r="AM3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1058,6 +1064,12 @@
       <c r="AL4" t="s">
         <v>35</v>
       </c>
+      <c r="AM4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1174,6 +1186,12 @@
       <c r="AL5" t="s">
         <v>35</v>
       </c>
+      <c r="AM5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1290,6 +1308,12 @@
       <c r="AL6" t="s">
         <v>35</v>
       </c>
+      <c r="AM6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1406,6 +1430,12 @@
       <c r="AL7" t="s">
         <v>35</v>
       </c>
+      <c r="AM7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1522,6 +1552,12 @@
       <c r="AL8" t="s">
         <v>35</v>
       </c>
+      <c r="AM8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1638,6 +1674,12 @@
       <c r="AL9" t="s">
         <v>35</v>
       </c>
+      <c r="AM9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1754,6 +1796,12 @@
       <c r="AL10" t="s">
         <v>35</v>
       </c>
+      <c r="AM10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1870,6 +1918,12 @@
       <c r="AL11" t="s">
         <v>35</v>
       </c>
+      <c r="AM11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2072,6 +2126,12 @@
       <c r="AL13" t="s">
         <v>35</v>
       </c>
+      <c r="AM13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2188,6 +2248,12 @@
       <c r="AL14" t="s">
         <v>34</v>
       </c>
+      <c r="AM14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2304,6 +2370,12 @@
       <c r="AL15" t="s">
         <v>35</v>
       </c>
+      <c r="AM15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2420,8 +2492,14 @@
       <c r="AL16" t="s">
         <v>35</v>
       </c>
+      <c r="AM16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2536,8 +2614,14 @@
       <c r="AL17" t="s">
         <v>35</v>
       </c>
+      <c r="AM17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2652,8 +2736,14 @@
       <c r="AL18" t="s">
         <v>34</v>
       </c>
+      <c r="AM18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2768,8 +2858,14 @@
       <c r="AL19" t="s">
         <v>35</v>
       </c>
+      <c r="AM19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2884,8 +2980,14 @@
       <c r="AL20" t="s">
         <v>35</v>
       </c>
+      <c r="AM20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3000,8 +3102,14 @@
       <c r="AL21" t="s">
         <v>35</v>
       </c>
+      <c r="AM21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3224,14 @@
       <c r="AL22" t="s">
         <v>35</v>
       </c>
+      <c r="AM22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3232,8 +3346,14 @@
       <c r="AL23" t="s">
         <v>35</v>
       </c>
+      <c r="AM23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3348,8 +3468,14 @@
       <c r="AL24" t="s">
         <v>35</v>
       </c>
+      <c r="AM24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3464,8 +3590,14 @@
       <c r="AL25" t="s">
         <v>35</v>
       </c>
+      <c r="AM25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3580,8 +3712,14 @@
       <c r="AL26" t="s">
         <v>35</v>
       </c>
+      <c r="AM26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3696,8 +3834,14 @@
       <c r="AL27" t="s">
         <v>35</v>
       </c>
+      <c r="AM27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3812,8 +3956,14 @@
       <c r="AL28" t="s">
         <v>35</v>
       </c>
+      <c r="AM28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3928,8 +4078,14 @@
       <c r="AL29" t="s">
         <v>35</v>
       </c>
+      <c r="AM29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4042,6 +4198,12 @@
         <v>35</v>
       </c>
       <c r="AL30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0336A1-1CEC-4812-ACB4-5C17B8A43E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719B98C8-6296-4EDC-8D8C-54B227EC98F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,7 +521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN19" sqref="AN19"/>
+      <selection pane="topRight" activeCell="AO30" sqref="AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +948,9 @@
       <c r="AN3" t="s">
         <v>35</v>
       </c>
+      <c r="AO3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1070,6 +1073,9 @@
       <c r="AN4" t="s">
         <v>35</v>
       </c>
+      <c r="AO4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1192,6 +1198,9 @@
       <c r="AN5" t="s">
         <v>35</v>
       </c>
+      <c r="AO5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1314,6 +1323,9 @@
       <c r="AN6" t="s">
         <v>35</v>
       </c>
+      <c r="AO6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1436,6 +1448,9 @@
       <c r="AN7" t="s">
         <v>35</v>
       </c>
+      <c r="AO7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1558,6 +1573,9 @@
       <c r="AN8" t="s">
         <v>34</v>
       </c>
+      <c r="AO8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1680,6 +1698,9 @@
       <c r="AN9" t="s">
         <v>35</v>
       </c>
+      <c r="AO9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1802,6 +1823,9 @@
       <c r="AN10" t="s">
         <v>35</v>
       </c>
+      <c r="AO10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1924,6 +1948,9 @@
       <c r="AN11" t="s">
         <v>35</v>
       </c>
+      <c r="AO11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2132,6 +2159,9 @@
       <c r="AN13" t="s">
         <v>35</v>
       </c>
+      <c r="AO13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2254,6 +2284,9 @@
       <c r="AN14" t="s">
         <v>35</v>
       </c>
+      <c r="AO14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2376,6 +2409,9 @@
       <c r="AN15" t="s">
         <v>35</v>
       </c>
+      <c r="AO15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2498,8 +2534,11 @@
       <c r="AN16" t="s">
         <v>35</v>
       </c>
+      <c r="AO16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2620,8 +2659,11 @@
       <c r="AN17" t="s">
         <v>35</v>
       </c>
+      <c r="AO17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2742,8 +2784,11 @@
       <c r="AN18" t="s">
         <v>35</v>
       </c>
+      <c r="AO18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2864,8 +2909,11 @@
       <c r="AN19" t="s">
         <v>35</v>
       </c>
+      <c r="AO19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2986,8 +3034,11 @@
       <c r="AN20" t="s">
         <v>35</v>
       </c>
+      <c r="AO20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3108,8 +3159,11 @@
       <c r="AN21" t="s">
         <v>35</v>
       </c>
+      <c r="AO21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3230,8 +3284,11 @@
       <c r="AN22" t="s">
         <v>35</v>
       </c>
+      <c r="AO22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3352,8 +3409,11 @@
       <c r="AN23" t="s">
         <v>35</v>
       </c>
+      <c r="AO23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3474,8 +3534,11 @@
       <c r="AN24" t="s">
         <v>35</v>
       </c>
+      <c r="AO24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3596,8 +3659,11 @@
       <c r="AN25" t="s">
         <v>35</v>
       </c>
+      <c r="AO25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3718,8 +3784,11 @@
       <c r="AN26" t="s">
         <v>35</v>
       </c>
+      <c r="AO26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3840,8 +3909,11 @@
       <c r="AN27" t="s">
         <v>35</v>
       </c>
+      <c r="AO27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3962,8 +4034,11 @@
       <c r="AN28" t="s">
         <v>35</v>
       </c>
+      <c r="AO28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4084,8 +4159,11 @@
       <c r="AN29" t="s">
         <v>35</v>
       </c>
+      <c r="AO29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4204,6 +4282,9 @@
         <v>35</v>
       </c>
       <c r="AN30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719B98C8-6296-4EDC-8D8C-54B227EC98F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EDC67C-B418-4C85-8B9B-655964D2E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -519,9 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO30" sqref="AO30"/>
+      <selection pane="topRight" activeCell="AP25" sqref="AP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +951,9 @@
       <c r="AO3" t="s">
         <v>34</v>
       </c>
+      <c r="AP3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1076,6 +1079,9 @@
       <c r="AO4" t="s">
         <v>35</v>
       </c>
+      <c r="AP4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1201,6 +1207,9 @@
       <c r="AO5" t="s">
         <v>35</v>
       </c>
+      <c r="AP5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1326,6 +1335,9 @@
       <c r="AO6" t="s">
         <v>34</v>
       </c>
+      <c r="AP6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1451,6 +1463,9 @@
       <c r="AO7" t="s">
         <v>35</v>
       </c>
+      <c r="AP7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1576,6 +1591,9 @@
       <c r="AO8" t="s">
         <v>35</v>
       </c>
+      <c r="AP8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1701,6 +1719,9 @@
       <c r="AO9" t="s">
         <v>34</v>
       </c>
+      <c r="AP9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1826,6 +1847,9 @@
       <c r="AO10" t="s">
         <v>35</v>
       </c>
+      <c r="AP10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1951,6 +1975,9 @@
       <c r="AO11" t="s">
         <v>35</v>
       </c>
+      <c r="AP11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2162,6 +2189,9 @@
       <c r="AO13" t="s">
         <v>35</v>
       </c>
+      <c r="AP13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2287,6 +2317,9 @@
       <c r="AO14" t="s">
         <v>35</v>
       </c>
+      <c r="AP14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2412,6 +2445,9 @@
       <c r="AO15" t="s">
         <v>35</v>
       </c>
+      <c r="AP15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2537,8 +2573,11 @@
       <c r="AO16" t="s">
         <v>35</v>
       </c>
+      <c r="AP16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2662,8 +2701,11 @@
       <c r="AO17" t="s">
         <v>35</v>
       </c>
+      <c r="AP17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2787,8 +2829,11 @@
       <c r="AO18" t="s">
         <v>35</v>
       </c>
+      <c r="AP18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2912,8 +2957,11 @@
       <c r="AO19" t="s">
         <v>35</v>
       </c>
+      <c r="AP19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3037,8 +3085,11 @@
       <c r="AO20" t="s">
         <v>35</v>
       </c>
+      <c r="AP20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3162,8 +3213,11 @@
       <c r="AO21" t="s">
         <v>35</v>
       </c>
+      <c r="AP21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3287,8 +3341,11 @@
       <c r="AO22" t="s">
         <v>35</v>
       </c>
+      <c r="AP22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3412,8 +3469,11 @@
       <c r="AO23" t="s">
         <v>35</v>
       </c>
+      <c r="AP23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3537,8 +3597,11 @@
       <c r="AO24" t="s">
         <v>35</v>
       </c>
+      <c r="AP24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3662,8 +3725,11 @@
       <c r="AO25" t="s">
         <v>35</v>
       </c>
+      <c r="AP25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3787,8 +3853,11 @@
       <c r="AO26" t="s">
         <v>35</v>
       </c>
+      <c r="AP26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3912,8 +3981,11 @@
       <c r="AO27" t="s">
         <v>35</v>
       </c>
+      <c r="AP27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4037,8 +4109,11 @@
       <c r="AO28" t="s">
         <v>35</v>
       </c>
+      <c r="AP28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4162,8 +4237,11 @@
       <c r="AO29" t="s">
         <v>35</v>
       </c>
+      <c r="AP29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4285,6 +4363,9 @@
         <v>35</v>
       </c>
       <c r="AO30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EDC67C-B418-4C85-8B9B-655964D2E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0A253-840C-4CF7-A322-A0EC15042B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -142,6 +145,9 @@
   <si>
     <t>P</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -176,10 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,11 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP25" sqref="AP25"/>
+      <selection pane="topRight" activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +550,10 @@
     <col min="20" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="50" width="7" customWidth="1"/>
+    <col min="26" max="55" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -674,8 +683,38 @@
       <c r="AS1" s="2">
         <v>44820</v>
       </c>
+      <c r="AT1" s="2">
+        <v>44823</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>44824</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>44825</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>44826</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>44827</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>44830</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>44831</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>44832</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>44833</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>44834</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -811,23 +850,38 @@
       <c r="AS2" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="AY2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -949,13 +1003,19 @@
         <v>35</v>
       </c>
       <c r="AO3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1077,13 +1137,19 @@
         <v>35</v>
       </c>
       <c r="AO4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP4" t="s">
         <v>35</v>
       </c>
+      <c r="AQ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1205,13 +1271,19 @@
         <v>35</v>
       </c>
       <c r="AO5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP5" t="s">
         <v>35</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1333,13 +1405,19 @@
         <v>35</v>
       </c>
       <c r="AO6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP6" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1461,13 +1539,19 @@
         <v>35</v>
       </c>
       <c r="AO7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP7" t="s">
         <v>35</v>
       </c>
+      <c r="AQ7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1589,13 +1673,19 @@
         <v>34</v>
       </c>
       <c r="AO8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP8" t="s">
         <v>35</v>
       </c>
+      <c r="AQ8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1717,13 +1807,19 @@
         <v>35</v>
       </c>
       <c r="AO9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1845,13 +1941,19 @@
         <v>35</v>
       </c>
       <c r="AO10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP10" t="s">
         <v>35</v>
       </c>
+      <c r="AQ10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1973,13 +2075,19 @@
         <v>35</v>
       </c>
       <c r="AO11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP11" t="s">
         <v>35</v>
       </c>
+      <c r="AQ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2064,8 +2172,11 @@
       <c r="AD12" t="s">
         <v>35</v>
       </c>
+      <c r="AO12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2187,13 +2298,19 @@
         <v>35</v>
       </c>
       <c r="AO13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP13" t="s">
         <v>35</v>
       </c>
+      <c r="AQ13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2315,13 +2432,19 @@
         <v>35</v>
       </c>
       <c r="AO14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP14" t="s">
         <v>35</v>
       </c>
+      <c r="AQ14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2443,13 +2566,19 @@
         <v>35</v>
       </c>
       <c r="AO15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP15" t="s">
         <v>35</v>
       </c>
+      <c r="AQ15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2571,13 +2700,19 @@
         <v>35</v>
       </c>
       <c r="AO16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP16" t="s">
         <v>35</v>
       </c>
+      <c r="AQ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2699,13 +2834,19 @@
         <v>35</v>
       </c>
       <c r="AO17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP17" t="s">
         <v>35</v>
       </c>
+      <c r="AQ17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2827,13 +2968,19 @@
         <v>35</v>
       </c>
       <c r="AO18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP18" t="s">
         <v>35</v>
       </c>
+      <c r="AQ18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2955,13 +3102,19 @@
         <v>35</v>
       </c>
       <c r="AO19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP19" t="s">
         <v>35</v>
       </c>
+      <c r="AQ19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3083,13 +3236,19 @@
         <v>35</v>
       </c>
       <c r="AO20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP20" t="s">
         <v>35</v>
       </c>
+      <c r="AQ20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3211,13 +3370,19 @@
         <v>35</v>
       </c>
       <c r="AO21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP21" t="s">
         <v>35</v>
       </c>
+      <c r="AQ21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3339,13 +3504,19 @@
         <v>35</v>
       </c>
       <c r="AO22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP22" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3467,13 +3638,19 @@
         <v>35</v>
       </c>
       <c r="AO23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP23" t="s">
         <v>35</v>
       </c>
+      <c r="AQ23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3595,13 +3772,19 @@
         <v>35</v>
       </c>
       <c r="AO24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP24" t="s">
         <v>35</v>
       </c>
+      <c r="AQ24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3723,13 +3906,19 @@
         <v>35</v>
       </c>
       <c r="AO25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP25" t="s">
         <v>35</v>
       </c>
+      <c r="AQ25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3851,13 +4040,19 @@
         <v>35</v>
       </c>
       <c r="AO26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP26" t="s">
         <v>35</v>
       </c>
+      <c r="AQ26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3979,13 +4174,19 @@
         <v>35</v>
       </c>
       <c r="AO27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP27" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4107,13 +4308,19 @@
         <v>35</v>
       </c>
       <c r="AO28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP28" t="s">
         <v>35</v>
       </c>
+      <c r="AQ28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4235,13 +4442,19 @@
         <v>35</v>
       </c>
       <c r="AO29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP29" t="s">
         <v>35</v>
       </c>
+      <c r="AQ29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4363,9 +4576,15 @@
         <v>35</v>
       </c>
       <c r="AO30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4375,7 +4594,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A3:AN30 A31:XFD1048576 AP3:XFD30 A1:XFD2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0A253-840C-4CF7-A322-A0EC15042B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C0303-42B1-4088-976D-10E306F1E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -529,8 +529,8 @@
   <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB8" sqref="BB8"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1014,9 @@
       <c r="AR3" t="s">
         <v>35</v>
       </c>
+      <c r="AS3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1148,6 +1151,9 @@
       <c r="AR4" t="s">
         <v>35</v>
       </c>
+      <c r="AS4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1282,6 +1288,9 @@
       <c r="AR5" t="s">
         <v>35</v>
       </c>
+      <c r="AS5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1416,6 +1425,9 @@
       <c r="AR6" t="s">
         <v>34</v>
       </c>
+      <c r="AS6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1550,6 +1562,9 @@
       <c r="AR7" t="s">
         <v>35</v>
       </c>
+      <c r="AS7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1684,6 +1699,9 @@
       <c r="AR8" t="s">
         <v>35</v>
       </c>
+      <c r="AS8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1818,6 +1836,9 @@
       <c r="AR9" t="s">
         <v>35</v>
       </c>
+      <c r="AS9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1952,6 +1973,9 @@
       <c r="AR10" t="s">
         <v>35</v>
       </c>
+      <c r="AS10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2086,6 +2110,9 @@
       <c r="AR11" t="s">
         <v>35</v>
       </c>
+      <c r="AS11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2309,6 +2336,9 @@
       <c r="AR13" t="s">
         <v>35</v>
       </c>
+      <c r="AS13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2443,6 +2473,9 @@
       <c r="AR14" t="s">
         <v>34</v>
       </c>
+      <c r="AS14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2577,6 +2610,9 @@
       <c r="AR15" t="s">
         <v>34</v>
       </c>
+      <c r="AS15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2711,8 +2747,11 @@
       <c r="AR16" t="s">
         <v>35</v>
       </c>
+      <c r="AS16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2845,8 +2884,11 @@
       <c r="AR17" t="s">
         <v>35</v>
       </c>
+      <c r="AS17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2979,8 +3021,11 @@
       <c r="AR18" t="s">
         <v>35</v>
       </c>
+      <c r="AS18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3113,8 +3158,11 @@
       <c r="AR19" t="s">
         <v>35</v>
       </c>
+      <c r="AS19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3245,10 +3293,13 @@
         <v>35</v>
       </c>
       <c r="AR20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3381,8 +3432,11 @@
       <c r="AR21" t="s">
         <v>35</v>
       </c>
+      <c r="AS21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3515,8 +3569,11 @@
       <c r="AR22" t="s">
         <v>35</v>
       </c>
+      <c r="AS22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3649,8 +3706,11 @@
       <c r="AR23" t="s">
         <v>35</v>
       </c>
+      <c r="AS23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3783,8 +3843,11 @@
       <c r="AR24" t="s">
         <v>35</v>
       </c>
+      <c r="AS24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3915,10 +3978,13 @@
         <v>35</v>
       </c>
       <c r="AR25" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4051,8 +4117,11 @@
       <c r="AR26" t="s">
         <v>35</v>
       </c>
+      <c r="AS26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4185,8 +4254,11 @@
       <c r="AR27" t="s">
         <v>35</v>
       </c>
+      <c r="AS27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4319,8 +4391,11 @@
       <c r="AR28" t="s">
         <v>34</v>
       </c>
+      <c r="AS28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4453,8 +4528,11 @@
       <c r="AR29" t="s">
         <v>35</v>
       </c>
+      <c r="AS29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4585,6 +4663,9 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C0303-42B1-4088-976D-10E306F1E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B773950-4194-4D23-8735-81B8F233C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -530,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS20" sqref="AS20"/>
+      <selection pane="topRight" activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,6 +1017,9 @@
       <c r="AS3" t="s">
         <v>34</v>
       </c>
+      <c r="AT3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1154,6 +1157,9 @@
       <c r="AS4" t="s">
         <v>35</v>
       </c>
+      <c r="AT4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1291,6 +1297,9 @@
       <c r="AS5" t="s">
         <v>35</v>
       </c>
+      <c r="AT5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1428,6 +1437,9 @@
       <c r="AS6" t="s">
         <v>34</v>
       </c>
+      <c r="AT6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1565,6 +1577,9 @@
       <c r="AS7" t="s">
         <v>35</v>
       </c>
+      <c r="AT7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1702,6 +1717,9 @@
       <c r="AS8" t="s">
         <v>35</v>
       </c>
+      <c r="AT8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1839,6 +1857,9 @@
       <c r="AS9" t="s">
         <v>35</v>
       </c>
+      <c r="AT9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1976,6 +1997,9 @@
       <c r="AS10" t="s">
         <v>35</v>
       </c>
+      <c r="AT10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2113,6 +2137,9 @@
       <c r="AS11" t="s">
         <v>35</v>
       </c>
+      <c r="AT11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2339,6 +2366,9 @@
       <c r="AS13" t="s">
         <v>35</v>
       </c>
+      <c r="AT13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2476,6 +2506,9 @@
       <c r="AS14" t="s">
         <v>34</v>
       </c>
+      <c r="AT14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2613,6 +2646,9 @@
       <c r="AS15" t="s">
         <v>35</v>
       </c>
+      <c r="AT15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2750,8 +2786,11 @@
       <c r="AS16" t="s">
         <v>35</v>
       </c>
+      <c r="AT16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2887,8 +2926,11 @@
       <c r="AS17" t="s">
         <v>35</v>
       </c>
+      <c r="AT17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3024,8 +3066,11 @@
       <c r="AS18" t="s">
         <v>35</v>
       </c>
+      <c r="AT18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3161,8 +3206,11 @@
       <c r="AS19" t="s">
         <v>35</v>
       </c>
+      <c r="AT19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3298,8 +3346,11 @@
       <c r="AS20" t="s">
         <v>34</v>
       </c>
+      <c r="AT20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3486,11 @@
       <c r="AS21" t="s">
         <v>35</v>
       </c>
+      <c r="AT21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3572,8 +3626,11 @@
       <c r="AS22" t="s">
         <v>35</v>
       </c>
+      <c r="AT22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3709,8 +3766,11 @@
       <c r="AS23" t="s">
         <v>35</v>
       </c>
+      <c r="AT23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3846,8 +3906,11 @@
       <c r="AS24" t="s">
         <v>35</v>
       </c>
+      <c r="AT24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3983,8 +4046,11 @@
       <c r="AS25" t="s">
         <v>35</v>
       </c>
+      <c r="AT25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4120,8 +4186,11 @@
       <c r="AS26" t="s">
         <v>35</v>
       </c>
+      <c r="AT26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4257,8 +4326,11 @@
       <c r="AS27" t="s">
         <v>35</v>
       </c>
+      <c r="AT27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4394,8 +4466,11 @@
       <c r="AS28" t="s">
         <v>35</v>
       </c>
+      <c r="AT28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4531,8 +4606,11 @@
       <c r="AS29" t="s">
         <v>35</v>
       </c>
+      <c r="AT29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4666,6 +4744,9 @@
         <v>35</v>
       </c>
       <c r="AS30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B773950-4194-4D23-8735-81B8F233C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297BF0D-62A8-40E5-AEF8-0B8172C63D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -530,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT28" sqref="AT28"/>
+      <selection pane="topRight" activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1020,9 @@
       <c r="AT3" t="s">
         <v>35</v>
       </c>
+      <c r="AU3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1160,6 +1163,9 @@
       <c r="AT4" t="s">
         <v>35</v>
       </c>
+      <c r="AU4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1300,6 +1306,9 @@
       <c r="AT5" t="s">
         <v>35</v>
       </c>
+      <c r="AU5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1440,6 +1449,9 @@
       <c r="AT6" t="s">
         <v>35</v>
       </c>
+      <c r="AU6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1580,6 +1592,9 @@
       <c r="AT7" t="s">
         <v>35</v>
       </c>
+      <c r="AU7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1720,6 +1735,9 @@
       <c r="AT8" t="s">
         <v>35</v>
       </c>
+      <c r="AU8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1860,6 +1878,9 @@
       <c r="AT9" t="s">
         <v>35</v>
       </c>
+      <c r="AU9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2000,6 +2021,9 @@
       <c r="AT10" t="s">
         <v>35</v>
       </c>
+      <c r="AU10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2140,6 +2164,9 @@
       <c r="AT11" t="s">
         <v>35</v>
       </c>
+      <c r="AU11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2229,6 +2256,9 @@
       <c r="AO12" t="s">
         <v>36</v>
       </c>
+      <c r="AU12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2369,6 +2399,9 @@
       <c r="AT13" t="s">
         <v>34</v>
       </c>
+      <c r="AU13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2509,6 +2542,9 @@
       <c r="AT14" t="s">
         <v>35</v>
       </c>
+      <c r="AU14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2649,6 +2685,9 @@
       <c r="AT15" t="s">
         <v>35</v>
       </c>
+      <c r="AU15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2789,8 +2828,11 @@
       <c r="AT16" t="s">
         <v>35</v>
       </c>
+      <c r="AU16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2929,8 +2971,11 @@
       <c r="AT17" t="s">
         <v>35</v>
       </c>
+      <c r="AU17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3069,8 +3114,11 @@
       <c r="AT18" t="s">
         <v>35</v>
       </c>
+      <c r="AU18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3209,8 +3257,11 @@
       <c r="AT19" t="s">
         <v>35</v>
       </c>
+      <c r="AU19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3349,8 +3400,11 @@
       <c r="AT20" t="s">
         <v>35</v>
       </c>
+      <c r="AU20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3489,8 +3543,11 @@
       <c r="AT21" t="s">
         <v>35</v>
       </c>
+      <c r="AU21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3629,8 +3686,11 @@
       <c r="AT22" t="s">
         <v>34</v>
       </c>
+      <c r="AU22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3769,8 +3829,11 @@
       <c r="AT23" t="s">
         <v>35</v>
       </c>
+      <c r="AU23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3909,8 +3972,11 @@
       <c r="AT24" t="s">
         <v>35</v>
       </c>
+      <c r="AU24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4049,8 +4115,11 @@
       <c r="AT25" t="s">
         <v>34</v>
       </c>
+      <c r="AU25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4189,8 +4258,11 @@
       <c r="AT26" t="s">
         <v>35</v>
       </c>
+      <c r="AU26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4329,8 +4401,11 @@
       <c r="AT27" t="s">
         <v>35</v>
       </c>
+      <c r="AU27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4469,8 +4544,11 @@
       <c r="AT28" t="s">
         <v>35</v>
       </c>
+      <c r="AU28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4609,8 +4687,11 @@
       <c r="AT29" t="s">
         <v>35</v>
       </c>
+      <c r="AU29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4747,6 +4828,9 @@
         <v>35</v>
       </c>
       <c r="AT30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4756,7 +4840,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A31:XFD1048576 AP3:XFD30 A1:XFD2">
+  <conditionalFormatting sqref="A3:AN30 A31:XFD1048576 A1:XFD2 AP3:XFD30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297BF0D-62A8-40E5-AEF8-0B8172C63D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1657F8-9FC0-428A-9824-B8E9B0E6A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -530,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR5" sqref="AR5"/>
+      <selection pane="topRight" activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,6 +1023,9 @@
       <c r="AU3" t="s">
         <v>35</v>
       </c>
+      <c r="AV3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1166,6 +1169,9 @@
       <c r="AU4" t="s">
         <v>35</v>
       </c>
+      <c r="AV4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1309,6 +1315,9 @@
       <c r="AU5" t="s">
         <v>35</v>
       </c>
+      <c r="AV5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1452,6 +1461,9 @@
       <c r="AU6" t="s">
         <v>35</v>
       </c>
+      <c r="AV6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1595,6 +1607,9 @@
       <c r="AU7" t="s">
         <v>35</v>
       </c>
+      <c r="AV7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1738,6 +1753,9 @@
       <c r="AU8" t="s">
         <v>35</v>
       </c>
+      <c r="AV8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1881,6 +1899,9 @@
       <c r="AU9" t="s">
         <v>35</v>
       </c>
+      <c r="AV9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2024,6 +2045,9 @@
       <c r="AU10" t="s">
         <v>35</v>
       </c>
+      <c r="AV10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2167,6 +2191,9 @@
       <c r="AU11" t="s">
         <v>35</v>
       </c>
+      <c r="AV11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2402,6 +2429,9 @@
       <c r="AU13" t="s">
         <v>35</v>
       </c>
+      <c r="AV13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2545,6 +2575,9 @@
       <c r="AU14" t="s">
         <v>35</v>
       </c>
+      <c r="AV14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2688,6 +2721,9 @@
       <c r="AU15" t="s">
         <v>35</v>
       </c>
+      <c r="AV15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2831,8 +2867,11 @@
       <c r="AU16" t="s">
         <v>35</v>
       </c>
+      <c r="AV16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2974,8 +3013,11 @@
       <c r="AU17" t="s">
         <v>35</v>
       </c>
+      <c r="AV17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3117,8 +3159,11 @@
       <c r="AU18" t="s">
         <v>35</v>
       </c>
+      <c r="AV18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3260,8 +3305,11 @@
       <c r="AU19" t="s">
         <v>35</v>
       </c>
+      <c r="AV19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3403,8 +3451,11 @@
       <c r="AU20" t="s">
         <v>35</v>
       </c>
+      <c r="AV20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3546,8 +3597,11 @@
       <c r="AU21" t="s">
         <v>35</v>
       </c>
+      <c r="AV21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3689,8 +3743,11 @@
       <c r="AU22" t="s">
         <v>35</v>
       </c>
+      <c r="AV22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3832,8 +3889,11 @@
       <c r="AU23" t="s">
         <v>35</v>
       </c>
+      <c r="AV23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3975,8 +4035,11 @@
       <c r="AU24" t="s">
         <v>35</v>
       </c>
+      <c r="AV24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4118,8 +4181,11 @@
       <c r="AU25" t="s">
         <v>35</v>
       </c>
+      <c r="AV25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4261,8 +4327,11 @@
       <c r="AU26" t="s">
         <v>35</v>
       </c>
+      <c r="AV26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4404,8 +4473,11 @@
       <c r="AU27" t="s">
         <v>35</v>
       </c>
+      <c r="AV27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4547,8 +4619,11 @@
       <c r="AU28" t="s">
         <v>35</v>
       </c>
+      <c r="AV28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4690,8 +4765,11 @@
       <c r="AU29" t="s">
         <v>35</v>
       </c>
+      <c r="AV29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4831,6 +4909,9 @@
         <v>35</v>
       </c>
       <c r="AU30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B773950-4194-4D23-8735-81B8F233C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9A772-35D3-421B-B842-3E3A4DF4B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -529,8 +526,8 @@
   <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT28" sqref="AT28"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU22" sqref="AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,7 +2495,7 @@
         <v>35</v>
       </c>
       <c r="AQ14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="s">
         <v>34</v>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9A772-35D3-421B-B842-3E3A4DF4B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CFA95-80A8-46EE-AD89-F0EC81FEE499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -192,12 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -526,8 +521,8 @@
   <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU22" sqref="AU22"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +875,10 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -979,13 +974,13 @@
         <v>35</v>
       </c>
       <c r="AH3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="s">
         <v>35</v>
       </c>
       <c r="AJ3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK3" t="s">
         <v>35</v>
@@ -1003,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="AP3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ3" t="s">
         <v>35</v>
@@ -1012,18 +1007,21 @@
         <v>35</v>
       </c>
       <c r="AS3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1065,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s">
         <v>35</v>
@@ -1098,13 +1096,13 @@
         <v>35</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="s">
         <v>35</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s">
         <v>35</v>
@@ -1119,13 +1117,13 @@
         <v>35</v>
       </c>
       <c r="AH4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI4" t="s">
         <v>35</v>
       </c>
       <c r="AJ4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="s">
         <v>35</v>
@@ -1143,7 +1141,7 @@
         <v>36</v>
       </c>
       <c r="AP4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="s">
         <v>35</v>
@@ -1152,18 +1150,21 @@
         <v>35</v>
       </c>
       <c r="AS4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1193,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
@@ -1205,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
         <v>35</v>
@@ -1238,13 +1239,13 @@
         <v>35</v>
       </c>
       <c r="AA5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="s">
         <v>35</v>
       </c>
       <c r="AC5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="s">
         <v>35</v>
@@ -1259,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="AH5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="s">
         <v>35</v>
@@ -1295,15 +1296,18 @@
         <v>35</v>
       </c>
       <c r="AT5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1330,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
@@ -1351,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
         <v>35</v>
@@ -1378,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="AA6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s">
         <v>35</v>
@@ -1399,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="AH6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI6" t="s">
         <v>35</v>
@@ -1423,27 +1427,30 @@
         <v>36</v>
       </c>
       <c r="AP6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ6" t="s">
         <v>35</v>
       </c>
       <c r="AR6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1470,10 +1477,10 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -1491,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
         <v>35</v>
@@ -1518,7 +1525,7 @@
         <v>35</v>
       </c>
       <c r="AA7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="s">
         <v>35</v>
@@ -1539,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="AH7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="s">
         <v>35</v>
@@ -1563,27 +1570,30 @@
         <v>36</v>
       </c>
       <c r="AP7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="s">
         <v>35</v>
       </c>
       <c r="AR7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -1697,7 +1707,7 @@
         <v>35</v>
       </c>
       <c r="AN8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO8" t="s">
         <v>36</v>
@@ -1715,15 +1725,18 @@
         <v>35</v>
       </c>
       <c r="AT8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1753,7 +1766,7 @@
         <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -1774,7 +1787,7 @@
         <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s">
         <v>35</v>
@@ -1795,7 +1808,7 @@
         <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s">
         <v>35</v>
@@ -1828,7 +1841,7 @@
         <v>35</v>
       </c>
       <c r="AK9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL9" t="s">
         <v>35</v>
@@ -1837,13 +1850,13 @@
         <v>35</v>
       </c>
       <c r="AN9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="s">
         <v>36</v>
       </c>
       <c r="AP9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ9" t="s">
         <v>35</v>
@@ -1855,15 +1868,18 @@
         <v>35</v>
       </c>
       <c r="AT9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1893,7 +1909,7 @@
         <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
@@ -1914,7 +1930,7 @@
         <v>35</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
         <v>35</v>
@@ -1935,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s">
         <v>35</v>
@@ -1968,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="AK10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="s">
         <v>35</v>
@@ -1983,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="AP10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="s">
         <v>35</v>
@@ -1995,15 +2011,18 @@
         <v>35</v>
       </c>
       <c r="AT10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -2090,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="AE11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF11" t="s">
         <v>35</v>
@@ -2137,13 +2156,16 @@
       <c r="AT11" t="s">
         <v>35</v>
       </c>
+      <c r="AW11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2182,10 +2204,10 @@
         <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="s">
         <v>35</v>
@@ -2203,36 +2225,90 @@
         <v>35</v>
       </c>
       <c r="V12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="s">
         <v>35</v>
       </c>
       <c r="Z12" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>35</v>
       </c>
       <c r="AC12" t="s">
         <v>35</v>
       </c>
       <c r="AD12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN12" t="s">
         <v>35</v>
       </c>
       <c r="AO12" t="s">
         <v>36</v>
       </c>
+      <c r="AP12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -2271,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
         <v>34</v>
@@ -2292,87 +2368,36 @@
         <v>35</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="s">
         <v>35</v>
       </c>
       <c r="Z13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="s">
         <v>35</v>
       </c>
       <c r="AD13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN13" t="s">
         <v>35</v>
       </c>
       <c r="AO13" t="s">
         <v>36</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -2414,10 +2439,10 @@
         <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
         <v>35</v>
@@ -2480,10 +2505,10 @@
         <v>35</v>
       </c>
       <c r="AL14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AN14" t="s">
         <v>35</v>
@@ -2495,24 +2520,27 @@
         <v>35</v>
       </c>
       <c r="AQ14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -2539,7 +2567,7 @@
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>35</v>
@@ -2563,7 +2591,7 @@
         <v>35</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s">
         <v>35</v>
@@ -2584,7 +2612,7 @@
         <v>35</v>
       </c>
       <c r="Z15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA15" t="s">
         <v>35</v>
@@ -2611,19 +2639,19 @@
         <v>35</v>
       </c>
       <c r="AI15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ15" t="s">
         <v>35</v>
       </c>
       <c r="AK15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="s">
         <v>35</v>
@@ -2635,24 +2663,27 @@
         <v>35</v>
       </c>
       <c r="AQ15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="s">
         <v>34</v>
       </c>
       <c r="AS15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT15" t="s">
         <v>35</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -2679,10 +2710,10 @@
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
@@ -2697,25 +2728,25 @@
         <v>35</v>
       </c>
       <c r="Q16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16" t="s">
         <v>35</v>
       </c>
       <c r="S16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
         <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X16" t="s">
         <v>35</v>
@@ -2724,7 +2755,7 @@
         <v>35</v>
       </c>
       <c r="Z16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="s">
         <v>35</v>
@@ -2742,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="s">
         <v>35</v>
@@ -2751,13 +2782,13 @@
         <v>35</v>
       </c>
       <c r="AI16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="s">
         <v>35</v>
       </c>
       <c r="AK16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="s">
         <v>35</v>
@@ -2778,7 +2809,7 @@
         <v>35</v>
       </c>
       <c r="AR16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS16" t="s">
         <v>35</v>
@@ -2786,13 +2817,16 @@
       <c r="AT16" t="s">
         <v>35</v>
       </c>
+      <c r="AW16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2819,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
@@ -2849,13 +2883,13 @@
         <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X17" t="s">
         <v>35</v>
@@ -2882,7 +2916,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="s">
         <v>35</v>
@@ -2926,13 +2960,16 @@
       <c r="AT17" t="s">
         <v>35</v>
       </c>
+      <c r="AW17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -2959,7 +2996,7 @@
         <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
         <v>35</v>
@@ -3040,10 +3077,10 @@
         <v>35</v>
       </c>
       <c r="AL18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AN18" t="s">
         <v>35</v>
@@ -3066,13 +3103,16 @@
       <c r="AT18" t="s">
         <v>35</v>
       </c>
+      <c r="AW18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -3129,7 +3169,7 @@
         <v>35</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V19" t="s">
         <v>35</v>
@@ -3144,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="Z19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA19" t="s">
         <v>35</v>
@@ -3180,10 +3220,10 @@
         <v>35</v>
       </c>
       <c r="AL19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="s">
         <v>35</v>
@@ -3206,13 +3246,16 @@
       <c r="AT19" t="s">
         <v>35</v>
       </c>
+      <c r="AW19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -3269,7 +3312,7 @@
         <v>35</v>
       </c>
       <c r="U20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s">
         <v>35</v>
@@ -3284,7 +3327,7 @@
         <v>35</v>
       </c>
       <c r="Z20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="s">
         <v>35</v>
@@ -3299,7 +3342,7 @@
         <v>35</v>
       </c>
       <c r="AE20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF20" t="s">
         <v>35</v>
@@ -3341,18 +3384,21 @@
         <v>35</v>
       </c>
       <c r="AS20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT20" t="s">
         <v>35</v>
       </c>
+      <c r="AW20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -3439,13 +3485,13 @@
         <v>35</v>
       </c>
       <c r="AE21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="s">
         <v>35</v>
       </c>
       <c r="AG21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s">
         <v>35</v>
@@ -3481,18 +3527,21 @@
         <v>35</v>
       </c>
       <c r="AS21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT21" t="s">
         <v>35</v>
       </c>
+      <c r="AW21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -3525,7 +3574,7 @@
         <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
         <v>35</v>
@@ -3534,10 +3583,10 @@
         <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
         <v>35</v>
@@ -3558,7 +3607,7 @@
         <v>35</v>
       </c>
       <c r="X22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y22" t="s">
         <v>35</v>
@@ -3582,10 +3631,10 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="s">
         <v>35</v>
@@ -3615,7 +3664,7 @@
         <v>35</v>
       </c>
       <c r="AQ22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR22" t="s">
         <v>35</v>
@@ -3624,15 +3673,18 @@
         <v>35</v>
       </c>
       <c r="AT22" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -3665,7 +3717,7 @@
         <v>35</v>
       </c>
       <c r="M23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
@@ -3674,10 +3726,10 @@
         <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R23" t="s">
         <v>35</v>
@@ -3689,16 +3741,16 @@
         <v>35</v>
       </c>
       <c r="U23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W23" t="s">
         <v>35</v>
       </c>
       <c r="X23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="s">
         <v>35</v>
@@ -3755,7 +3807,7 @@
         <v>35</v>
       </c>
       <c r="AQ23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="s">
         <v>35</v>
@@ -3764,15 +3816,18 @@
         <v>35</v>
       </c>
       <c r="AT23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -3829,10 +3884,10 @@
         <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W24" t="s">
         <v>35</v>
@@ -3862,7 +3917,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="s">
         <v>35</v>
@@ -3906,13 +3961,16 @@
       <c r="AT24" t="s">
         <v>35</v>
       </c>
+      <c r="AW24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -4044,15 +4102,18 @@
         <v>35</v>
       </c>
       <c r="AT25" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -4157,7 +4218,7 @@
         <v>35</v>
       </c>
       <c r="AK26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL26" t="s">
         <v>35</v>
@@ -4184,15 +4245,18 @@
         <v>35</v>
       </c>
       <c r="AT26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -4234,7 +4298,7 @@
         <v>35</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" t="s">
         <v>35</v>
@@ -4282,7 +4346,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG27" t="s">
         <v>35</v>
@@ -4297,7 +4361,7 @@
         <v>35</v>
       </c>
       <c r="AK27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="s">
         <v>35</v>
@@ -4315,7 +4379,7 @@
         <v>35</v>
       </c>
       <c r="AQ27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR27" t="s">
         <v>35</v>
@@ -4326,13 +4390,16 @@
       <c r="AT27" t="s">
         <v>35</v>
       </c>
+      <c r="AW27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -4404,7 +4471,7 @@
         <v>35</v>
       </c>
       <c r="Z28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA28" t="s">
         <v>35</v>
@@ -4422,7 +4489,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="s">
         <v>35</v>
@@ -4455,10 +4522,10 @@
         <v>35</v>
       </c>
       <c r="AQ28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS28" t="s">
         <v>35</v>
@@ -4466,13 +4533,16 @@
       <c r="AT28" t="s">
         <v>35</v>
       </c>
+      <c r="AW28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -4514,7 +4584,7 @@
         <v>35</v>
       </c>
       <c r="P29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q29" t="s">
         <v>35</v>
@@ -4544,7 +4614,7 @@
         <v>35</v>
       </c>
       <c r="Z29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="s">
         <v>35</v>
@@ -4598,7 +4668,7 @@
         <v>35</v>
       </c>
       <c r="AR29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS29" t="s">
         <v>35</v>
@@ -4606,13 +4676,16 @@
       <c r="AT29" t="s">
         <v>35</v>
       </c>
+      <c r="AW29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -4708,7 +4781,7 @@
         <v>35</v>
       </c>
       <c r="AH30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI30" t="s">
         <v>35</v>
@@ -4746,21 +4819,19 @@
       <c r="AT30" t="s">
         <v>35</v>
       </c>
+      <c r="AW30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:Z30 AA3:AB11 AA13:AB30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="AA4:AB12 C4:Z30 AA14:AB30 C3:AB3 AC3:AD30">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A31:XFD1048576 AP3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A31:XFD1048576 A1:XFD3 A3:AN30 AP3:XFD30">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AD30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CFA95-80A8-46EE-AD89-F0EC81FEE499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9CF6C1-3791-4C55-8FA6-E05E4AC4CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW4" sqref="AW4"/>
+      <selection pane="topRight" activeCell="BB24" sqref="BB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1015,9 @@
       <c r="AW3" t="s">
         <v>35</v>
       </c>
+      <c r="AX3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1158,6 +1161,9 @@
       <c r="AW4" t="s">
         <v>35</v>
       </c>
+      <c r="AX4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1301,6 +1307,9 @@
       <c r="AW5" t="s">
         <v>35</v>
       </c>
+      <c r="AX5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1444,6 +1453,9 @@
       <c r="AW6" t="s">
         <v>35</v>
       </c>
+      <c r="AX6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1587,6 +1599,9 @@
       <c r="AW7" t="s">
         <v>35</v>
       </c>
+      <c r="AX7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1730,6 +1745,9 @@
       <c r="AW8" t="s">
         <v>35</v>
       </c>
+      <c r="AX8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1873,6 +1891,9 @@
       <c r="AW9" t="s">
         <v>35</v>
       </c>
+      <c r="AX9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2016,6 +2037,9 @@
       <c r="AW10" t="s">
         <v>35</v>
       </c>
+      <c r="AX10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2159,6 +2183,9 @@
       <c r="AW11" t="s">
         <v>35</v>
       </c>
+      <c r="AX11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2302,6 +2329,9 @@
       <c r="AW12" t="s">
         <v>35</v>
       </c>
+      <c r="AX12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2534,6 +2564,9 @@
       <c r="AW14" t="s">
         <v>35</v>
       </c>
+      <c r="AX14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2677,6 +2710,9 @@
       <c r="AW15" t="s">
         <v>34</v>
       </c>
+      <c r="AX15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2820,8 +2856,11 @@
       <c r="AW16" t="s">
         <v>35</v>
       </c>
+      <c r="AX16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2963,8 +3002,11 @@
       <c r="AW17" t="s">
         <v>35</v>
       </c>
+      <c r="AX17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3106,8 +3148,11 @@
       <c r="AW18" t="s">
         <v>35</v>
       </c>
+      <c r="AX18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3249,8 +3294,11 @@
       <c r="AW19" t="s">
         <v>35</v>
       </c>
+      <c r="AX19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3392,8 +3440,11 @@
       <c r="AW20" t="s">
         <v>34</v>
       </c>
+      <c r="AX20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3535,8 +3586,11 @@
       <c r="AW21" t="s">
         <v>35</v>
       </c>
+      <c r="AX21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3678,8 +3732,11 @@
       <c r="AW22" t="s">
         <v>35</v>
       </c>
+      <c r="AX22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3821,8 +3878,11 @@
       <c r="AW23" t="s">
         <v>35</v>
       </c>
+      <c r="AX23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3964,8 +4024,11 @@
       <c r="AW24" t="s">
         <v>34</v>
       </c>
+      <c r="AX24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4107,8 +4170,11 @@
       <c r="AW25" t="s">
         <v>35</v>
       </c>
+      <c r="AX25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4250,8 +4316,11 @@
       <c r="AW26" t="s">
         <v>35</v>
       </c>
+      <c r="AX26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4393,8 +4462,11 @@
       <c r="AW27" t="s">
         <v>35</v>
       </c>
+      <c r="AX27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4536,8 +4608,11 @@
       <c r="AW28" t="s">
         <v>35</v>
       </c>
+      <c r="AX28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4679,8 +4754,11 @@
       <c r="AW29" t="s">
         <v>35</v>
       </c>
+      <c r="AX29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4821,6 +4899,9 @@
       </c>
       <c r="AW30" t="s">
         <v>35</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9CF6C1-3791-4C55-8FA6-E05E4AC4CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB5EC7-A0AF-4D07-8C58-3DE0C959B199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB24" sqref="BB24"/>
+      <selection pane="topRight" activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1018,9 @@
       <c r="AX3" t="s">
         <v>35</v>
       </c>
+      <c r="AY3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1164,6 +1167,9 @@
       <c r="AX4" t="s">
         <v>35</v>
       </c>
+      <c r="AY4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1310,6 +1316,9 @@
       <c r="AX5" t="s">
         <v>35</v>
       </c>
+      <c r="AY5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1456,6 +1465,9 @@
       <c r="AX6" t="s">
         <v>35</v>
       </c>
+      <c r="AY6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1602,6 +1614,9 @@
       <c r="AX7" t="s">
         <v>34</v>
       </c>
+      <c r="AY7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1748,6 +1763,9 @@
       <c r="AX8" t="s">
         <v>35</v>
       </c>
+      <c r="AY8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1894,6 +1912,9 @@
       <c r="AX9" t="s">
         <v>35</v>
       </c>
+      <c r="AY9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2040,6 +2061,9 @@
       <c r="AX10" t="s">
         <v>35</v>
       </c>
+      <c r="AY10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2186,6 +2210,9 @@
       <c r="AX11" t="s">
         <v>35</v>
       </c>
+      <c r="AY11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2332,6 +2359,9 @@
       <c r="AX12" t="s">
         <v>35</v>
       </c>
+      <c r="AY12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2567,6 +2597,9 @@
       <c r="AX14" t="s">
         <v>35</v>
       </c>
+      <c r="AY14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2713,6 +2746,9 @@
       <c r="AX15" t="s">
         <v>35</v>
       </c>
+      <c r="AY15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2859,8 +2895,11 @@
       <c r="AX16" t="s">
         <v>34</v>
       </c>
+      <c r="AY16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3005,8 +3044,11 @@
       <c r="AX17" t="s">
         <v>35</v>
       </c>
+      <c r="AY17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3151,8 +3193,11 @@
       <c r="AX18" t="s">
         <v>35</v>
       </c>
+      <c r="AY18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3342,11 @@
       <c r="AX19" t="s">
         <v>35</v>
       </c>
+      <c r="AY19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3443,8 +3491,11 @@
       <c r="AX20" t="s">
         <v>35</v>
       </c>
+      <c r="AY20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3589,8 +3640,11 @@
       <c r="AX21" t="s">
         <v>35</v>
       </c>
+      <c r="AY21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3735,8 +3789,11 @@
       <c r="AX22" t="s">
         <v>35</v>
       </c>
+      <c r="AY22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3881,8 +3938,11 @@
       <c r="AX23" t="s">
         <v>35</v>
       </c>
+      <c r="AY23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4027,8 +4087,11 @@
       <c r="AX24" t="s">
         <v>35</v>
       </c>
+      <c r="AY24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4173,8 +4236,11 @@
       <c r="AX25" t="s">
         <v>35</v>
       </c>
+      <c r="AY25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4319,8 +4385,11 @@
       <c r="AX26" t="s">
         <v>35</v>
       </c>
+      <c r="AY26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4465,8 +4534,11 @@
       <c r="AX27" t="s">
         <v>35</v>
       </c>
+      <c r="AY27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4611,8 +4683,11 @@
       <c r="AX28" t="s">
         <v>35</v>
       </c>
+      <c r="AY28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4757,8 +4832,11 @@
       <c r="AX29" t="s">
         <v>35</v>
       </c>
+      <c r="AY29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4902,6 +4980,9 @@
       </c>
       <c r="AX30" t="s">
         <v>34</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB5EC7-A0AF-4D07-8C58-3DE0C959B199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0061FB-3ACB-44D2-BD26-B8DCE6C687C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY27" sqref="AY27"/>
+      <selection pane="topRight" activeCell="AZ29" sqref="AZ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1021,9 @@
       <c r="AY3" t="s">
         <v>35</v>
       </c>
+      <c r="AZ3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1170,6 +1173,9 @@
       <c r="AY4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1319,6 +1325,9 @@
       <c r="AY5" t="s">
         <v>35</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1468,6 +1477,9 @@
       <c r="AY6" t="s">
         <v>34</v>
       </c>
+      <c r="AZ6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1617,6 +1629,9 @@
       <c r="AY7" t="s">
         <v>35</v>
       </c>
+      <c r="AZ7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1766,6 +1781,9 @@
       <c r="AY8" t="s">
         <v>35</v>
       </c>
+      <c r="AZ8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1915,6 +1933,9 @@
       <c r="AY9" t="s">
         <v>35</v>
       </c>
+      <c r="AZ9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2064,6 +2085,9 @@
       <c r="AY10" t="s">
         <v>35</v>
       </c>
+      <c r="AZ10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2213,6 +2237,9 @@
       <c r="AY11" t="s">
         <v>35</v>
       </c>
+      <c r="AZ11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2362,6 +2389,9 @@
       <c r="AY12" t="s">
         <v>35</v>
       </c>
+      <c r="AZ12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2600,6 +2630,9 @@
       <c r="AY14" t="s">
         <v>35</v>
       </c>
+      <c r="AZ14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2749,6 +2782,9 @@
       <c r="AY15" t="s">
         <v>35</v>
       </c>
+      <c r="AZ15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2898,8 +2934,11 @@
       <c r="AY16" t="s">
         <v>34</v>
       </c>
+      <c r="AZ16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3047,8 +3086,11 @@
       <c r="AY17" t="s">
         <v>35</v>
       </c>
+      <c r="AZ17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3196,8 +3238,11 @@
       <c r="AY18" t="s">
         <v>35</v>
       </c>
+      <c r="AZ18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3345,8 +3390,11 @@
       <c r="AY19" t="s">
         <v>34</v>
       </c>
+      <c r="AZ19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3494,8 +3542,11 @@
       <c r="AY20" t="s">
         <v>35</v>
       </c>
+      <c r="AZ20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3643,8 +3694,11 @@
       <c r="AY21" t="s">
         <v>35</v>
       </c>
+      <c r="AZ21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3792,8 +3846,11 @@
       <c r="AY22" t="s">
         <v>35</v>
       </c>
+      <c r="AZ22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3941,8 +3998,11 @@
       <c r="AY23" t="s">
         <v>35</v>
       </c>
+      <c r="AZ23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4090,8 +4150,11 @@
       <c r="AY24" t="s">
         <v>35</v>
       </c>
+      <c r="AZ24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4239,8 +4302,11 @@
       <c r="AY25" t="s">
         <v>35</v>
       </c>
+      <c r="AZ25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4388,8 +4454,11 @@
       <c r="AY26" t="s">
         <v>35</v>
       </c>
+      <c r="AZ26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4537,8 +4606,11 @@
       <c r="AY27" t="s">
         <v>35</v>
       </c>
+      <c r="AZ27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4686,8 +4758,11 @@
       <c r="AY28" t="s">
         <v>35</v>
       </c>
+      <c r="AZ28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4835,8 +4910,11 @@
       <c r="AY29" t="s">
         <v>35</v>
       </c>
+      <c r="AZ29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4982,6 +5060,9 @@
         <v>34</v>
       </c>
       <c r="AY30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0061FB-3ACB-44D2-BD26-B8DCE6C687C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE3D37-5F8B-44E3-9EBD-D2D603D8C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ29" sqref="AZ29"/>
+      <selection pane="topRight" activeCell="AW15" sqref="AW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1012,12 @@
       <c r="AT3" t="s">
         <v>35</v>
       </c>
+      <c r="AU3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>35</v>
+      </c>
       <c r="AW3" t="s">
         <v>35</v>
       </c>
@@ -1164,6 +1170,12 @@
       <c r="AT4" t="s">
         <v>35</v>
       </c>
+      <c r="AU4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>35</v>
+      </c>
       <c r="AW4" t="s">
         <v>35</v>
       </c>
@@ -1316,6 +1328,12 @@
       <c r="AT5" t="s">
         <v>35</v>
       </c>
+      <c r="AU5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>35</v>
+      </c>
       <c r="AW5" t="s">
         <v>35</v>
       </c>
@@ -1468,6 +1486,12 @@
       <c r="AT6" t="s">
         <v>35</v>
       </c>
+      <c r="AU6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>35</v>
+      </c>
       <c r="AW6" t="s">
         <v>35</v>
       </c>
@@ -1620,6 +1644,12 @@
       <c r="AT7" t="s">
         <v>35</v>
       </c>
+      <c r="AU7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>35</v>
+      </c>
       <c r="AW7" t="s">
         <v>35</v>
       </c>
@@ -1772,6 +1802,12 @@
       <c r="AT8" t="s">
         <v>35</v>
       </c>
+      <c r="AU8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>35</v>
+      </c>
       <c r="AW8" t="s">
         <v>35</v>
       </c>
@@ -1924,6 +1960,12 @@
       <c r="AT9" t="s">
         <v>35</v>
       </c>
+      <c r="AU9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>35</v>
+      </c>
       <c r="AW9" t="s">
         <v>35</v>
       </c>
@@ -2076,6 +2118,12 @@
       <c r="AT10" t="s">
         <v>35</v>
       </c>
+      <c r="AU10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>35</v>
+      </c>
       <c r="AW10" t="s">
         <v>35</v>
       </c>
@@ -2228,6 +2276,12 @@
       <c r="AT11" t="s">
         <v>35</v>
       </c>
+      <c r="AU11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>35</v>
+      </c>
       <c r="AW11" t="s">
         <v>35</v>
       </c>
@@ -2380,6 +2434,12 @@
       <c r="AT12" t="s">
         <v>35</v>
       </c>
+      <c r="AU12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>35</v>
+      </c>
       <c r="AW12" t="s">
         <v>35</v>
       </c>
@@ -2621,6 +2681,12 @@
       <c r="AT14" t="s">
         <v>34</v>
       </c>
+      <c r="AU14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>35</v>
+      </c>
       <c r="AW14" t="s">
         <v>35</v>
       </c>
@@ -2773,6 +2839,12 @@
       <c r="AT15" t="s">
         <v>35</v>
       </c>
+      <c r="AU15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>35</v>
+      </c>
       <c r="AW15" t="s">
         <v>34</v>
       </c>
@@ -2925,6 +2997,12 @@
       <c r="AT16" t="s">
         <v>35</v>
       </c>
+      <c r="AU16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>35</v>
+      </c>
       <c r="AW16" t="s">
         <v>35</v>
       </c>
@@ -3077,6 +3155,12 @@
       <c r="AT17" t="s">
         <v>35</v>
       </c>
+      <c r="AU17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>35</v>
+      </c>
       <c r="AW17" t="s">
         <v>35</v>
       </c>
@@ -3229,6 +3313,12 @@
       <c r="AT18" t="s">
         <v>35</v>
       </c>
+      <c r="AU18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>35</v>
+      </c>
       <c r="AW18" t="s">
         <v>35</v>
       </c>
@@ -3381,6 +3471,12 @@
       <c r="AT19" t="s">
         <v>35</v>
       </c>
+      <c r="AU19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>35</v>
+      </c>
       <c r="AW19" t="s">
         <v>35</v>
       </c>
@@ -3533,6 +3629,12 @@
       <c r="AT20" t="s">
         <v>35</v>
       </c>
+      <c r="AU20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>35</v>
+      </c>
       <c r="AW20" t="s">
         <v>34</v>
       </c>
@@ -3685,6 +3787,12 @@
       <c r="AT21" t="s">
         <v>35</v>
       </c>
+      <c r="AU21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>35</v>
+      </c>
       <c r="AW21" t="s">
         <v>35</v>
       </c>
@@ -3837,6 +3945,12 @@
       <c r="AT22" t="s">
         <v>35</v>
       </c>
+      <c r="AU22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>35</v>
+      </c>
       <c r="AW22" t="s">
         <v>35</v>
       </c>
@@ -3989,6 +4103,12 @@
       <c r="AT23" t="s">
         <v>34</v>
       </c>
+      <c r="AU23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>35</v>
+      </c>
       <c r="AW23" t="s">
         <v>35</v>
       </c>
@@ -4141,6 +4261,12 @@
       <c r="AT24" t="s">
         <v>35</v>
       </c>
+      <c r="AU24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>35</v>
+      </c>
       <c r="AW24" t="s">
         <v>34</v>
       </c>
@@ -4293,6 +4419,12 @@
       <c r="AT25" t="s">
         <v>35</v>
       </c>
+      <c r="AU25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>35</v>
+      </c>
       <c r="AW25" t="s">
         <v>35</v>
       </c>
@@ -4445,6 +4577,12 @@
       <c r="AT26" t="s">
         <v>34</v>
       </c>
+      <c r="AU26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>35</v>
+      </c>
       <c r="AW26" t="s">
         <v>35</v>
       </c>
@@ -4597,6 +4735,12 @@
       <c r="AT27" t="s">
         <v>35</v>
       </c>
+      <c r="AU27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>35</v>
+      </c>
       <c r="AW27" t="s">
         <v>35</v>
       </c>
@@ -4749,6 +4893,12 @@
       <c r="AT28" t="s">
         <v>35</v>
       </c>
+      <c r="AU28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>35</v>
+      </c>
       <c r="AW28" t="s">
         <v>35</v>
       </c>
@@ -4901,6 +5051,12 @@
       <c r="AT29" t="s">
         <v>35</v>
       </c>
+      <c r="AU29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>35</v>
+      </c>
       <c r="AW29" t="s">
         <v>35</v>
       </c>
@@ -5051,6 +5207,12 @@
         <v>35</v>
       </c>
       <c r="AT30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV30" t="s">
         <v>35</v>
       </c>
       <c r="AW30" t="s">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE3D37-5F8B-44E3-9EBD-D2D603D8C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967FF26-1D81-4EC1-9BF9-AB5303400D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -150,8 +150,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,13 +187,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,8 +532,8 @@
   <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW15" sqref="AW15"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +707,7 @@
       <c r="AZ1" s="2">
         <v>44831</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="4">
         <v>44832</v>
       </c>
       <c r="BB1" s="2">
@@ -1030,6 +1041,9 @@
       <c r="AZ3" t="s">
         <v>35</v>
       </c>
+      <c r="BA3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1188,6 +1202,9 @@
       <c r="AZ4" t="s">
         <v>35</v>
       </c>
+      <c r="BA4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1346,6 +1363,9 @@
       <c r="AZ5" t="s">
         <v>35</v>
       </c>
+      <c r="BA5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1504,6 +1524,9 @@
       <c r="AZ6" t="s">
         <v>35</v>
       </c>
+      <c r="BA6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1662,6 +1685,9 @@
       <c r="AZ7" t="s">
         <v>35</v>
       </c>
+      <c r="BA7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1820,6 +1846,9 @@
       <c r="AZ8" t="s">
         <v>35</v>
       </c>
+      <c r="BA8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1978,6 +2007,9 @@
       <c r="AZ9" t="s">
         <v>35</v>
       </c>
+      <c r="BA9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2136,6 +2168,9 @@
       <c r="AZ10" t="s">
         <v>35</v>
       </c>
+      <c r="BA10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2294,6 +2329,9 @@
       <c r="AZ11" t="s">
         <v>35</v>
       </c>
+      <c r="BA11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2452,6 +2490,9 @@
       <c r="AZ12" t="s">
         <v>34</v>
       </c>
+      <c r="BA12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2699,6 +2740,9 @@
       <c r="AZ14" t="s">
         <v>35</v>
       </c>
+      <c r="BA14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2857,6 +2901,9 @@
       <c r="AZ15" t="s">
         <v>35</v>
       </c>
+      <c r="BA15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3015,8 +3062,11 @@
       <c r="AZ16" t="s">
         <v>35</v>
       </c>
+      <c r="BA16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3173,8 +3223,11 @@
       <c r="AZ17" t="s">
         <v>35</v>
       </c>
+      <c r="BA17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3331,8 +3384,11 @@
       <c r="AZ18" t="s">
         <v>35</v>
       </c>
+      <c r="BA18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3489,8 +3545,11 @@
       <c r="AZ19" t="s">
         <v>35</v>
       </c>
+      <c r="BA19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3647,8 +3706,11 @@
       <c r="AZ20" t="s">
         <v>35</v>
       </c>
+      <c r="BA20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3805,8 +3867,11 @@
       <c r="AZ21" t="s">
         <v>35</v>
       </c>
+      <c r="BA21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3963,8 +4028,11 @@
       <c r="AZ22" t="s">
         <v>35</v>
       </c>
+      <c r="BA22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4121,8 +4189,11 @@
       <c r="AZ23" t="s">
         <v>35</v>
       </c>
+      <c r="BA23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4279,8 +4350,11 @@
       <c r="AZ24" t="s">
         <v>35</v>
       </c>
+      <c r="BA24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4437,8 +4511,11 @@
       <c r="AZ25" t="s">
         <v>35</v>
       </c>
+      <c r="BA25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4595,8 +4672,11 @@
       <c r="AZ26" t="s">
         <v>35</v>
       </c>
+      <c r="BA26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4753,8 +4833,11 @@
       <c r="AZ27" t="s">
         <v>35</v>
       </c>
+      <c r="BA27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4911,8 +4994,11 @@
       <c r="AZ28" t="s">
         <v>35</v>
       </c>
+      <c r="BA28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5069,8 +5155,11 @@
       <c r="AZ29" t="s">
         <v>35</v>
       </c>
+      <c r="BA29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5225,6 +5314,9 @@
         <v>35</v>
       </c>
       <c r="AZ30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5234,7 +5326,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD1048576 A1:XFD3 A3:AN30 AP3:XFD30">
+  <conditionalFormatting sqref="A32:XFD1048576 A1:XFD2 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967FF26-1D81-4EC1-9BF9-AB5303400D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419AA9BB-4DAF-4CC4-91B3-8121721BA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -150,16 +150,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -196,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:BC30"/>
+  <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA16" sqref="BA16"/>
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB24" sqref="BB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +548,7 @@
     <col min="26" max="55" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -716,8 +708,38 @@
       <c r="BC1" s="2">
         <v>44834</v>
       </c>
+      <c r="BD1" s="1">
+        <v>44837</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>44838</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>44839</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>44840</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>44841</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>44844</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>44846</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>44847</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>44848</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -883,8 +905,38 @@
       <c r="BC2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="BD2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1044,8 +1096,11 @@
       <c r="BA3" t="s">
         <v>35</v>
       </c>
+      <c r="BB3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1205,8 +1260,11 @@
       <c r="BA4" t="s">
         <v>35</v>
       </c>
+      <c r="BB4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1366,8 +1424,11 @@
       <c r="BA5" t="s">
         <v>34</v>
       </c>
+      <c r="BB5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1588,11 @@
       <c r="BA6" t="s">
         <v>35</v>
       </c>
+      <c r="BB6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1688,8 +1752,11 @@
       <c r="BA7" t="s">
         <v>35</v>
       </c>
+      <c r="BB7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1849,8 +1916,11 @@
       <c r="BA8" t="s">
         <v>35</v>
       </c>
+      <c r="BB8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2010,8 +2080,11 @@
       <c r="BA9" t="s">
         <v>35</v>
       </c>
+      <c r="BB9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="BA10" t="s">
         <v>35</v>
       </c>
+      <c r="BB10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2332,8 +2408,11 @@
       <c r="BA11" t="s">
         <v>35</v>
       </c>
+      <c r="BB11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2493,8 +2572,11 @@
       <c r="BA12" t="s">
         <v>35</v>
       </c>
+      <c r="BB12" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2743,8 +2825,11 @@
       <c r="BA14" t="s">
         <v>35</v>
       </c>
+      <c r="BB14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2904,8 +2989,11 @@
       <c r="BA15" t="s">
         <v>34</v>
       </c>
+      <c r="BB15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3065,8 +3153,11 @@
       <c r="BA16" t="s">
         <v>35</v>
       </c>
+      <c r="BB16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3226,8 +3317,11 @@
       <c r="BA17" t="s">
         <v>35</v>
       </c>
+      <c r="BB17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3387,8 +3481,11 @@
       <c r="BA18" t="s">
         <v>35</v>
       </c>
+      <c r="BB18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3548,8 +3645,11 @@
       <c r="BA19" t="s">
         <v>35</v>
       </c>
+      <c r="BB19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3709,8 +3809,11 @@
       <c r="BA20" t="s">
         <v>35</v>
       </c>
+      <c r="BB20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3870,8 +3973,11 @@
       <c r="BA21" t="s">
         <v>34</v>
       </c>
+      <c r="BB21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4031,8 +4137,11 @@
       <c r="BA22" t="s">
         <v>35</v>
       </c>
+      <c r="BB22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4192,8 +4301,11 @@
       <c r="BA23" t="s">
         <v>34</v>
       </c>
+      <c r="BB23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4353,8 +4465,11 @@
       <c r="BA24" t="s">
         <v>35</v>
       </c>
+      <c r="BB24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4514,8 +4629,11 @@
       <c r="BA25" t="s">
         <v>35</v>
       </c>
+      <c r="BB25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4675,8 +4793,11 @@
       <c r="BA26" t="s">
         <v>35</v>
       </c>
+      <c r="BB26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4836,8 +4957,11 @@
       <c r="BA27" t="s">
         <v>35</v>
       </c>
+      <c r="BB27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4997,8 +5121,11 @@
       <c r="BA28" t="s">
         <v>34</v>
       </c>
+      <c r="BB28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5158,8 +5285,11 @@
       <c r="BA29" t="s">
         <v>35</v>
       </c>
+      <c r="BB29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5317,6 +5447,9 @@
         <v>35</v>
       </c>
       <c r="BA30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5326,7 +5459,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD1048576 A1:XFD2 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31">
+  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31 A1:XFD2">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419AA9BB-4DAF-4CC4-91B3-8121721BA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD54860E-4ED9-40B5-96C4-8BE30F77D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -188,8 +188,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB24" sqref="BB24"/>
+      <selection pane="topRight" activeCell="BD29" sqref="BD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +546,7 @@
     <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
     <col min="26" max="55" width="7" customWidth="1"/>
+    <col min="56" max="65" width="7" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -699,7 +700,7 @@
       <c r="AZ1" s="2">
         <v>44831</v>
       </c>
-      <c r="BA1" s="4">
+      <c r="BA1" s="2">
         <v>44832</v>
       </c>
       <c r="BB1" s="2">
@@ -708,34 +709,34 @@
       <c r="BC1" s="2">
         <v>44834</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="2">
         <v>44837</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="2">
         <v>44838</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="2">
         <v>44839</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="2">
         <v>44840</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="2">
         <v>44841</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="2">
         <v>44844</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="2">
         <v>44845</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="2">
         <v>44846</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="2">
         <v>44847</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="2">
         <v>44848</v>
       </c>
     </row>
@@ -1099,6 +1100,12 @@
       <c r="BB3" t="s">
         <v>34</v>
       </c>
+      <c r="BC3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1263,6 +1270,12 @@
       <c r="BB4" t="s">
         <v>34</v>
       </c>
+      <c r="BC4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1427,6 +1440,12 @@
       <c r="BB5" t="s">
         <v>35</v>
       </c>
+      <c r="BC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1591,6 +1610,12 @@
       <c r="BB6" t="s">
         <v>35</v>
       </c>
+      <c r="BC6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1755,6 +1780,12 @@
       <c r="BB7" t="s">
         <v>34</v>
       </c>
+      <c r="BC7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1919,6 +1950,12 @@
       <c r="BB8" t="s">
         <v>35</v>
       </c>
+      <c r="BC8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2083,6 +2120,12 @@
       <c r="BB9" t="s">
         <v>35</v>
       </c>
+      <c r="BC9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2247,6 +2290,12 @@
       <c r="BB10" t="s">
         <v>35</v>
       </c>
+      <c r="BC10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2411,6 +2460,12 @@
       <c r="BB11" t="s">
         <v>35</v>
       </c>
+      <c r="BC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2575,6 +2630,12 @@
       <c r="BB12" t="s">
         <v>35</v>
       </c>
+      <c r="BC12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2828,6 +2889,12 @@
       <c r="BB14" t="s">
         <v>35</v>
       </c>
+      <c r="BC14" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2992,6 +3059,12 @@
       <c r="BB15" t="s">
         <v>35</v>
       </c>
+      <c r="BC15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3156,8 +3229,14 @@
       <c r="BB16" t="s">
         <v>35</v>
       </c>
+      <c r="BC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3320,8 +3399,14 @@
       <c r="BB17" t="s">
         <v>35</v>
       </c>
+      <c r="BC17" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3484,8 +3569,14 @@
       <c r="BB18" t="s">
         <v>35</v>
       </c>
+      <c r="BC18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3648,8 +3739,14 @@
       <c r="BB19" t="s">
         <v>35</v>
       </c>
+      <c r="BC19" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3812,8 +3909,14 @@
       <c r="BB20" t="s">
         <v>35</v>
       </c>
+      <c r="BC20" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3976,8 +4079,14 @@
       <c r="BB21" t="s">
         <v>35</v>
       </c>
+      <c r="BC21" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4140,8 +4249,14 @@
       <c r="BB22" t="s">
         <v>34</v>
       </c>
+      <c r="BC22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4304,8 +4419,14 @@
       <c r="BB23" t="s">
         <v>35</v>
       </c>
+      <c r="BC23" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4468,8 +4589,14 @@
       <c r="BB24" t="s">
         <v>35</v>
       </c>
+      <c r="BC24" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4632,8 +4759,14 @@
       <c r="BB25" t="s">
         <v>35</v>
       </c>
+      <c r="BC25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4796,8 +4929,14 @@
       <c r="BB26" t="s">
         <v>35</v>
       </c>
+      <c r="BC26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4960,8 +5099,14 @@
       <c r="BB27" t="s">
         <v>35</v>
       </c>
+      <c r="BC27" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD27" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5124,8 +5269,14 @@
       <c r="BB28" t="s">
         <v>34</v>
       </c>
+      <c r="BC28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5288,8 +5439,14 @@
       <c r="BB29" t="s">
         <v>35</v>
       </c>
+      <c r="BC29" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD29" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5450,6 +5607,12 @@
         <v>35</v>
       </c>
       <c r="BB30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD54860E-4ED9-40B5-96C4-8BE30F77D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC0C89-5277-4A5D-ABD8-40FDCA5C83C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD29" sqref="BD29"/>
+      <selection pane="topRight" activeCell="BC14" sqref="BC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1106,9 @@
       <c r="BD3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1276,6 +1279,9 @@
       <c r="BD4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1446,6 +1452,9 @@
       <c r="BD5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BE5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1616,6 +1625,9 @@
       <c r="BD6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1786,6 +1798,9 @@
       <c r="BD7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1956,6 +1971,9 @@
       <c r="BD8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2126,6 +2144,9 @@
       <c r="BD9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2296,6 +2317,9 @@
       <c r="BD10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2466,6 +2490,9 @@
       <c r="BD11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2636,6 +2663,9 @@
       <c r="BD12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2895,6 +2925,9 @@
       <c r="BD14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3065,6 +3098,9 @@
       <c r="BD15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3235,8 +3271,11 @@
       <c r="BD16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BE16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3405,8 +3444,11 @@
       <c r="BD17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3575,8 +3617,11 @@
       <c r="BD18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3745,8 +3790,11 @@
       <c r="BD19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3915,8 +3963,11 @@
       <c r="BD20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4085,8 +4136,11 @@
       <c r="BD21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4255,8 +4309,11 @@
       <c r="BD22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4425,8 +4482,11 @@
       <c r="BD23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BE23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4595,8 +4655,11 @@
       <c r="BD24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4765,8 +4828,11 @@
       <c r="BD25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4935,8 +5001,11 @@
       <c r="BD26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5105,8 +5174,11 @@
       <c r="BD27" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BE27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5275,8 +5347,11 @@
       <c r="BD28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5445,8 +5520,11 @@
       <c r="BD29" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BE29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5613,6 +5691,9 @@
         <v>35</v>
       </c>
       <c r="BD30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC0C89-5277-4A5D-ABD8-40FDCA5C83C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F3C69-7E3C-4A62-982C-23150E5C4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -150,8 +150,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -189,6 +197,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -525,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC14" sqref="BC14"/>
+      <selection pane="topRight" activeCell="BF20" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1120,9 @@
       <c r="BE3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1282,6 +1296,9 @@
       <c r="BE4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1455,6 +1472,9 @@
       <c r="BE5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1628,6 +1648,9 @@
       <c r="BE6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1801,6 +1824,9 @@
       <c r="BE7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1974,6 +2000,9 @@
       <c r="BE8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2147,6 +2176,9 @@
       <c r="BE9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2320,6 +2352,9 @@
       <c r="BE10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2493,6 +2528,9 @@
       <c r="BE11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2666,6 +2704,9 @@
       <c r="BE12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2928,6 +2969,9 @@
       <c r="BE14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3101,6 +3145,9 @@
       <c r="BE15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3274,8 +3321,11 @@
       <c r="BE16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3447,8 +3497,11 @@
       <c r="BE17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3620,8 +3673,11 @@
       <c r="BE18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3793,8 +3849,11 @@
       <c r="BE19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3966,8 +4025,11 @@
       <c r="BE20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF20" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4139,8 +4201,11 @@
       <c r="BE21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4312,8 +4377,11 @@
       <c r="BE22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4485,8 +4553,11 @@
       <c r="BE23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4658,8 +4729,11 @@
       <c r="BE24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4831,8 +4905,11 @@
       <c r="BE25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5004,8 +5081,11 @@
       <c r="BE26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5177,8 +5257,11 @@
       <c r="BE27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5350,8 +5433,11 @@
       <c r="BE28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5523,8 +5609,11 @@
       <c r="BE29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BF29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5694,6 +5783,9 @@
         <v>35</v>
       </c>
       <c r="BE30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5703,7 +5795,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31 A1:XFD2">
+  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 A1:XFD2 BA3:XFD31">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F3C69-7E3C-4A62-982C-23150E5C4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55878BCA-FFD4-473D-8DB4-483A658A0BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -150,16 +150,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -197,9 +189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -536,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF20" sqref="BF20"/>
+      <selection pane="topRight" activeCell="BI30" sqref="BI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,6 +1112,15 @@
       <c r="BF3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1299,6 +1297,15 @@
       <c r="BF4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1475,6 +1482,15 @@
       <c r="BF5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BG5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1651,6 +1667,15 @@
       <c r="BF6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1827,6 +1852,15 @@
       <c r="BF7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2003,6 +2037,15 @@
       <c r="BF8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2179,6 +2222,15 @@
       <c r="BF9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2355,6 +2407,15 @@
       <c r="BF10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2531,6 +2592,15 @@
       <c r="BF11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2707,6 +2777,15 @@
       <c r="BF12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2972,6 +3051,15 @@
       <c r="BF14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3148,6 +3236,15 @@
       <c r="BF15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3324,8 +3421,17 @@
       <c r="BF16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3500,8 +3606,17 @@
       <c r="BF17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3676,8 +3791,17 @@
       <c r="BF18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3852,8 +3976,17 @@
       <c r="BF19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4025,11 +4158,20 @@
       <c r="BE20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BF20" s="5" t="s">
+      <c r="BF20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4204,8 +4346,17 @@
       <c r="BF21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BG21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4380,8 +4531,17 @@
       <c r="BF22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4556,8 +4716,17 @@
       <c r="BF23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4732,8 +4901,17 @@
       <c r="BF24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4908,8 +5086,17 @@
       <c r="BF25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5084,8 +5271,17 @@
       <c r="BF26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5260,8 +5456,17 @@
       <c r="BF27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5436,8 +5641,17 @@
       <c r="BF28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5612,8 +5826,17 @@
       <c r="BF29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5786,6 +6009,15 @@
         <v>35</v>
       </c>
       <c r="BF30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55878BCA-FFD4-473D-8DB4-483A658A0BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D054EAF5-B0BE-4C14-88FB-3F55DB6F2DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -524,8 +524,8 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI30" sqref="BI30"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX30" sqref="AX30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1121,12 @@
       <c r="BI3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1306,6 +1312,12 @@
       <c r="BI4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1491,6 +1503,12 @@
       <c r="BI5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK5" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1676,6 +1694,12 @@
       <c r="BI6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1861,6 +1885,12 @@
       <c r="BI7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2046,6 +2076,12 @@
       <c r="BI8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK8" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2231,6 +2267,12 @@
       <c r="BI9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2416,6 +2458,12 @@
       <c r="BI10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2601,6 +2649,12 @@
       <c r="BI11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2786,6 +2840,12 @@
       <c r="BI12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2875,6 +2935,9 @@
       <c r="AO13" t="s">
         <v>36</v>
       </c>
+      <c r="BK13" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3060,6 +3123,12 @@
       <c r="BI14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK14" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3245,6 +3314,12 @@
       <c r="BI15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK15" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3430,8 +3505,14 @@
       <c r="BI16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK16" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3615,8 +3696,14 @@
       <c r="BI17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK17" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3800,8 +3887,14 @@
       <c r="BI18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK18" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3985,8 +4078,14 @@
       <c r="BI19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK19" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4170,8 +4269,14 @@
       <c r="BI20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK20" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4355,8 +4460,14 @@
       <c r="BI21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK21" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4540,8 +4651,14 @@
       <c r="BI22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK22" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4725,8 +4842,14 @@
       <c r="BI23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK23" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4910,8 +5033,14 @@
       <c r="BI24" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BJ24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK24" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5095,8 +5224,14 @@
       <c r="BI25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK25" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5280,8 +5415,14 @@
       <c r="BI26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK26" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5465,8 +5606,14 @@
       <c r="BI27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK27" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5650,8 +5797,14 @@
       <c r="BI28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK28" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5835,8 +5988,14 @@
       <c r="BI29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK29" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6019,6 +6178,12 @@
       </c>
       <c r="BI30" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="BJ30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK30" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D054EAF5-B0BE-4C14-88FB-3F55DB6F2DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E9113-8674-4BD0-93BC-67CEA21AE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,35 +521,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX30" sqref="AX30"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM30" sqref="BM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="55" width="7" customWidth="1"/>
-    <col min="56" max="65" width="7" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="7" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="62" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -739,8 +757,23 @@
       <c r="BM1" s="2">
         <v>44848</v>
       </c>
+      <c r="BN1" s="1">
+        <v>44851</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>44852</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>44853</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>44854</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>44855</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -936,8 +969,23 @@
       <c r="BM2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="BN2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1127,8 +1175,14 @@
       <c r="BK3" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1318,8 +1372,14 @@
       <c r="BK4" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1509,8 +1569,14 @@
       <c r="BK5" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1766,14 @@
       <c r="BK6" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1891,8 +1963,14 @@
       <c r="BK7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2082,8 +2160,14 @@
       <c r="BK8" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2273,8 +2357,14 @@
       <c r="BK9" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2464,8 +2554,14 @@
       <c r="BK10" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2655,8 +2751,14 @@
       <c r="BK11" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2846,8 +2948,14 @@
       <c r="BK12" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +3047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3129,8 +3237,14 @@
       <c r="BK14" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3320,8 +3434,14 @@
       <c r="BK15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3511,8 +3631,14 @@
       <c r="BK16" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3702,8 +3828,14 @@
       <c r="BK17" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3893,8 +4025,14 @@
       <c r="BK18" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4084,8 +4222,14 @@
       <c r="BK19" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4275,8 +4419,14 @@
       <c r="BK20" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4466,8 +4616,14 @@
       <c r="BK21" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4657,8 +4813,14 @@
       <c r="BK22" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4848,8 +5010,14 @@
       <c r="BK23" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5039,8 +5207,14 @@
       <c r="BK24" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5230,8 +5404,14 @@
       <c r="BK25" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5421,8 +5601,14 @@
       <c r="BK26" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5612,8 +5798,14 @@
       <c r="BK27" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5803,8 +5995,14 @@
       <c r="BK28" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5994,8 +6192,14 @@
       <c r="BK29" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BL29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6184,6 +6388,12 @@
       </c>
       <c r="BK30" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="BL30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM30" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6192,7 +6402,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 A1:XFD2 BA3:XFD31">
+  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31 A1:XFD2">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E9113-8674-4BD0-93BC-67CEA21AE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC4A42-0DE9-43AF-84AD-3A7339E70362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -524,8 +524,8 @@
   <dimension ref="A1:BR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM30" sqref="BM30"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO30" sqref="BO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1181,12 @@
       <c r="BM3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BN3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1378,6 +1384,12 @@
       <c r="BM4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1575,6 +1587,12 @@
       <c r="BM5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1772,6 +1790,12 @@
       <c r="BM6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1969,6 +1993,12 @@
       <c r="BM7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2166,6 +2196,12 @@
       <c r="BM8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2363,6 +2399,12 @@
       <c r="BM9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2560,6 +2602,12 @@
       <c r="BM10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2757,6 +2805,12 @@
       <c r="BM11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2954,6 +3008,12 @@
       <c r="BM12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3243,6 +3303,12 @@
       <c r="BM14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3440,6 +3506,12 @@
       <c r="BM15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3637,8 +3709,14 @@
       <c r="BM16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3834,8 +3912,14 @@
       <c r="BM17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4031,8 +4115,14 @@
       <c r="BM18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4318,14 @@
       <c r="BM19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4425,8 +4521,14 @@
       <c r="BM20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO20" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4622,8 +4724,14 @@
       <c r="BM21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4819,8 +4927,14 @@
       <c r="BM22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5016,8 +5130,14 @@
       <c r="BM23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5213,8 +5333,14 @@
       <c r="BM24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5410,8 +5536,14 @@
       <c r="BM25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5607,8 +5739,14 @@
       <c r="BM26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5804,8 +5942,14 @@
       <c r="BM27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6001,8 +6145,14 @@
       <c r="BM28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6198,8 +6348,14 @@
       <c r="BM29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BN29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6393,6 +6549,12 @@
         <v>35</v>
       </c>
       <c r="BM30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC4A42-0DE9-43AF-84AD-3A7339E70362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73383D79-016D-4E83-9685-C548E96BB1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO30" sqref="BO30"/>
+      <selection pane="topRight" activeCell="BP30" sqref="BP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,7 +5337,7 @@
         <v>35</v>
       </c>
       <c r="BO24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.25">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73383D79-016D-4E83-9685-C548E96BB1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024A370-E01A-468F-B0C7-72F0895E0FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -1187,6 +1187,9 @@
       <c r="BO3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BP3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1390,6 +1393,9 @@
       <c r="BO4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1593,6 +1599,9 @@
       <c r="BO5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1796,6 +1805,9 @@
       <c r="BO6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1999,6 +2011,9 @@
       <c r="BO7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2202,6 +2217,9 @@
       <c r="BO8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2405,6 +2423,9 @@
       <c r="BO9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2608,6 +2629,9 @@
       <c r="BO10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2811,6 +2835,9 @@
       <c r="BO11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3014,6 +3041,9 @@
       <c r="BO12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3309,6 +3339,9 @@
       <c r="BO14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3512,6 +3545,9 @@
       <c r="BO15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3715,8 +3751,11 @@
       <c r="BO16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3918,8 +3957,11 @@
       <c r="BO17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4121,8 +4163,11 @@
       <c r="BO18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4324,8 +4369,11 @@
       <c r="BO19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4527,8 +4575,11 @@
       <c r="BO20" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BP20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4730,8 +4781,11 @@
       <c r="BO21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4933,8 +4987,11 @@
       <c r="BO22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5193,11 @@
       <c r="BO23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5339,8 +5399,11 @@
       <c r="BO24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5542,8 +5605,11 @@
       <c r="BO25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5745,8 +5811,11 @@
       <c r="BO26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5948,8 +6017,11 @@
       <c r="BO27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6151,8 +6223,11 @@
       <c r="BO28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6354,8 +6429,11 @@
       <c r="BO29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6555,6 +6633,9 @@
         <v>35</v>
       </c>
       <c r="BO30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024A370-E01A-468F-B0C7-72F0895E0FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B525BB3A-4F0A-4354-A00B-41C3963679AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP30" sqref="BP30"/>
+      <selection pane="topRight" activeCell="BQ23" sqref="BQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1190,9 @@
       <c r="BP3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1396,6 +1399,9 @@
       <c r="BP4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1602,6 +1608,9 @@
       <c r="BP5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BQ5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1808,6 +1817,9 @@
       <c r="BP6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2014,6 +2026,9 @@
       <c r="BP7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2220,6 +2235,9 @@
       <c r="BP8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2426,6 +2444,9 @@
       <c r="BP9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2632,6 +2653,9 @@
       <c r="BP10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2838,6 +2862,9 @@
       <c r="BP11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3044,6 +3071,9 @@
       <c r="BP12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ12" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3342,6 +3372,9 @@
       <c r="BP14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3548,6 +3581,9 @@
       <c r="BP15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3754,8 +3790,11 @@
       <c r="BP16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BQ16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3960,8 +3999,11 @@
       <c r="BP17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4166,8 +4208,11 @@
       <c r="BP18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4372,8 +4417,11 @@
       <c r="BP19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4578,8 +4626,11 @@
       <c r="BP20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4784,8 +4835,11 @@
       <c r="BP21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4990,8 +5044,11 @@
       <c r="BP22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5196,8 +5253,11 @@
       <c r="BP23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5402,8 +5462,11 @@
       <c r="BP24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5608,8 +5671,11 @@
       <c r="BP25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5814,8 +5880,11 @@
       <c r="BP26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6020,8 +6089,11 @@
       <c r="BP27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6226,8 +6298,11 @@
       <c r="BP28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6432,8 +6507,11 @@
       <c r="BP29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6636,6 +6714,9 @@
         <v>35</v>
       </c>
       <c r="BP30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B525BB3A-4F0A-4354-A00B-41C3963679AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D9B11-125F-49B2-8DB9-18ABC295B04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:BR30"/>
+  <dimension ref="A1:CG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ23" sqref="BQ23"/>
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS26" sqref="BS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,9 +565,10 @@
     <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="85" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -772,8 +773,53 @@
       <c r="BR1" s="1">
         <v>44855</v>
       </c>
+      <c r="BS1" s="1">
+        <v>44858</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>44859</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>44860</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>44861</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>44862</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>44865</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>44866</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>44867</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>44868</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>44869</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>44872</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>44873</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>44874</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>44875</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>44876</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1030,53 @@
       <c r="BR2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="BS2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1193,8 +1284,14 @@
       <c r="BQ3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1402,8 +1499,14 @@
       <c r="BQ4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1611,8 +1714,14 @@
       <c r="BQ5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BR5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1820,8 +1929,14 @@
       <c r="BQ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2029,8 +2144,14 @@
       <c r="BQ7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2238,8 +2359,14 @@
       <c r="BQ8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2447,8 +2574,14 @@
       <c r="BQ9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2656,8 +2789,14 @@
       <c r="BQ10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +3004,14 @@
       <c r="BQ11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3074,8 +3219,14 @@
       <c r="BQ12" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BR12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3167,7 +3318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3375,8 +3526,14 @@
       <c r="BQ14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3584,8 +3741,14 @@
       <c r="BQ15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3793,8 +3956,14 @@
       <c r="BQ16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4002,8 +4171,14 @@
       <c r="BQ17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BR17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4211,8 +4386,14 @@
       <c r="BQ18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4420,8 +4601,14 @@
       <c r="BQ19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4629,8 +4816,14 @@
       <c r="BQ20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4838,8 +5031,14 @@
       <c r="BQ21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5047,8 +5246,14 @@
       <c r="BQ22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5256,8 +5461,14 @@
       <c r="BQ23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5465,8 +5676,14 @@
       <c r="BQ24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5674,8 +5891,14 @@
       <c r="BQ25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5883,8 +6106,14 @@
       <c r="BQ26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6092,8 +6321,14 @@
       <c r="BQ27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6301,8 +6536,14 @@
       <c r="BQ28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6510,8 +6751,14 @@
       <c r="BQ29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS29" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6717,6 +6964,12 @@
         <v>35</v>
       </c>
       <c r="BQ30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D9B11-125F-49B2-8DB9-18ABC295B04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0578E0-B238-4ED6-B0B4-6CF9B0B7E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -524,8 +524,8 @@
   <dimension ref="A1:CG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS26" sqref="BS26"/>
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BW21" sqref="BW21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,6 +1290,15 @@
       <c r="BS3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BT3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1505,6 +1514,15 @@
       <c r="BS4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1720,6 +1738,15 @@
       <c r="BS5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BT5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1935,6 +1962,15 @@
       <c r="BS6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2150,6 +2186,15 @@
       <c r="BS7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2365,6 +2410,15 @@
       <c r="BS8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BT8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2580,6 +2634,15 @@
       <c r="BS9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2795,6 +2858,15 @@
       <c r="BS10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3010,6 +3082,15 @@
       <c r="BS11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3225,6 +3306,15 @@
       <c r="BS12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3532,6 +3622,15 @@
       <c r="BS14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3747,6 +3846,15 @@
       <c r="BS15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3962,8 +4070,17 @@
       <c r="BS16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4177,8 +4294,17 @@
       <c r="BS17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4392,8 +4518,17 @@
       <c r="BS18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4607,8 +4742,17 @@
       <c r="BS19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4822,8 +4966,17 @@
       <c r="BS20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5037,8 +5190,17 @@
       <c r="BS21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5252,8 +5414,17 @@
       <c r="BS22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5467,8 +5638,17 @@
       <c r="BS23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5682,8 +5862,17 @@
       <c r="BS24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5897,8 +6086,17 @@
       <c r="BS25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6112,8 +6310,17 @@
       <c r="BS26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6327,8 +6534,17 @@
       <c r="BS27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6542,8 +6758,17 @@
       <c r="BS28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6757,8 +6982,17 @@
       <c r="BS29" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BT29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6970,6 +7204,15 @@
         <v>35</v>
       </c>
       <c r="BS30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0578E0-B238-4ED6-B0B4-6CF9B0B7E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3417A9D1-A930-469A-8B62-9D1CDA048673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW21" sqref="BW21"/>
+      <selection pane="topRight" activeCell="BW26" sqref="BW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1299,9 @@
       <c r="BV3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1523,6 +1526,9 @@
       <c r="BV4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1747,6 +1753,9 @@
       <c r="BV5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BW5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1971,6 +1980,9 @@
       <c r="BV6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2195,6 +2207,9 @@
       <c r="BV7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2419,6 +2434,9 @@
       <c r="BV8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2643,6 +2661,9 @@
       <c r="BV9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2867,6 +2888,9 @@
       <c r="BV10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3091,6 +3115,9 @@
       <c r="BV11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3315,6 +3342,9 @@
       <c r="BV12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3631,6 +3661,9 @@
       <c r="BV14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3855,6 +3888,9 @@
       <c r="BV15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4079,8 +4115,11 @@
       <c r="BV16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4303,8 +4342,11 @@
       <c r="BV17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4527,8 +4569,11 @@
       <c r="BV18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4751,8 +4796,11 @@
       <c r="BV19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4975,8 +5023,11 @@
       <c r="BV20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5199,8 +5250,11 @@
       <c r="BV21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5423,8 +5477,11 @@
       <c r="BV22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5647,8 +5704,11 @@
       <c r="BV23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5871,8 +5931,11 @@
       <c r="BV24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6095,8 +6158,11 @@
       <c r="BV25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6319,8 +6385,11 @@
       <c r="BV26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW26" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6543,8 +6612,11 @@
       <c r="BV27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6767,8 +6839,11 @@
       <c r="BV28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6991,8 +7066,11 @@
       <c r="BV29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7213,6 +7291,9 @@
         <v>35</v>
       </c>
       <c r="BV30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3417A9D1-A930-469A-8B62-9D1CDA048673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8F549-E584-45C3-8FBE-C14F0A02F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -524,8 +524,8 @@
   <dimension ref="A1:CG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW26" sqref="BW26"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BX14" sqref="BX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1302,9 @@
       <c r="BW3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1529,6 +1532,9 @@
       <c r="BW4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1756,6 +1762,9 @@
       <c r="BW5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BX5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1983,6 +1992,9 @@
       <c r="BW6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2210,6 +2222,9 @@
       <c r="BW7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2437,6 +2452,9 @@
       <c r="BW8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2664,6 +2682,9 @@
       <c r="BW9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2891,6 +2912,9 @@
       <c r="BW10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3118,6 +3142,9 @@
       <c r="BW11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3345,6 +3372,9 @@
       <c r="BW12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3664,6 +3694,9 @@
       <c r="BW14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX14" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3891,6 +3924,9 @@
       <c r="BW15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4118,8 +4154,11 @@
       <c r="BW16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4345,8 +4384,11 @@
       <c r="BW17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4572,8 +4614,11 @@
       <c r="BW18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4799,8 +4844,11 @@
       <c r="BW19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5026,8 +5074,11 @@
       <c r="BW20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5253,8 +5304,11 @@
       <c r="BW21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5480,8 +5534,11 @@
       <c r="BW22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5707,8 +5764,11 @@
       <c r="BW23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5934,8 +5994,11 @@
       <c r="BW24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6161,8 +6224,11 @@
       <c r="BW25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6388,8 +6454,11 @@
       <c r="BW26" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BX26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6615,8 +6684,11 @@
       <c r="BW27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6842,8 +6914,11 @@
       <c r="BW28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7069,8 +7144,11 @@
       <c r="BW29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7294,6 +7372,9 @@
         <v>35</v>
       </c>
       <c r="BW30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8F549-E584-45C3-8FBE-C14F0A02F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59700CC-E4F3-4291-8A1C-6E2DF4773A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX14" sqref="BX14"/>
+      <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1305,9 @@
       <c r="BX3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1535,6 +1538,9 @@
       <c r="BX4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1765,6 +1771,9 @@
       <c r="BX5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1995,6 +2004,9 @@
       <c r="BX6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2225,6 +2237,9 @@
       <c r="BX7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2455,6 +2470,9 @@
       <c r="BX8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2685,6 +2703,9 @@
       <c r="BX9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2915,6 +2936,9 @@
       <c r="BX10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3145,6 +3169,9 @@
       <c r="BX11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3375,6 +3402,9 @@
       <c r="BX12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3697,6 +3727,9 @@
       <c r="BX14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY14" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3927,6 +3960,9 @@
       <c r="BX15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4157,8 +4193,11 @@
       <c r="BX16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4387,8 +4426,11 @@
       <c r="BX17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4617,8 +4659,11 @@
       <c r="BX18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY18" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4847,8 +4892,11 @@
       <c r="BX19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5077,8 +5125,11 @@
       <c r="BX20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5307,8 +5358,11 @@
       <c r="BX21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5537,8 +5591,11 @@
       <c r="BX22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5767,8 +5824,11 @@
       <c r="BX23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5997,8 +6057,11 @@
       <c r="BX24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6227,8 +6290,11 @@
       <c r="BX25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6457,8 +6523,11 @@
       <c r="BX26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6687,8 +6756,11 @@
       <c r="BX27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6917,8 +6989,11 @@
       <c r="BX28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7147,8 +7222,11 @@
       <c r="BX29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7375,6 +7453,9 @@
         <v>35</v>
       </c>
       <c r="BX30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59700CC-E4F3-4291-8A1C-6E2DF4773A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8CB12-672D-438D-994D-BC22FD6D7DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
+      <selection pane="topRight" activeCell="CA26" sqref="CA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,6 +1308,9 @@
       <c r="BY3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1541,6 +1544,9 @@
       <c r="BY4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1774,6 +1780,9 @@
       <c r="BY5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CA5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2007,6 +2016,9 @@
       <c r="BY6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2240,6 +2252,9 @@
       <c r="BY7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2473,6 +2488,9 @@
       <c r="BY8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2706,6 +2724,9 @@
       <c r="BY9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2939,6 +2960,9 @@
       <c r="BY10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3172,6 +3196,9 @@
       <c r="BY11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3405,6 +3432,9 @@
       <c r="BY12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3730,6 +3760,9 @@
       <c r="BY14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CA14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3963,6 +3996,9 @@
       <c r="BY15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA15" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4196,8 +4232,11 @@
       <c r="BY16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4429,8 +4468,11 @@
       <c r="BY17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4662,8 +4704,11 @@
       <c r="BY18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CA18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4895,8 +4940,11 @@
       <c r="BY19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CA19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5128,8 +5176,11 @@
       <c r="BY20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5361,8 +5412,11 @@
       <c r="BY21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CA21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5594,8 +5648,11 @@
       <c r="BY22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5827,8 +5884,11 @@
       <c r="BY23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6060,8 +6120,11 @@
       <c r="BY24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6293,8 +6356,11 @@
       <c r="BY25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6526,8 +6592,11 @@
       <c r="BY26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6759,8 +6828,11 @@
       <c r="BY27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6992,8 +7064,11 @@
       <c r="BY28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7225,8 +7300,11 @@
       <c r="BY29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7456,6 +7534,9 @@
         <v>35</v>
       </c>
       <c r="BY30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8CB12-672D-438D-994D-BC22FD6D7DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA02815-A7EF-4DB7-B5FF-8F4DAA7CB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA26" sqref="CA26"/>
+      <selection pane="topRight" activeCell="CB26" sqref="CB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,6 +1311,9 @@
       <c r="CA3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CB3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1547,6 +1550,9 @@
       <c r="CA4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1783,6 +1789,9 @@
       <c r="CA5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CB5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2019,6 +2028,9 @@
       <c r="CA6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2255,6 +2267,9 @@
       <c r="CA7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2491,6 +2506,9 @@
       <c r="CA8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2727,6 +2745,9 @@
       <c r="CA9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2963,6 +2984,9 @@
       <c r="CA10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3199,6 +3223,9 @@
       <c r="CA11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3435,6 +3462,9 @@
       <c r="CA12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3763,6 +3793,9 @@
       <c r="CA14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3999,6 +4032,9 @@
       <c r="CA15" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CB15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4235,8 +4271,11 @@
       <c r="CA16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4471,8 +4510,11 @@
       <c r="CA17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4707,8 +4749,11 @@
       <c r="CA18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4943,8 +4988,11 @@
       <c r="CA19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5179,8 +5227,11 @@
       <c r="CA20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5415,8 +5466,11 @@
       <c r="CA21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5651,8 +5705,11 @@
       <c r="CA22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5887,8 +5944,11 @@
       <c r="CA23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6123,8 +6183,11 @@
       <c r="CA24" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CB24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6359,8 +6422,11 @@
       <c r="CA25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6595,8 +6661,11 @@
       <c r="CA26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6831,8 +6900,11 @@
       <c r="CA27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7067,8 +7139,11 @@
       <c r="CA28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB28" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7303,8 +7378,11 @@
       <c r="CA29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7537,6 +7615,9 @@
         <v>35</v>
       </c>
       <c r="CA30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CB30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8CB12-672D-438D-994D-BC22FD6D7DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7474E98-02AA-46C7-9BE4-09D6EBF39CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA26" sqref="CA26"/>
+      <selection pane="topRight" activeCell="BT21" sqref="BT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,6 +1308,9 @@
       <c r="BY3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1544,6 +1547,9 @@
       <c r="BY4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1780,6 +1786,9 @@
       <c r="BY5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA5" s="4" t="s">
         <v>34</v>
       </c>
@@ -2016,6 +2025,9 @@
       <c r="BY6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA6" s="4" t="s">
         <v>35</v>
       </c>
@@ -2252,6 +2264,9 @@
       <c r="BY7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA7" s="4" t="s">
         <v>35</v>
       </c>
@@ -2488,6 +2503,9 @@
       <c r="BY8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA8" s="4" t="s">
         <v>35</v>
       </c>
@@ -2724,6 +2742,9 @@
       <c r="BY9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA9" s="4" t="s">
         <v>35</v>
       </c>
@@ -2960,6 +2981,9 @@
       <c r="BY10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3196,6 +3220,9 @@
       <c r="BY11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA11" s="4" t="s">
         <v>35</v>
       </c>
@@ -3432,6 +3459,9 @@
       <c r="BY12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3760,6 +3790,9 @@
       <c r="BY14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA14" s="4" t="s">
         <v>35</v>
       </c>
@@ -3996,6 +4029,9 @@
       <c r="BY15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA15" s="4" t="s">
         <v>34</v>
       </c>
@@ -4232,6 +4268,9 @@
       <c r="BY16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ16" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4468,6 +4507,9 @@
       <c r="BY17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ17" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA17" s="4" t="s">
         <v>35</v>
       </c>
@@ -4704,6 +4746,9 @@
       <c r="BY18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ18" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA18" s="4" t="s">
         <v>35</v>
       </c>
@@ -4940,6 +4985,9 @@
       <c r="BY19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA19" s="4" t="s">
         <v>35</v>
       </c>
@@ -5176,6 +5224,9 @@
       <c r="BY20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA20" s="4" t="s">
         <v>35</v>
       </c>
@@ -5412,6 +5463,9 @@
       <c r="BY21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA21" s="4" t="s">
         <v>35</v>
       </c>
@@ -5648,6 +5702,9 @@
       <c r="BY22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA22" s="4" t="s">
         <v>35</v>
       </c>
@@ -5884,6 +5941,9 @@
       <c r="BY23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ23" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA23" s="4" t="s">
         <v>35</v>
       </c>
@@ -6120,6 +6180,9 @@
       <c r="BY24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA24" s="4" t="s">
         <v>34</v>
       </c>
@@ -6356,6 +6419,9 @@
       <c r="BY25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ25" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA25" s="4" t="s">
         <v>35</v>
       </c>
@@ -6592,6 +6658,9 @@
       <c r="BY26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA26" s="4" t="s">
         <v>35</v>
       </c>
@@ -6828,6 +6897,9 @@
       <c r="BY27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA27" s="4" t="s">
         <v>35</v>
       </c>
@@ -7064,6 +7136,9 @@
       <c r="BY28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ28" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA28" s="4" t="s">
         <v>35</v>
       </c>
@@ -7300,6 +7375,9 @@
       <c r="BY29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7535,6 +7613,9 @@
       </c>
       <c r="BY30" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="BZ30" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CA30" s="4" t="s">
         <v>35</v>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA02815-A7EF-4DB7-B5FF-8F4DAA7CB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C4D974-D9E3-4004-A0A7-2EDF8A66C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB26" sqref="CB26"/>
+      <selection pane="topRight" activeCell="CC5" sqref="CC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,11 +1308,17 @@
       <c r="BY3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="CB3" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
@@ -1547,10 +1553,16 @@
       <c r="BY4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1786,10 +1798,16 @@
       <c r="BY5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="CB5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2025,10 +2043,16 @@
       <c r="BY6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2264,10 +2288,16 @@
       <c r="BY7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2503,10 +2533,16 @@
       <c r="BY8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2742,10 +2778,16 @@
       <c r="BY9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2981,10 +3023,16 @@
       <c r="BY10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3220,10 +3268,16 @@
       <c r="BY11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3459,10 +3513,16 @@
       <c r="BY12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3557,6 +3617,9 @@
       <c r="BK13" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BZ13" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3790,10 +3853,16 @@
       <c r="BY14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4029,10 +4098,16 @@
       <c r="BY15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="CB15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4268,14 +4343,20 @@
       <c r="BY16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ16" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4507,14 +4588,20 @@
       <c r="BY17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ17" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4746,14 +4833,20 @@
       <c r="BY18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ18" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4985,14 +5078,20 @@
       <c r="BY19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5224,14 +5323,20 @@
       <c r="BY20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5463,14 +5568,20 @@
       <c r="BY21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BZ21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5702,14 +5813,20 @@
       <c r="BY22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5941,14 +6058,20 @@
       <c r="BY23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ23" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6180,14 +6303,20 @@
       <c r="BY24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="CB24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6419,14 +6548,20 @@
       <c r="BY25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ25" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6658,14 +6793,20 @@
       <c r="BY26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6897,14 +7038,20 @@
       <c r="BY27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7136,14 +7283,20 @@
       <c r="BY28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ28" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB28" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CC28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7375,14 +7528,20 @@
       <c r="BY29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7614,10 +7773,16 @@
       <c r="BY30" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ30" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CB30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7627,7 +7792,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31 A1:XFD2">
+  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 A1:XFD2 BA3:XFD31">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C4D974-D9E3-4004-A0A7-2EDF8A66C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5F73A-EEBA-4668-817C-7F0C7C7DB776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -189,6 +189,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -524,8 +527,8 @@
   <dimension ref="A1:CG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC5" sqref="CC5"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BX4" sqref="BX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="BX3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BY3" s="4" t="s">
         <v>35</v>
@@ -1318,7 +1321,10 @@
         <v>35</v>
       </c>
       <c r="CC3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
@@ -1547,7 +1553,7 @@
       <c r="BW4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BX4" s="4" t="s">
+      <c r="BX4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BY4" s="4" t="s">
@@ -1563,6 +1569,9 @@
         <v>35</v>
       </c>
       <c r="CC4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1810,6 +1819,9 @@
       <c r="CC5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CD5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2055,6 +2067,9 @@
       <c r="CC6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2300,6 +2315,9 @@
       <c r="CC7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2545,6 +2563,9 @@
       <c r="CC8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2790,6 +2811,9 @@
       <c r="CC9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3035,6 +3059,9 @@
       <c r="CC10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3280,6 +3307,9 @@
       <c r="CC11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3525,6 +3555,9 @@
       <c r="CC12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3865,6 +3898,9 @@
       <c r="CC14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4110,6 +4146,9 @@
       <c r="CC15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4355,8 +4394,11 @@
       <c r="CC16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4600,8 +4642,11 @@
       <c r="CC17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4845,8 +4890,11 @@
       <c r="CC18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5090,8 +5138,11 @@
       <c r="CC19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CD19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5335,8 +5386,11 @@
       <c r="CC20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5580,8 +5634,11 @@
       <c r="CC21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CD21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5825,8 +5882,11 @@
       <c r="CC22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6070,8 +6130,11 @@
       <c r="CC23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6315,8 +6378,11 @@
       <c r="CC24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6560,8 +6626,11 @@
       <c r="CC25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6805,8 +6874,11 @@
       <c r="CC26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7050,8 +7122,11 @@
       <c r="CC27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7295,8 +7370,11 @@
       <c r="CC28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7540,8 +7618,11 @@
       <c r="CC29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7783,6 +7864,9 @@
         <v>35</v>
       </c>
       <c r="CC30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5F73A-EEBA-4668-817C-7F0C7C7DB776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24E01C-8B3A-424E-90D7-9EDDBC420840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
+    <sheet name="BCD" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -145,6 +146,9 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>VPS01</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -191,14 +195,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -524,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CG30"/>
+  <dimension ref="A1:CQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX4" sqref="BX4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +579,10 @@
     <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="85" width="6.85546875" customWidth="1"/>
+    <col min="71" max="95" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -821,8 +832,38 @@
       <c r="CG1" s="1">
         <v>44876</v>
       </c>
+      <c r="CH1" s="1">
+        <v>44879</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>44880</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>44881</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>44882</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>44883</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>44886</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>44887</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>44888</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>44889</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>44890</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1119,38 @@
       <c r="CG2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="CH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1326,8 +1397,11 @@
       <c r="CD3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1627,7 @@
       <c r="BW4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BX4" s="5" t="s">
+      <c r="BX4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="BY4" s="4" t="s">
@@ -1574,8 +1648,11 @@
       <c r="CD4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1822,8 +1899,11 @@
       <c r="CD5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CE5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2070,8 +2150,11 @@
       <c r="CD6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2318,8 +2401,11 @@
       <c r="CD7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2566,8 +2652,11 @@
       <c r="CD8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2814,8 +2903,11 @@
       <c r="CD9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3062,8 +3154,11 @@
       <c r="CD10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3310,8 +3405,11 @@
       <c r="CD11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3558,8 +3656,11 @@
       <c r="CD12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3901,8 +4002,11 @@
       <c r="CD14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4149,8 +4253,11 @@
       <c r="CD15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4397,8 +4504,11 @@
       <c r="CD16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CE16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4645,8 +4755,11 @@
       <c r="CD17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4893,8 +5006,11 @@
       <c r="CD18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5141,8 +5257,11 @@
       <c r="CD19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5389,8 +5508,11 @@
       <c r="CD20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5637,8 +5759,11 @@
       <c r="CD21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5885,8 +6010,11 @@
       <c r="CD22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6133,8 +6261,11 @@
       <c r="CD23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6381,8 +6512,11 @@
       <c r="CD24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6629,8 +6763,11 @@
       <c r="CD25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6877,8 +7014,11 @@
       <c r="CD26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7125,8 +7265,11 @@
       <c r="CD27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7373,8 +7516,11 @@
       <c r="CD28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE28" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7621,8 +7767,11 @@
       <c r="CD29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7771,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="AX30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AY30" t="s">
         <v>35</v>
@@ -7867,21 +8016,195 @@
         <v>35</v>
       </c>
       <c r="CD30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CE30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA4:AB12 C4:Z30 AA14:AB30 C3:AB3 AC3:AD30">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 A1:XFD2 BA3:XFD31">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31 A1:XFD2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24E01C-8B3A-424E-90D7-9EDDBC420840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F53B9-740B-4FFE-9F4C-2C997CB92451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8043,7 +8046,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8063,140 +8066,224 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F53B9-740B-4FFE-9F4C-2C997CB92451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC823BB-5568-4968-94AD-9283CE8E2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -540,9 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:CQ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF4" sqref="CF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,6 +1403,9 @@
       <c r="CE3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1654,6 +1657,9 @@
       <c r="CE4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1905,6 +1911,9 @@
       <c r="CE5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CF5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2156,6 +2165,9 @@
       <c r="CE6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2407,6 +2419,9 @@
       <c r="CE7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2658,6 +2673,9 @@
       <c r="CE8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2909,6 +2927,9 @@
       <c r="CE9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3160,6 +3181,9 @@
       <c r="CE10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3411,6 +3435,9 @@
       <c r="CE11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3662,6 +3689,9 @@
       <c r="CE12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4008,6 +4038,9 @@
       <c r="CE14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4259,6 +4292,9 @@
       <c r="CE15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4510,8 +4546,11 @@
       <c r="CE16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4761,8 +4800,11 @@
       <c r="CE17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5012,8 +5054,11 @@
       <c r="CE18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5263,8 +5308,11 @@
       <c r="CE19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5514,8 +5562,11 @@
       <c r="CE20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5763,10 +5814,13 @@
         <v>35</v>
       </c>
       <c r="CE21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="CF21" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6016,8 +6070,11 @@
       <c r="CE22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6267,8 +6324,11 @@
       <c r="CE23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6518,8 +6578,11 @@
       <c r="CE24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6769,8 +6832,11 @@
       <c r="CE25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7020,8 +7086,11 @@
       <c r="CE26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7271,8 +7340,11 @@
       <c r="CE27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7522,8 +7594,11 @@
       <c r="CE28" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CF28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7773,8 +7848,11 @@
       <c r="CE29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8022,6 +8100,9 @@
         <v>35</v>
       </c>
       <c r="CE30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CF30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8045,8 +8126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC823BB-5568-4968-94AD-9283CE8E2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0E54B-4692-4469-BBAA-6D86E58806E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF4" sqref="CF4"/>
+      <selection pane="topRight" activeCell="CH29" sqref="CH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1406,9 @@
       <c r="CF3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1660,6 +1663,9 @@
       <c r="CF4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1914,6 +1920,9 @@
       <c r="CF5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CG5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2168,6 +2177,9 @@
       <c r="CF6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2422,6 +2434,9 @@
       <c r="CF7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2676,6 +2691,9 @@
       <c r="CF8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2930,6 +2948,9 @@
       <c r="CF9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3184,6 +3205,9 @@
       <c r="CF10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3438,6 +3462,9 @@
       <c r="CF11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3692,6 +3719,9 @@
       <c r="CF12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4041,6 +4071,9 @@
       <c r="CF14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4295,6 +4328,9 @@
       <c r="CF15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4549,8 +4585,11 @@
       <c r="CF16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CG16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4803,8 +4842,11 @@
       <c r="CF17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5057,8 +5099,11 @@
       <c r="CF18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5311,8 +5356,11 @@
       <c r="CF19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5565,8 +5613,11 @@
       <c r="CF20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5819,8 +5870,11 @@
       <c r="CF21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6073,8 +6127,11 @@
       <c r="CF22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6327,8 +6384,11 @@
       <c r="CF23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CG23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6581,8 +6641,11 @@
       <c r="CF24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6835,8 +6898,11 @@
       <c r="CF25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7089,8 +7155,11 @@
       <c r="CF26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7343,8 +7412,11 @@
       <c r="CF27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7597,8 +7669,11 @@
       <c r="CF28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7851,8 +7926,11 @@
       <c r="CF29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8103,6 +8181,9 @@
         <v>35</v>
       </c>
       <c r="CF30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CG30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0E54B-4692-4469-BBAA-6D86E58806E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC691A-17C4-446D-AE13-473EB17AC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -198,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CQ30"/>
+  <dimension ref="A1:CO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH29" sqref="CH29"/>
+      <selection pane="topRight" activeCell="CH3" sqref="CH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +583,10 @@
     <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="95" width="6.85546875" customWidth="1"/>
+    <col min="71" max="93" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -836,37 +837,31 @@
         <v>44876</v>
       </c>
       <c r="CH1" s="1">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="CI1" s="1">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="CJ1" s="1">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="CK1" s="1">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="CL1" s="1">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="CM1" s="1">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="CN1" s="1">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="CO1" s="1">
-        <v>44888</v>
-      </c>
-      <c r="CP1" s="1">
-        <v>44889</v>
-      </c>
-      <c r="CQ1" s="1">
         <v>44890</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1123,37 +1118,31 @@
         <v>31</v>
       </c>
       <c r="CH2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CO2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CM2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1409,8 +1398,11 @@
       <c r="CG3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1666,8 +1658,11 @@
       <c r="CG4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1923,8 +1918,11 @@
       <c r="CG5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CH5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2180,8 +2178,11 @@
       <c r="CG6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2437,8 +2438,11 @@
       <c r="CG7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2694,8 +2698,11 @@
       <c r="CG8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2951,8 +2958,11 @@
       <c r="CG9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3208,8 +3218,11 @@
       <c r="CG10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3465,8 +3478,11 @@
       <c r="CG11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3722,8 +3738,11 @@
       <c r="CG12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH12" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4074,8 +4093,11 @@
       <c r="CG14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4331,8 +4353,11 @@
       <c r="CG15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4588,8 +4613,11 @@
       <c r="CG16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4845,8 +4873,11 @@
       <c r="CG17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CH17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5102,8 +5133,11 @@
       <c r="CG18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5359,8 +5393,11 @@
       <c r="CG19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5616,8 +5653,11 @@
       <c r="CG20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5873,8 +5913,11 @@
       <c r="CG21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6130,8 +6173,11 @@
       <c r="CG22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6387,8 +6433,11 @@
       <c r="CG23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6644,8 +6693,11 @@
       <c r="CG24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6901,8 +6953,11 @@
       <c r="CG25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7158,8 +7213,11 @@
       <c r="CG26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7415,8 +7473,11 @@
       <c r="CG27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7672,8 +7733,11 @@
       <c r="CG28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7929,8 +7993,11 @@
       <c r="CG29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH29" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8184,6 +8251,9 @@
         <v>35</v>
       </c>
       <c r="CG30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CH30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8193,7 +8263,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD1048576 A3:AN30 AP3:AZ30 A3:AZ3 A31:AZ31 BA3:XFD31 A1:XFD2">
+  <conditionalFormatting sqref="A3:AN30 A3:AZ3 AP3:XFD30 A1:XFD2 A31:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -8207,8 +8277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B2:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,8 +8458,8 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8455,5 +8525,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC691A-17C4-446D-AE13-473EB17AC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5409114D-D812-4001-9E05-DFA3F296B577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -198,12 +198,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -228,6 +227,26 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CO30"/>
+  <dimension ref="A1:CQ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH3" sqref="CH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CK27" sqref="CK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +602,12 @@
     <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="93" width="6.85546875" customWidth="1"/>
+    <col min="71" max="85" width="6.85546875" customWidth="1"/>
+    <col min="86" max="87" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="95" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -837,31 +858,37 @@
         <v>44876</v>
       </c>
       <c r="CH1" s="1">
+        <v>44879</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>44880</v>
+      </c>
+      <c r="CJ1" s="1">
         <v>44881</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CK1" s="1">
         <v>44882</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CL1" s="1">
         <v>44883</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CM1" s="1">
         <v>44886</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CN1" s="1">
         <v>44887</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CO1" s="1">
         <v>44888</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CP1" s="1">
         <v>44889</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CQ1" s="1">
         <v>44890</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1118,31 +1145,37 @@
         <v>31</v>
       </c>
       <c r="CH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CO2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CP2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CQ2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1374,7 +1407,7 @@
       <c r="BY3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA3" s="4" t="s">
@@ -1398,11 +1431,20 @@
       <c r="CG3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CH3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1634,7 +1676,7 @@
       <c r="BY4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ4" s="4" t="s">
+      <c r="BZ4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA4" s="4" t="s">
@@ -1658,11 +1700,20 @@
       <c r="CG4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH4" s="4" t="s">
+      <c r="CH4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1894,7 +1945,7 @@
       <c r="BY5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BZ5" s="4" t="s">
+      <c r="BZ5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA5" s="4" t="s">
@@ -1918,11 +1969,20 @@
       <c r="CG5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="CH5" s="4" t="s">
+      <c r="CH5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2214,7 @@
       <c r="BY6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ6" s="4" t="s">
+      <c r="BZ6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA6" s="4" t="s">
@@ -2178,11 +2238,20 @@
       <c r="CG6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH6" s="4" t="s">
+      <c r="CH6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +2483,7 @@
       <c r="BY7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ7" s="4" t="s">
+      <c r="BZ7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA7" s="4" t="s">
@@ -2438,11 +2507,20 @@
       <c r="CG7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH7" s="4" t="s">
+      <c r="CH7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2752,7 @@
       <c r="BY8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ8" s="4" t="s">
+      <c r="BZ8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA8" s="4" t="s">
@@ -2698,11 +2776,20 @@
       <c r="CG8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH8" s="4" t="s">
-        <v>35</v>
+      <c r="CH8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +3021,7 @@
       <c r="BY9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ9" s="4" t="s">
+      <c r="BZ9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA9" s="4" t="s">
@@ -2958,11 +3045,20 @@
       <c r="CG9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH9" s="4" t="s">
+      <c r="CH9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3290,7 @@
       <c r="BY10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ10" s="4" t="s">
+      <c r="BZ10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA10" s="4" t="s">
@@ -3218,11 +3314,20 @@
       <c r="CG10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH10" s="4" t="s">
+      <c r="CH10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3454,7 +3559,7 @@
       <c r="BY11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ11" s="4" t="s">
+      <c r="BZ11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA11" s="4" t="s">
@@ -3478,11 +3583,20 @@
       <c r="CG11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH11" s="4" t="s">
+      <c r="CH11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3714,7 +3828,7 @@
       <c r="BY12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ12" s="4" t="s">
+      <c r="BZ12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA12" s="4" t="s">
@@ -3738,11 +3852,20 @@
       <c r="CG12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH12" s="4" t="s">
+      <c r="CH12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3833,11 +3956,17 @@
       <c r="BK13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ13" s="4" t="s">
+      <c r="BZ13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4069,7 +4198,7 @@
       <c r="BY14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BZ14" s="4" t="s">
+      <c r="BZ14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA14" s="4" t="s">
@@ -4093,11 +4222,20 @@
       <c r="CG14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH14" s="4" t="s">
+      <c r="CH14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4467,7 @@
       <c r="BY15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ15" s="4" t="s">
+      <c r="BZ15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA15" s="4" t="s">
@@ -4353,11 +4491,20 @@
       <c r="CG15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH15" s="4" t="s">
+      <c r="CH15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4589,7 +4736,7 @@
       <c r="BY16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ16" s="4" t="s">
+      <c r="BZ16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA16" s="4" t="s">
@@ -4613,11 +4760,20 @@
       <c r="CG16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH16" s="4" t="s">
+      <c r="CH16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4849,7 +5005,7 @@
       <c r="BY17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ17" s="4" t="s">
+      <c r="BZ17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA17" s="4" t="s">
@@ -4873,11 +5029,20 @@
       <c r="CG17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="CH17" s="4" t="s">
+      <c r="CH17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5109,7 +5274,7 @@
       <c r="BY18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BZ18" s="4" t="s">
+      <c r="BZ18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA18" s="4" t="s">
@@ -5133,11 +5298,20 @@
       <c r="CG18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH18" s="4" t="s">
+      <c r="CH18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5369,7 +5543,7 @@
       <c r="BY19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BZ19" s="4" t="s">
+      <c r="BZ19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA19" s="4" t="s">
@@ -5393,11 +5567,20 @@
       <c r="CG19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH19" s="4" t="s">
+      <c r="CH19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5629,7 +5812,7 @@
       <c r="BY20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ20" s="4" t="s">
+      <c r="BZ20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA20" s="4" t="s">
@@ -5653,11 +5836,20 @@
       <c r="CG20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH20" s="4" t="s">
+      <c r="CH20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5889,7 +6081,7 @@
       <c r="BY21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BZ21" s="4" t="s">
+      <c r="BZ21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA21" s="4" t="s">
@@ -5913,11 +6105,20 @@
       <c r="CG21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH21" s="4" t="s">
-        <v>34</v>
+      <c r="CH21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK21" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6149,7 +6350,7 @@
       <c r="BY22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ22" s="4" t="s">
+      <c r="BZ22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA22" s="4" t="s">
@@ -6173,11 +6374,20 @@
       <c r="CG22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH22" s="4" t="s">
+      <c r="CH22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6409,7 +6619,7 @@
       <c r="BY23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ23" s="4" t="s">
+      <c r="BZ23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA23" s="4" t="s">
@@ -6433,11 +6643,20 @@
       <c r="CG23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH23" s="4" t="s">
+      <c r="CH23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6669,7 +6888,7 @@
       <c r="BY24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ24" s="4" t="s">
+      <c r="BZ24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA24" s="4" t="s">
@@ -6693,11 +6912,20 @@
       <c r="CG24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH24" s="4" t="s">
+      <c r="CH24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6929,7 +7157,7 @@
       <c r="BY25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ25" s="4" t="s">
+      <c r="BZ25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA25" s="4" t="s">
@@ -6953,11 +7181,20 @@
       <c r="CG25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH25" s="4" t="s">
+      <c r="CH25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7189,7 +7426,7 @@
       <c r="BY26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ26" s="4" t="s">
+      <c r="BZ26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA26" s="4" t="s">
@@ -7213,11 +7450,20 @@
       <c r="CG26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH26" s="4" t="s">
+      <c r="CH26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7449,7 +7695,7 @@
       <c r="BY27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ27" s="4" t="s">
+      <c r="BZ27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA27" s="4" t="s">
@@ -7473,11 +7719,20 @@
       <c r="CG27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH27" s="4" t="s">
+      <c r="CH27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK27" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7709,7 +7964,7 @@
       <c r="BY28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ28" s="4" t="s">
+      <c r="BZ28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA28" s="4" t="s">
@@ -7733,11 +7988,20 @@
       <c r="CG28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH28" s="4" t="s">
+      <c r="CH28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7969,7 +8233,7 @@
       <c r="BY29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ29" s="4" t="s">
+      <c r="BZ29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA29" s="4" t="s">
@@ -7993,11 +8257,20 @@
       <c r="CG29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH29" s="4" t="s">
-        <v>34</v>
+      <c r="CH29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK29" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8229,7 +8502,7 @@
       <c r="BY30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ30" s="4" t="s">
+      <c r="BZ30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="CA30" s="4" t="s">
@@ -8253,18 +8526,37 @@
       <c r="CG30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH30" s="4" t="s">
+      <c r="CH30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA4:AB12 C4:Z30 AA14:AB30 C3:AB3 AC3:AD30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A1:CG2 A31:CG1048576 AP3:CG30 CS1:XFD1048576 CJ1:CQ1048576 CH1:CI1">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:Z30 C3:AB3 AA4:AB12 AA14:AB30 AC3:AD30">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A3:AZ3 AP3:XFD30 A1:XFD2 A31:XFD1048576">
+  <conditionalFormatting sqref="CH2:CI2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH3:CI30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8277,7 +8569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -8458,7 +8750,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>65</v>
       </c>
     </row>
@@ -8520,7 +8812,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC691A-17C4-446D-AE13-473EB17AC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B196656-6D19-4D49-A740-5B78DC12353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -198,7 +198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,9 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:CO30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH3" sqref="CH3"/>
+      <selection pane="topRight" activeCell="CJ29" sqref="CJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,6 +1400,9 @@
       <c r="CH3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1661,6 +1663,9 @@
       <c r="CH4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1921,6 +1926,9 @@
       <c r="CH5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CJ5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2181,6 +2189,9 @@
       <c r="CH6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CJ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2441,6 +2452,9 @@
       <c r="CH7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2701,6 +2715,9 @@
       <c r="CH8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2961,6 +2978,9 @@
       <c r="CH9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3221,6 +3241,9 @@
       <c r="CH10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3481,6 +3504,9 @@
       <c r="CH11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3741,6 +3767,9 @@
       <c r="CH12" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CJ12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4096,6 +4125,9 @@
       <c r="CH14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4356,6 +4388,9 @@
       <c r="CH15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4616,8 +4651,11 @@
       <c r="CH16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CJ16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4876,8 +4914,11 @@
       <c r="CH17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5136,8 +5177,11 @@
       <c r="CH18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5396,8 +5440,11 @@
       <c r="CH19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5656,8 +5703,11 @@
       <c r="CH20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5916,8 +5966,11 @@
       <c r="CH21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CJ21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6176,8 +6229,11 @@
       <c r="CH22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6436,8 +6492,11 @@
       <c r="CH23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6696,8 +6755,11 @@
       <c r="CH24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6956,8 +7018,11 @@
       <c r="CH25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7216,8 +7281,11 @@
       <c r="CH26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7476,8 +7544,11 @@
       <c r="CH27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7736,8 +7807,11 @@
       <c r="CH28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CJ28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7996,8 +8070,11 @@
       <c r="CH29" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CJ29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8254,6 +8331,9 @@
         <v>35</v>
       </c>
       <c r="CH30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CJ30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8277,7 +8357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -8458,7 +8538,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>65</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B196656-6D19-4D49-A740-5B78DC12353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03200603-5CA6-476C-AAF7-9B062A8475E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ29" sqref="CJ29"/>
+      <selection pane="topRight" activeCell="CK29" sqref="CK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,6 +1403,9 @@
       <c r="CJ3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1666,6 +1669,9 @@
       <c r="CJ4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1929,6 +1935,9 @@
       <c r="CJ5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CK5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2192,6 +2201,9 @@
       <c r="CJ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2455,6 +2467,9 @@
       <c r="CJ7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2718,6 +2733,9 @@
       <c r="CJ8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2981,6 +2999,9 @@
       <c r="CJ9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3244,6 +3265,9 @@
       <c r="CJ10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3507,6 +3531,9 @@
       <c r="CJ11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3770,6 +3797,9 @@
       <c r="CJ12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4128,6 +4158,9 @@
       <c r="CJ14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4391,6 +4424,9 @@
       <c r="CJ15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4654,8 +4690,11 @@
       <c r="CJ16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4917,8 +4956,11 @@
       <c r="CJ17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5180,8 +5222,11 @@
       <c r="CJ18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK18" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5443,8 +5488,11 @@
       <c r="CJ19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5706,8 +5754,11 @@
       <c r="CJ20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5969,8 +6020,11 @@
       <c r="CJ21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6232,8 +6286,11 @@
       <c r="CJ22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6495,8 +6552,11 @@
       <c r="CJ23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6758,8 +6818,11 @@
       <c r="CJ24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7021,8 +7084,11 @@
       <c r="CJ25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7284,8 +7350,11 @@
       <c r="CJ26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7547,8 +7616,11 @@
       <c r="CJ27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7810,8 +7882,11 @@
       <c r="CJ28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8073,8 +8148,11 @@
       <c r="CJ29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8334,6 +8412,9 @@
         <v>35</v>
       </c>
       <c r="CJ30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03200603-5CA6-476C-AAF7-9B062A8475E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C3236-B82A-49CA-A657-FB59785656CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CK29" sqref="CK29"/>
+      <selection pane="topRight" activeCell="CL30" sqref="CL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1406,9 @@
       <c r="CK3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1672,6 +1675,9 @@
       <c r="CK4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1938,6 +1944,9 @@
       <c r="CK5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CL5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2204,6 +2213,9 @@
       <c r="CK6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2470,6 +2482,9 @@
       <c r="CK7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL7" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2736,6 +2751,9 @@
       <c r="CK8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3002,6 +3020,9 @@
       <c r="CK9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3268,6 +3289,9 @@
       <c r="CK10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3534,6 +3558,9 @@
       <c r="CK11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3800,6 +3827,9 @@
       <c r="CK12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4161,6 +4191,9 @@
       <c r="CK14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4427,6 +4460,9 @@
       <c r="CK15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4693,8 +4729,11 @@
       <c r="CK16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CL16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4959,8 +4998,11 @@
       <c r="CK17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5225,8 +5267,11 @@
       <c r="CK18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CL18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5491,8 +5536,11 @@
       <c r="CK19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CL19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5757,8 +5805,11 @@
       <c r="CK20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6023,8 +6074,11 @@
       <c r="CK21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6289,8 +6343,11 @@
       <c r="CK22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6555,8 +6612,11 @@
       <c r="CK23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6821,8 +6881,11 @@
       <c r="CK24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7087,8 +7150,11 @@
       <c r="CK25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7353,8 +7419,11 @@
       <c r="CK26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL26" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7619,8 +7688,11 @@
       <c r="CK27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7885,8 +7957,11 @@
       <c r="CK28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8151,8 +8226,11 @@
       <c r="CK29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8415,6 +8493,9 @@
         <v>35</v>
       </c>
       <c r="CK30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C3236-B82A-49CA-A657-FB59785656CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3BD94-2CF9-41A4-8D63-8C8204FA9529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -538,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CO30"/>
+  <dimension ref="A1:CQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL30" sqref="CL30"/>
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CO6" sqref="CO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +582,10 @@
     <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="93" width="6.85546875" customWidth="1"/>
+    <col min="71" max="95" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -836,31 +836,37 @@
         <v>44876</v>
       </c>
       <c r="CH1" s="1">
+        <v>44879</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>44880</v>
+      </c>
+      <c r="CJ1" s="1">
         <v>44881</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CK1" s="1">
         <v>44882</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CL1" s="1">
         <v>44883</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CM1" s="1">
         <v>44886</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CN1" s="1">
         <v>44887</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CO1" s="1">
         <v>44888</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CP1" s="1">
         <v>44889</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CQ1" s="1">
         <v>44890</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1117,31 +1123,37 @@
         <v>31</v>
       </c>
       <c r="CH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CO2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CP2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CQ2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1398,7 +1410,10 @@
         <v>35</v>
       </c>
       <c r="CH3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ3" s="4" t="s">
         <v>35</v>
@@ -1409,8 +1424,17 @@
       <c r="CL3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1691,10 @@
         <v>35</v>
       </c>
       <c r="CH4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ4" s="4" t="s">
         <v>35</v>
@@ -1678,8 +1705,17 @@
       <c r="CL4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +1972,10 @@
         <v>34</v>
       </c>
       <c r="CH5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="CI5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ5" s="4" t="s">
         <v>34</v>
@@ -1947,8 +1986,17 @@
       <c r="CL5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2205,10 +2253,13 @@
         <v>35</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CK6" s="4" t="s">
         <v>35</v>
@@ -2216,8 +2267,17 @@
       <c r="CL6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +2534,10 @@
         <v>35</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI7" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ7" s="4" t="s">
         <v>35</v>
@@ -2483,10 +2546,19 @@
         <v>35</v>
       </c>
       <c r="CL7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="CM7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO7" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2743,7 +2815,10 @@
         <v>35</v>
       </c>
       <c r="CH8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ8" s="4" t="s">
         <v>35</v>
@@ -2754,8 +2829,17 @@
       <c r="CL8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3012,7 +3096,10 @@
         <v>35</v>
       </c>
       <c r="CH9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI9" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ9" s="4" t="s">
         <v>35</v>
@@ -3023,8 +3110,17 @@
       <c r="CL9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3377,10 @@
         <v>35</v>
       </c>
       <c r="CH10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ10" s="4" t="s">
         <v>35</v>
@@ -3292,8 +3391,17 @@
       <c r="CL10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3550,7 +3658,10 @@
         <v>35</v>
       </c>
       <c r="CH11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ11" s="4" t="s">
         <v>35</v>
@@ -3561,8 +3672,17 @@
       <c r="CL11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3819,10 +3939,13 @@
         <v>35</v>
       </c>
       <c r="CH12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="CI12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CK12" s="4" t="s">
         <v>35</v>
@@ -3830,8 +3953,17 @@
       <c r="CL12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3925,8 +4057,14 @@
       <c r="BZ13" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="CH13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI13" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4183,7 +4321,10 @@
         <v>35</v>
       </c>
       <c r="CH14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ14" s="4" t="s">
         <v>35</v>
@@ -4194,8 +4335,17 @@
       <c r="CL14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4452,7 +4602,10 @@
         <v>35</v>
       </c>
       <c r="CH15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI15" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ15" s="4" t="s">
         <v>35</v>
@@ -4463,8 +4616,17 @@
       <c r="CL15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4721,19 +4883,31 @@
         <v>35</v>
       </c>
       <c r="CH16" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="CI16" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CK16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CL16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +5164,10 @@
         <v>34</v>
       </c>
       <c r="CH17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ17" s="4" t="s">
         <v>35</v>
@@ -5001,8 +5178,17 @@
       <c r="CL17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5259,19 +5445,31 @@
         <v>35</v>
       </c>
       <c r="CH18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI18" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CK18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CL18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5528,19 +5726,31 @@
         <v>35</v>
       </c>
       <c r="CH19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI19" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CK19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CL19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5797,7 +6007,10 @@
         <v>35</v>
       </c>
       <c r="CH20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI20" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ20" s="4" t="s">
         <v>35</v>
@@ -5808,8 +6021,17 @@
       <c r="CL20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6066,10 +6288,13 @@
         <v>35</v>
       </c>
       <c r="CH21" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="CI21" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CK21" s="4" t="s">
         <v>35</v>
@@ -6077,8 +6302,17 @@
       <c r="CL21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6569,10 @@
         <v>35</v>
       </c>
       <c r="CH22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI22" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ22" s="4" t="s">
         <v>35</v>
@@ -6346,8 +6583,17 @@
       <c r="CL22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6604,7 +6850,10 @@
         <v>35</v>
       </c>
       <c r="CH23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI23" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ23" s="4" t="s">
         <v>35</v>
@@ -6615,8 +6864,17 @@
       <c r="CL23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6873,7 +7131,10 @@
         <v>35</v>
       </c>
       <c r="CH24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI24" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ24" s="4" t="s">
         <v>35</v>
@@ -6884,8 +7145,17 @@
       <c r="CL24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7142,7 +7412,10 @@
         <v>35</v>
       </c>
       <c r="CH25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI25" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ25" s="4" t="s">
         <v>35</v>
@@ -7153,8 +7426,17 @@
       <c r="CL25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7411,7 +7693,10 @@
         <v>35</v>
       </c>
       <c r="CH26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ26" s="4" t="s">
         <v>35</v>
@@ -7420,10 +7705,19 @@
         <v>35</v>
       </c>
       <c r="CL26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="CM26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO26" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7680,7 +7974,10 @@
         <v>35</v>
       </c>
       <c r="CH27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI27" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ27" s="4" t="s">
         <v>35</v>
@@ -7691,8 +7988,17 @@
       <c r="CL27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7949,7 +8255,10 @@
         <v>35</v>
       </c>
       <c r="CH28" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI28" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ28" s="4" t="s">
         <v>35</v>
@@ -7960,8 +8269,17 @@
       <c r="CL28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8218,10 +8536,13 @@
         <v>35</v>
       </c>
       <c r="CH29" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="CI29" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CK29" s="4" t="s">
         <v>35</v>
@@ -8229,8 +8550,17 @@
       <c r="CL29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8487,7 +8817,10 @@
         <v>35</v>
       </c>
       <c r="CH30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="CI30" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="CJ30" s="4" t="s">
         <v>35</v>
@@ -8496,6 +8829,15 @@
         <v>35</v>
       </c>
       <c r="CL30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CM30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8505,7 +8847,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A3:AZ3 AP3:XFD30 A1:XFD2 A31:XFD1048576">
+  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A31:XFD1048576 A1:XFD2 AP3:XFD30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3BD94-2CF9-41A4-8D63-8C8204FA9529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177BAC4-2123-4D73-8C2A-D62C5C588405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -538,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CQ30"/>
+  <dimension ref="A1:DF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CO6" sqref="CO6"/>
+      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CP21" sqref="CP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +582,10 @@
     <col min="66" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="95" width="6.85546875" customWidth="1"/>
+    <col min="71" max="111" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44732</v>
       </c>
@@ -865,8 +865,53 @@
       <c r="CQ1" s="1">
         <v>44890</v>
       </c>
+      <c r="CR1" s="1">
+        <v>44893</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>44894</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>44895</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>44896</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>44897</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>44900</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>44901</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>44902</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>44903</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>44904</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>44907</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>44908</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>44909</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>44910</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>44911</v>
+      </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1197,53 @@
       <c r="CQ2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="CR2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="DF2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1433,8 +1523,11 @@
       <c r="CO3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="CO4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1995,8 +2091,11 @@
       <c r="CO5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CP5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2375,11 @@
       <c r="CO6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2557,8 +2659,11 @@
       <c r="CO7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2838,8 +2943,11 @@
       <c r="CO8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3119,8 +3227,11 @@
       <c r="CO9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3400,8 +3511,11 @@
       <c r="CO10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3681,8 +3795,11 @@
       <c r="CO11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3962,8 +4079,11 @@
       <c r="CO12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4064,7 +4184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4344,8 +4464,11 @@
       <c r="CO14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4625,8 +4748,11 @@
       <c r="CO15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4906,8 +5032,11 @@
       <c r="CO16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CP16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5187,8 +5316,11 @@
       <c r="CO17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CP17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5468,8 +5600,11 @@
       <c r="CO18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5749,8 +5884,11 @@
       <c r="CO19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6030,8 +6168,11 @@
       <c r="CO20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6311,8 +6452,11 @@
       <c r="CO21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6592,8 +6736,11 @@
       <c r="CO22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6873,8 +7020,11 @@
       <c r="CO23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7154,8 +7304,11 @@
       <c r="CO24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7435,8 +7588,11 @@
       <c r="CO25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP25" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7716,8 +7872,11 @@
       <c r="CO26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7997,8 +8156,11 @@
       <c r="CO27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8278,8 +8440,11 @@
       <c r="CO28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8559,8 +8724,11 @@
       <c r="CO29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP29" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8838,6 +9006,9 @@
         <v>35</v>
       </c>
       <c r="CO30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CP30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8847,7 +9018,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A31:XFD1048576 A1:XFD2 AP3:XFD30">
+  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A31:XFD1048576 AP3:XFD30 A1:XFD2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177BAC4-2123-4D73-8C2A-D62C5C588405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A50FE-3537-450C-A468-BF0B8B86CF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -196,6 +196,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -542,7 +545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP21" sqref="CP21"/>
+      <selection pane="topRight" activeCell="CQ28" sqref="CQ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,6 +1529,9 @@
       <c r="CP3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1810,6 +1816,9 @@
       <c r="CP4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ4" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2094,6 +2103,9 @@
       <c r="CP5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CQ5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2378,6 +2390,9 @@
       <c r="CP6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2662,6 +2677,9 @@
       <c r="CP7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ7" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2946,6 +2964,9 @@
       <c r="CP8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3228,7 +3249,10 @@
         <v>35</v>
       </c>
       <c r="CP9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="CQ9" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
@@ -3514,6 +3538,9 @@
       <c r="CP10" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CQ10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3798,6 +3825,9 @@
       <c r="CP11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4082,6 +4112,9 @@
       <c r="CP12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4467,6 +4500,9 @@
       <c r="CP14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4751,6 +4787,9 @@
       <c r="CP15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ15" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5035,8 +5074,11 @@
       <c r="CP16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5319,8 +5361,11 @@
       <c r="CP17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5603,8 +5648,11 @@
       <c r="CP18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5887,8 +5935,11 @@
       <c r="CP19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6171,8 +6222,11 @@
       <c r="CP20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6455,8 +6509,11 @@
       <c r="CP21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6739,8 +6796,11 @@
       <c r="CP22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7023,8 +7083,11 @@
       <c r="CP23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7307,8 +7370,11 @@
       <c r="CP24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7591,8 +7657,11 @@
       <c r="CP25" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CQ25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7875,8 +7944,11 @@
       <c r="CP26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8159,8 +8231,11 @@
       <c r="CP27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8443,8 +8518,11 @@
       <c r="CP28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ28" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8727,8 +8805,11 @@
       <c r="CP29" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CQ29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9009,6 +9090,9 @@
         <v>35</v>
       </c>
       <c r="CP30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A50FE-3537-450C-A468-BF0B8B86CF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D892083D-CCB5-44EB-8303-0F2B4DFB2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -196,9 +196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -545,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CQ28" sqref="CQ28"/>
+      <selection pane="topRight" activeCell="CT15" sqref="CT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,6 +1529,12 @@
       <c r="CQ3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1819,6 +1822,12 @@
       <c r="CQ4" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2106,6 +2115,12 @@
       <c r="CQ5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2393,6 +2408,12 @@
       <c r="CQ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2680,6 +2701,12 @@
       <c r="CQ7" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2967,6 +2994,12 @@
       <c r="CQ8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3254,6 +3287,12 @@
       <c r="CQ9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3541,6 +3580,12 @@
       <c r="CQ10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3828,6 +3873,12 @@
       <c r="CQ11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4115,6 +4166,12 @@
       <c r="CQ12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4216,6 +4273,9 @@
       <c r="CI13" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="CS13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4503,6 +4563,12 @@
       <c r="CQ14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4790,6 +4856,12 @@
       <c r="CQ15" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5077,8 +5149,14 @@
       <c r="CQ16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5364,8 +5442,14 @@
       <c r="CQ17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5651,8 +5735,14 @@
       <c r="CQ18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5938,8 +6028,14 @@
       <c r="CQ19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6225,8 +6321,14 @@
       <c r="CQ20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6512,8 +6614,14 @@
       <c r="CQ21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6799,8 +6907,14 @@
       <c r="CQ22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7086,8 +7200,14 @@
       <c r="CQ23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7373,8 +7493,14 @@
       <c r="CQ24" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CR24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7660,8 +7786,14 @@
       <c r="CQ25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7947,8 +8079,14 @@
       <c r="CQ26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8234,8 +8372,14 @@
       <c r="CQ27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8518,11 +8662,17 @@
       <c r="CP28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CQ28" s="5" t="s">
-        <v>34</v>
+      <c r="CQ28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CR28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS28" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8808,8 +8958,14 @@
       <c r="CQ29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS29" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9093,6 +9249,12 @@
         <v>35</v>
       </c>
       <c r="CQ30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9102,7 +9264,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A31:XFD1048576 AP3:XFD30 A1:XFD2">
+  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A31:XFD1048576 A1:XFD2 AP3:XFD30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D892083D-CCB5-44EB-8303-0F2B4DFB2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D8AB6-2C78-444C-8F86-E645436C7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CT15" sqref="CT15"/>
+      <selection pane="topRight" activeCell="CS22" sqref="CS22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6618,7 +6618,7 @@
         <v>35</v>
       </c>
       <c r="CS21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:97" x14ac:dyDescent="0.25">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D8AB6-2C78-444C-8F86-E645436C7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6B8D9-B38E-4A3B-AA48-C5EC3A1A8832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -541,8 +541,8 @@
   <dimension ref="A1:DF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS22" sqref="CS22"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV12" sqref="CV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,6 +1535,15 @@
       <c r="CS3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1828,6 +1837,15 @@
       <c r="CS4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2119,7 +2137,16 @@
         <v>34</v>
       </c>
       <c r="CS5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="CT5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CU5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
@@ -2414,6 +2441,15 @@
       <c r="CS6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2707,6 +2743,15 @@
       <c r="CS7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3000,6 +3045,15 @@
       <c r="CS8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CT8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3293,6 +3347,15 @@
       <c r="CS9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3586,6 +3649,15 @@
       <c r="CS10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3879,6 +3951,15 @@
       <c r="CS11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4172,6 +4253,15 @@
       <c r="CS12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4569,6 +4659,15 @@
       <c r="CS14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4862,6 +4961,15 @@
       <c r="CS15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CV15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5155,8 +5263,17 @@
       <c r="CS16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CU16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5448,8 +5565,17 @@
       <c r="CS17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5741,8 +5867,17 @@
       <c r="CS18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6034,8 +6169,17 @@
       <c r="CS19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6327,8 +6471,17 @@
       <c r="CS20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6620,8 +6773,17 @@
       <c r="CS21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CT21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6913,8 +7075,17 @@
       <c r="CS22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7206,8 +7377,17 @@
       <c r="CS23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CV23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7499,8 +7679,17 @@
       <c r="CS24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7792,8 +7981,17 @@
       <c r="CS25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8085,8 +8283,17 @@
       <c r="CS26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8378,8 +8585,17 @@
       <c r="CS27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8671,8 +8887,17 @@
       <c r="CS28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8964,8 +9189,17 @@
       <c r="CS29" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CT29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9255,6 +9489,15 @@
         <v>35</v>
       </c>
       <c r="CS30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CT30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV30" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D8AB6-2C78-444C-8F86-E645436C7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663B036-0985-4C9A-8616-E397B01BB8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
     <sheet name="BCD" sheetId="6" r:id="rId2"/>
+    <sheet name="BACK" sheetId="7" r:id="rId3"/>
+    <sheet name="FRONT" sheetId="8" r:id="rId4"/>
+    <sheet name="MOBILE" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -152,6 +144,9 @@
   <si>
     <t>VPS01</t>
   </si>
+  <si>
+    <t>VPS02</t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +197,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -227,6 +222,36 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,9 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS22" sqref="CS22"/>
+      <selection pane="topRight" activeCell="CL10" sqref="CL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9259,14 +9284,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA4:AB12 C4:Z30 AA14:AB30 C3:AB3 AC3:AD30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"f"</formula>
+  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A1:XFD2 A31:XFD1048576 AP3:XFD30">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AN30 A3:AZ3 A31:XFD1048576 A1:XFD2 AP3:XFD30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="C4:Z30 C3:AB3 AA4:AB12 AA14:AB30 AC3:AD30">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9279,7 +9304,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9521,6 +9546,523 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575BD3C-CD16-45AF-86F0-A23336394FE3}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663B036-0985-4C9A-8616-E397B01BB8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8A787-610C-4A40-A509-17DE89DEE92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -565,9 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL10" sqref="CL10"/>
+      <selection pane="topRight" activeCell="CY23" sqref="CY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,6 +1560,24 @@
       <c r="CS3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1853,6 +1871,24 @@
       <c r="CS4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2144,7 +2180,25 @@
         <v>34</v>
       </c>
       <c r="CS5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="CT5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CU5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CW5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
@@ -2439,6 +2493,24 @@
       <c r="CS6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2732,6 +2804,24 @@
       <c r="CS7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3025,6 +3115,24 @@
       <c r="CS8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CT8" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3318,6 +3426,24 @@
       <c r="CS9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3611,6 +3737,24 @@
       <c r="CS10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT10" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3904,6 +4048,24 @@
       <c r="CS11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT11" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4197,6 +4359,24 @@
       <c r="CS12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT12" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4301,6 +4481,24 @@
       <c r="CS13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4594,6 +4792,24 @@
       <c r="CS14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT14" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4887,6 +5103,24 @@
       <c r="CS15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5180,8 +5414,26 @@
       <c r="CS16" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5473,8 +5725,26 @@
       <c r="CS17" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT17" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5766,8 +6036,26 @@
       <c r="CS18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT18" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6059,8 +6347,26 @@
       <c r="CS19" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT19" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6352,8 +6658,26 @@
       <c r="CS20" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT20" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6645,8 +6969,26 @@
       <c r="CS21" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT21" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6938,8 +7280,26 @@
       <c r="CS22" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT22" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7231,8 +7591,26 @@
       <c r="CS23" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT23" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU23" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7524,8 +7902,26 @@
       <c r="CS24" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT24" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU24" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7817,8 +8213,26 @@
       <c r="CS25" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8110,8 +8524,26 @@
       <c r="CS26" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8403,8 +8835,26 @@
       <c r="CS27" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT27" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8696,8 +9146,26 @@
       <c r="CS28" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT28" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8989,8 +9457,26 @@
       <c r="CS29" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT29" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU29" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9280,6 +9766,24 @@
         <v>35</v>
       </c>
       <c r="CS30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CT30" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU30" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9559,8 +10063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,31 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8A787-610C-4A40-A509-17DE89DEE92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89766B-E0CC-4360-A782-98851E32A145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
     <sheet name="BCD" sheetId="6" r:id="rId2"/>
     <sheet name="BACK" sheetId="7" r:id="rId3"/>
     <sheet name="FRONT" sheetId="8" r:id="rId4"/>
-    <sheet name="MOBILE" sheetId="9" r:id="rId5"/>
+    <sheet name="INDMO" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -147,6 +158,9 @@
   <si>
     <t>VPS02</t>
   </si>
+  <si>
+    <t>REC</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -193,11 +207,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -242,6 +257,96 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -565,9 +670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CY23" sqref="CY23"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD21" sqref="DD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6985,7 +7090,7 @@
         <v>35</v>
       </c>
       <c r="CY21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.25">
@@ -9789,12 +9894,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:AN30 A3:AZ3 A1:XFD2 A31:XFD1048576 AP3:XFD30">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Z30 C3:AB3 AA4:AB12 AA14:AB30 AC3:AD30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9808,12 +9913,13 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10050,8 +10156,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10063,13 +10174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10087,146 +10199,318 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C29">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10236,169 +10520,465 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575BD3C-CD16-45AF-86F0-A23336394FE3}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2&gt;B2,C2,B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89766B-E0CC-4360-A782-98851E32A145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD858D56-9D74-43C6-BFC9-D8DB7016A498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BACK" sheetId="7" r:id="rId3"/>
     <sheet name="FRONT" sheetId="8" r:id="rId4"/>
     <sheet name="INDMO" sheetId="9" r:id="rId5"/>
+    <sheet name="Estacionamento" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="73">
   <si>
     <t>Aluno</t>
   </si>
@@ -161,12 +162,111 @@
   <si>
     <t>REC</t>
   </si>
+  <si>
+    <t>TRAB</t>
+  </si>
+  <si>
+    <t>Capacidades Técnicas</t>
+  </si>
+  <si>
+    <t>Grupo 1</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Grupo 3</t>
+  </si>
+  <si>
+    <t>Grupo 4</t>
+  </si>
+  <si>
+    <t>Grupo 5</t>
+  </si>
+  <si>
+    <t>Grupo 6</t>
+  </si>
+  <si>
+    <t>Grupo 7</t>
+  </si>
+  <si>
+    <t>Grupo 8</t>
+  </si>
+  <si>
+    <t>Grupo 9</t>
+  </si>
+  <si>
+    <t>Grupo 10</t>
+  </si>
+  <si>
+    <t>Grupo 11</t>
+  </si>
+  <si>
+    <t>Grupo 12</t>
+  </si>
+  <si>
+    <t>Grupo 13</t>
+  </si>
+  <si>
+    <t>Desenvolver interfaces web consumindo API</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Desenvolver interfaces web interativas com linguagem de programação</t>
+  </si>
+  <si>
+    <t>Elaborar diagramas de modelagem do banco de dados de acordo com a arquitetura definida</t>
+  </si>
+  <si>
+    <t>Utilizar relacionamentos entre as tabelas do banco de dados</t>
+  </si>
+  <si>
+    <t>Desenvolver API (web services) para integração de dados entre plataformas</t>
+  </si>
+  <si>
+    <t>Desenvolver sistemas web de acordo com as regras de negócio estabelecidas</t>
+  </si>
+  <si>
+    <t>Utilizar interações com base de dados para desenvolvimento de sistemas web</t>
+  </si>
+  <si>
+    <t>Adequar a interface web para diferentes dispositivos de acesso</t>
+  </si>
+  <si>
+    <t>Diferenciar os aspectos de aplicabilidade entre as experiências do usuário (UX) e a interface do usuário (UI)</t>
+  </si>
+  <si>
+    <t>Aplicar programação em banco de dados utilizando functions, stored procedures, triggers e eventos</t>
+  </si>
+  <si>
+    <t>Capacidades Sociais, Organizativas e Metodológicas</t>
+  </si>
+  <si>
+    <t>Trabalhar em equipe</t>
+  </si>
+  <si>
+    <t>Seguir método de trabalho</t>
+  </si>
+  <si>
+    <t>Demonstrar atenção a detalhes</t>
+  </si>
+  <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,16 +274,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF5050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,11 +353,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -207,12 +384,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -307,6 +534,116 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -670,9 +1007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DD21" sqref="DD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CR31" sqref="CR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9894,12 +10231,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:AN30 A3:AZ3 A1:XFD2 A31:XFD1048576 AP3:XFD30">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Z30 C3:AB3 AA4:AB12 AA14:AB30 AC3:AD30">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9910,258 +10247,428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5">
+        <f>IF(C2&gt;B2,C2,B2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E5" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E9" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E20" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E25" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>50</v>
       </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D29">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10172,344 +10679,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>75</v>
       </c>
       <c r="C3">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>85</v>
       </c>
       <c r="C5">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>90</v>
       </c>
       <c r="C6">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>90</v>
       </c>
       <c r="C7">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>45</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>90</v>
       </c>
       <c r="C10">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>70</v>
       </c>
       <c r="C11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>90</v>
       </c>
       <c r="C13">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>75</v>
       </c>
       <c r="C14">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>85</v>
       </c>
       <c r="C16">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>90</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>85</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>75</v>
       </c>
       <c r="C19">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>30</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="C23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>80</v>
       </c>
       <c r="C24">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>45</v>
       </c>
       <c r="C25">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>85</v>
       </c>
       <c r="C26">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>80</v>
       </c>
       <c r="C27">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>70</v>
       </c>
       <c r="C28">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>45</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C29">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D2:F29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10520,21 +11081,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575BD3C-CD16-45AF-86F0-A23336394FE3}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10544,18 +11106,18 @@
       <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
@@ -10563,52 +11125,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>80</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>56</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10623,7 +11179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10638,7 +11194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10652,8 +11208,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10667,23 +11226,26 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>66</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10697,35 +11259,32 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>82</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10740,22 +11299,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>60</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10769,23 +11325,23 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>93</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10800,7 +11356,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -10815,7 +11371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10829,8 +11385,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -10844,8 +11403,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -10860,22 +11422,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>87</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -10890,7 +11452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -10904,38 +11466,38 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>56</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>50</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10950,7 +11512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -10967,17 +11529,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10995,6 +11562,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11147,11 +11715,1228 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDA813B-B298-41F3-8B81-9C0FB2D8BCBC}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="16" customWidth="1"/>
+    <col min="3" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="18">
+        <f>ROUND(50/4*(COUNTIF(C6:C8,"x")+1),0)</f>
+        <v>38</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ref="D18:O18" si="0">ROUND(50/4*(COUNTIF(D6:D8,"x")+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="19">
+        <f>ROUND(50/2*COUNTIF(C14:C15,"x"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" ref="D19:O19" si="1">ROUND(50/2*COUNTIF(D14:D15,"x"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="5">
+        <f>IF(C18&lt;50,C18,C18+C19)</f>
+        <v>38</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:O20" si="2">IF(D18&lt;50,D18,D18+D19)</f>
+        <v>50</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="18">
+        <f>ROUND(50/3*(COUNTIF(C2:C3,"x")+1),0)</f>
+        <v>33</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" ref="D21:O21" si="3">ROUND(50/3*(COUNTIF(D2:D3,"x")+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="N21" s="18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="19">
+        <f>ROUND(50/2*COUNTIF(C14:C15,"x"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" ref="D22:O22" si="4">ROUND(50/2*COUNTIF(D14:D15,"x"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5">
+        <f>IF(C21&lt;50,C21,C21+C22)</f>
+        <v>33</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:O23" si="5">IF(D21&lt;50,D21,D21+D22)</f>
+        <v>50</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="18">
+        <f>ROUND(50/3*(COUNTIF(C4:C5,"x")+1),0)</f>
+        <v>33</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" ref="D24:O24" si="6">ROUND(50/3*(COUNTIF(D4:D5,"x")+1),0)</f>
+        <v>33</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="19">
+        <f>ROUND(50/2*COUNTIF(C14:C15,"x"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" ref="D25:O25" si="7">ROUND(50/2*COUNTIF(D14:D15,"x"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="N25" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="19">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5">
+        <f>IF(C24&lt;50,C24,C24+C25)</f>
+        <v>33</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:O26" si="8">IF(D24&lt;50,D24,D24+D25)</f>
+        <v>33</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD858D56-9D74-43C6-BFC9-D8DB7016A498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D16B530-E086-4FC0-8938-2F304676CEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="78">
   <si>
     <t>Aluno</t>
   </si>
@@ -261,6 +258,21 @@
   <si>
     <t>Banco de Dados</t>
   </si>
+  <si>
+    <t>TPDX</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>PESOS</t>
+  </si>
+  <si>
+    <t>FRUM</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
 </sst>
 </file>
 
@@ -388,24 +400,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -426,20 +426,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -604,11 +616,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -679,11 +686,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1008,8 +1010,8 @@
   <dimension ref="A1:DF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CR31" sqref="CR31"/>
+      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS6" sqref="CS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10231,12 +10233,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:AN30 A3:AZ3 A1:XFD2 A31:XFD1048576 AP3:XFD30">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Z30 C3:AB3 AA4:AB12 AA14:AB30 AC3:AD30">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10247,10 +10249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10260,9 +10262,11 @@
     <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10278,8 +10282,14 @@
       <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -10290,8 +10300,18 @@
         <f>IF(C2&gt;B2,C2,B2)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <f>ROUND((D2*2+E2+F2)/4,0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10302,8 +10322,18 @@
         <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G29" si="1">ROUND((D3*2+E3+F3)/4,0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10314,8 +10344,18 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10329,8 +10369,15 @@
       <c r="E5" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10341,8 +10388,18 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10353,8 +10410,18 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10368,8 +10435,15 @@
       <c r="E8" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10383,8 +10457,15 @@
       <c r="E9" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10398,8 +10479,15 @@
       <c r="E10" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10413,8 +10501,15 @@
       <c r="E11" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10425,8 +10520,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10437,8 +10542,18 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10452,8 +10567,18 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="5">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10464,8 +10589,18 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="5">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10479,8 +10614,15 @@
       <c r="E16" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10491,8 +10633,18 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="5">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10503,8 +10655,18 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="5">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -10515,8 +10677,18 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10530,8 +10702,15 @@
       <c r="E20" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -10545,8 +10724,15 @@
       <c r="E21" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -10557,8 +10743,18 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5">
+        <f>ROUND((D22*2+E22+F22)/4,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10572,8 +10768,15 @@
       <c r="E23" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -10584,8 +10787,18 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -10599,8 +10812,15 @@
       <c r="E25" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -10611,8 +10831,18 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -10626,8 +10856,15 @@
       <c r="E27" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10638,8 +10875,18 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -10650,25 +10897,63 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="E29" s="5">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <f>D30+E30+F30</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D29">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10679,10 +10964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10693,9 +10978,11 @@
     <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10714,8 +11001,14 @@
       <c r="F1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -10725,8 +11018,22 @@
       <c r="C2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="5">
+        <f>IF(D2&gt;C2,D2,C2)</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <f>ROUND((B2*3+E2*3+F2+G2)/8,0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10736,8 +11043,22 @@
       <c r="C3">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E29" si="0">IF(D3&gt;C3,D3,C3)</f>
+        <v>95</v>
+      </c>
+      <c r="F3" s="5">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H29" si="1">ROUND((B3*3+E3*3+F3+G3)/8,0)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10747,8 +11068,22 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10758,11 +11093,22 @@
       <c r="C5">
         <v>85</v>
       </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="F5" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10772,8 +11118,22 @@
       <c r="C6">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10783,8 +11143,22 @@
       <c r="C7">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F7" s="5">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10794,11 +11168,22 @@
       <c r="C8">
         <v>50</v>
       </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F8" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10808,11 +11193,22 @@
       <c r="C9">
         <v>40</v>
       </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="F9" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10822,11 +11218,22 @@
       <c r="C10">
         <v>85</v>
       </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="F10" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10836,11 +11243,22 @@
       <c r="C11">
         <v>60</v>
       </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="F11" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10850,8 +11268,19 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10861,8 +11290,22 @@
       <c r="C13">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F13" s="5">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10872,16 +11315,44 @@
       <c r="C14">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="5">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10891,11 +11362,22 @@
       <c r="C16">
         <v>90</v>
       </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="F16" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10905,8 +11387,22 @@
       <c r="C17">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F17" s="5">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10916,8 +11412,22 @@
       <c r="C18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F18" s="5">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -10927,8 +11437,22 @@
       <c r="C19">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F19" s="5">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10938,25 +11462,47 @@
       <c r="C20">
         <v>70</v>
       </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="F20" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>75</v>
       </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="F21" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -10966,8 +11512,22 @@
       <c r="C22">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F22" s="5">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10977,11 +11537,22 @@
       <c r="C23">
         <v>50</v>
       </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F23" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -10991,8 +11562,22 @@
       <c r="C24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F24" s="5">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -11002,11 +11587,22 @@
       <c r="C25">
         <v>80</v>
       </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="F25" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -11016,8 +11612,22 @@
       <c r="C26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F26" s="5">
+        <v>38</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26" s="5">
+        <f>ROUND((B26*3+E26*3+F26+G26)/8,0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -11027,11 +11637,22 @@
       <c r="C27">
         <v>85</v>
       </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="F27" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -11041,8 +11662,22 @@
       <c r="C28">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F28" s="5">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11052,24 +11687,69 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F29" s="5">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <f>SUM(B30:G30)</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F29">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H29">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -11081,10 +11761,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575BD3C-CD16-45AF-86F0-A23336394FE3}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11093,10 +11773,12 @@
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11112,8 +11794,17 @@
       <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -11124,8 +11815,21 @@
         <f>IF(C2&gt;B2,C2,B2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <f>ROUND((D2*3+E2+F2+G2)/6,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11136,8 +11840,21 @@
         <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="1">ROUND((D3*3+E3+F3+G3)/6,0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11148,8 +11865,18 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -11163,8 +11890,18 @@
       <c r="E5" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11178,8 +11915,21 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -11193,8 +11943,21 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <v>75</v>
+      </c>
+      <c r="F7" s="5">
+        <v>85</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -11211,8 +11974,18 @@
       <c r="E8" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11229,8 +12002,18 @@
       <c r="E9" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11244,8 +12027,18 @@
       <c r="E10" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -11262,17 +12055,46 @@
       <c r="E11" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -11283,8 +12105,21 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5">
+        <v>85</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -11298,8 +12133,21 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="5">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -11310,8 +12158,18 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="5">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -11328,8 +12186,18 @@
       <c r="E16" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -11340,8 +12208,21 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="5">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -11355,8 +12236,18 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="5">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -11370,8 +12261,21 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -11388,8 +12292,18 @@
       <c r="E20" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -11406,8 +12320,18 @@
       <c r="E21" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -11421,8 +12345,21 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -11436,8 +12373,18 @@
       <c r="E23" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -11451,8 +12398,21 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>75</v>
+      </c>
+      <c r="F24" s="5">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -11469,8 +12429,18 @@
       <c r="E25" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -11481,8 +12451,21 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -11496,8 +12479,18 @@
       <c r="E27" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -11511,8 +12504,21 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <v>75</v>
+      </c>
+      <c r="F28" s="5">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <f>ROUND((D28*3+E28+F28+G28)/6,0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11526,25 +12532,69 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="E29" s="5">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5">
+        <v>55</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <f>SUM(D30:G30)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D29">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H29">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11555,168 +12605,488 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5">
+        <f>AVERAGE(B2:C2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D29" si="0">AVERAGE(B3:C3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29" s="5">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <f>B30+C30</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C29">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -11728,804 +13098,804 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDA813B-B298-41F3-8B81-9C0FB2D8BCBC}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="12" customWidth="1"/>
     <col min="3" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="H10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="L10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="O11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="I14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="9" t="s">
+      <c r="N14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="9" t="s">
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <f>ROUND(50/4*(COUNTIF(C6:C8,"x")+1),0)</f>
         <v>38</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <f t="shared" ref="D18:O18" si="0">ROUND(50/4*(COUNTIF(D6:D8,"x")+1),0)</f>
         <v>50</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="14">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="15">
         <f>ROUND(50/2*COUNTIF(C14:C15,"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <f t="shared" ref="D19:O19" si="1">ROUND(50/2*COUNTIF(D14:D15,"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="5">
@@ -12582,124 +13952,124 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <f>ROUND(50/3*(COUNTIF(C2:C3,"x")+1),0)</f>
         <v>33</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <f t="shared" ref="D21:O21" si="3">ROUND(50/3*(COUNTIF(D2:D3,"x")+1),0)</f>
         <v>50</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="14">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="14">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="14">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="14">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="15">
         <f>ROUND(50/2*COUNTIF(C14:C15,"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <f t="shared" ref="D22:O22" si="4">ROUND(50/2*COUNTIF(D14:D15,"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="15">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="15">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="5">
@@ -12756,124 +14126,124 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="14">
         <f>ROUND(50/3*(COUNTIF(C4:C5,"x")+1),0)</f>
         <v>33</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="14">
         <f t="shared" ref="D24:O24" si="6">ROUND(50/3*(COUNTIF(D4:D5,"x")+1),0)</f>
         <v>33</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="14">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="14">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="14">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="14">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="14">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="14">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="14">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="14">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="14">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="14">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="14">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="15">
         <f>ROUND(50/2*COUNTIF(C14:C15,"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="15">
         <f t="shared" ref="D25:O25" si="7">ROUND(50/2*COUNTIF(D14:D15,"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="15">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="15">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="15">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="15">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="15">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="15">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="15">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="26" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="5">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D16B530-E086-4FC0-8938-2F304676CEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E65355E-7FF6-4A45-B596-8D6E63A0BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="78">
   <si>
     <t>Aluno</t>
   </si>
@@ -384,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -426,15 +418,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -444,164 +427,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1009,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="CS6" sqref="CS6"/>
     </sheetView>
@@ -10233,12 +10076,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:AN30 A3:AZ3 A1:XFD2 A31:XFD1048576 AP3:XFD30">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Z30 C3:AB3 AA4:AB12 AA14:AB30 AC3:AD30">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10249,10 +10092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10162,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <f t="shared" ref="D3:D28" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>80</v>
       </c>
       <c r="E3" s="5">
@@ -10329,7 +10172,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G29" si="1">ROUND((D3*2+E3+F3)/4,0)</f>
+        <f t="shared" ref="G3:G28" si="1">ROUND((D3*2+E3+F3)/4,0)</f>
         <v>71</v>
       </c>
     </row>
@@ -10494,9 +10337,12 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" s="28">
+        <v>100</v>
+      </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -10506,41 +10352,44 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>50</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E13" s="5">
         <v>33</v>
@@ -10550,22 +10399,19 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
         <v>33</v>
@@ -10575,107 +10421,110 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E16" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>50</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>50</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>33</v>
@@ -10685,19 +10534,19 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E20" s="5">
         <v>33</v>
@@ -10707,41 +10556,41 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>50</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f>ROUND((D21*2+E21+F21)/4,0)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5">
         <v>20</v>
@@ -10750,210 +10599,168 @@
         <v>50</v>
       </c>
       <c r="G22" s="5">
-        <f>ROUND((D22*2+E22+F22)/4,0)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E24" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F25">
         <v>50</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>50</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F27">
         <v>50</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E28" s="5">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>50</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
+      <c r="A29" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5">
-        <v>33</v>
-      </c>
-      <c r="F29">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <f>D30+E30+F30</f>
+        <f>D29+E29+F29</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D29">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:F28 G2:G29">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10964,10 +10771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11044,7 +10851,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E29" si="0">IF(D3&gt;C3,D3,C3)</f>
+        <f t="shared" ref="E3:E28" si="0">IF(D3&gt;C3,D3,C3)</f>
         <v>95</v>
       </c>
       <c r="F3" s="5">
@@ -11054,7 +10861,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H29" si="1">ROUND((B3*3+E3*3+F3+G3)/8,0)</f>
+        <f t="shared" ref="H3:H28" si="1">ROUND((B3*3+E3*3+F3+G3)/8,0)</f>
         <v>79</v>
       </c>
     </row>
@@ -11168,9 +10975,12 @@
       <c r="C8">
         <v>50</v>
       </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5">
         <v>38</v>
@@ -11180,7 +10990,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11260,64 +11070,64 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>75</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <v>50</v>
@@ -11327,194 +11137,197 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>85</v>
       </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
+        <v>90</v>
+      </c>
+      <c r="C16">
         <v>85</v>
-      </c>
-      <c r="C16">
-        <v>90</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F18" s="5">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F20" s="5">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5">
         <v>100</v>
@@ -11524,65 +11337,65 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F23" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
+        <v>45</v>
+      </c>
+      <c r="C24">
         <v>80</v>
-      </c>
-      <c r="C24">
-        <v>75</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F24" s="5">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>80</v>
@@ -11598,23 +11411,23 @@
         <v>50</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f>ROUND((B25*3+E25*3+F25+G25)/8,0)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
+        <v>80</v>
+      </c>
+      <c r="C26">
         <v>85</v>
-      </c>
-      <c r="C26">
-        <v>80</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" s="5">
         <v>38</v>
@@ -11623,134 +11436,89 @@
         <v>50</v>
       </c>
       <c r="H26" s="5">
-        <f>ROUND((B26*3+E26*3+F26+G26)/8,0)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F27" s="5">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G27">
         <v>50</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F28" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="A29" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="5">
-        <v>45</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F29" s="5">
-        <v>50</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="5">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
-        <f>SUM(B30:G30)</f>
+        <f>SUM(B29:G29)</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F29">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H29">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:H28">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11761,10 +11529,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575BD3C-CD16-45AF-86F0-A23336394FE3}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11837,7 +11605,7 @@
         <v>80</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <f t="shared" ref="D3:D28" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>80</v>
       </c>
       <c r="E3" s="5">
@@ -11850,7 +11618,7 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="1">ROUND((D3*3+E3+F3+G3)/6,0)</f>
+        <f t="shared" ref="H3:H28" si="1">ROUND((D3*3+E3+F3+G3)/6,0)</f>
         <v>76</v>
       </c>
     </row>
@@ -12068,188 +11836,188 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5">
         <v>33</v>
       </c>
-      <c r="F14" s="5">
-        <v>65</v>
-      </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>44</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <v>80</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E16" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F16" s="5">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E17" s="5">
-        <v>75</v>
-      </c>
-      <c r="F17" s="5">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5">
-        <v>33</v>
+        <v>75</v>
+      </c>
+      <c r="F18" s="5">
+        <v>55</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12262,7 +12030,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5">
         <v>55</v>
@@ -12272,28 +12040,28 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F20" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>50</v>
@@ -12305,296 +12073,248 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21" s="5">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E22" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22" s="5">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F23" s="5">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E24" s="5">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5">
         <v>80</v>
-      </c>
-      <c r="E24" s="5">
-        <v>75</v>
-      </c>
-      <c r="F24" s="5">
-        <v>55</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E26" s="5">
         <v>33</v>
       </c>
       <c r="F26" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>50</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E27" s="5">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F27" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <v>50</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>ROUND((D27*3+E27+F27+G27)/6,0)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E28" s="5">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F28" s="5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
       <c r="H28">
-        <f>ROUND((D28*3+E28+F28+G28)/6,0)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>44</v>
-      </c>
-      <c r="C29">
-        <v>34</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E29" s="5">
-        <v>20</v>
-      </c>
-      <c r="F29" s="5">
-        <v>55</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="H30" s="5">
-        <f>SUM(D30:G30)</f>
+      <c r="H29" s="5">
+        <f>SUM(D29:G29)</f>
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D29">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H29">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:H28">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12605,10 +12325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12659,7 +12379,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D29" si="0">AVERAGE(B3:C3)</f>
+        <f t="shared" ref="D3:D28" si="0">AVERAGE(B3:C3)</f>
         <v>50</v>
       </c>
     </row>
@@ -12785,7 +12505,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>50</v>
@@ -12800,7 +12520,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>50</v>
@@ -12815,7 +12535,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>50</v>
@@ -12830,7 +12550,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>50</v>
@@ -12845,7 +12565,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>50</v>
@@ -12860,7 +12580,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>50</v>
@@ -12875,7 +12595,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -12890,7 +12610,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>50</v>
@@ -12905,7 +12625,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>50</v>
@@ -12920,7 +12640,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>50</v>
@@ -12935,7 +12655,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>50</v>
@@ -12950,7 +12670,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>50</v>
@@ -12965,7 +12685,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>50</v>
@@ -12980,7 +12700,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
@@ -12995,7 +12715,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>50</v>
@@ -13010,7 +12730,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>50</v>
@@ -13025,7 +12745,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>50</v>
@@ -13039,53 +12759,28 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="A29" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <f>B30+C30</f>
+        <f>B29+C29</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:A29">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:D28">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13112,10 +12807,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
@@ -13607,10 +13302,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -13626,10 +13321,10 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
@@ -13671,10 +13366,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
@@ -13716,10 +13411,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
@@ -13779,7 +13474,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="14">
@@ -13837,7 +13532,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="15">
@@ -13895,7 +13590,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="5">
@@ -13953,7 +13648,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="14">
@@ -14011,7 +13706,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="15">
@@ -14069,7 +13764,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="5">
@@ -14127,7 +13822,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="14">
@@ -14185,7 +13880,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="15">
@@ -14243,7 +13938,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="5">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E65355E-7FF6-4A45-B596-8D6E63A0BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA615A-BCA0-4B97-8D38-52EB17E767C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -439,7 +439,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,9 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS6" sqref="CS6"/>
+      <selection pane="topRight" activeCell="CW14" sqref="CW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10095,7 +10094,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10139,9 +10138,12 @@
       <c r="B2">
         <v>40</v>
       </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
       <c r="D2" s="5">
-        <f>IF(C2&gt;B2,C2,B2)</f>
-        <v>40</v>
+        <f t="shared" ref="D2:D13" si="0">IF(C2&gt;B2,IF(C2&gt;80,80,C2),B2)</f>
+        <v>70</v>
       </c>
       <c r="E2" s="5">
         <v>20</v>
@@ -10151,7 +10153,7 @@
       </c>
       <c r="G2" s="5">
         <f>ROUND((D2*2+E2+F2)/4,0)</f>
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10162,7 +10164,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D28" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E3" s="5">
@@ -10183,9 +10185,12 @@
       <c r="B4">
         <v>55</v>
       </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5">
         <v>33</v>
@@ -10195,7 +10200,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10337,12 +10342,12 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -10352,7 +10357,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10409,9 +10414,12 @@
       <c r="B14">
         <v>25</v>
       </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>IF(C14&gt;B14,IF(C14&gt;80,80,C14),B14)</f>
+        <v>80</v>
       </c>
       <c r="E14" s="5">
         <v>33</v>
@@ -10421,7 +10429,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10432,7 +10440,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D15:D28" si="2">IF(C15&gt;B15,IF(C15&gt;80,80,C15),B15)</f>
         <v>65</v>
       </c>
       <c r="E15" s="5">
@@ -10454,7 +10462,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E16" s="5">
@@ -10475,9 +10483,12 @@
       <c r="B17">
         <v>45</v>
       </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="E17" s="5">
         <v>75</v>
@@ -10487,7 +10498,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10498,7 +10509,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="E18" s="5">
@@ -10523,7 +10534,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="E19" s="5">
@@ -10545,7 +10556,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E20" s="5">
@@ -10567,7 +10578,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="E21" s="5">
@@ -10589,7 +10600,7 @@
         <v>85</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="E22" s="5">
@@ -10611,7 +10622,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="E23" s="5">
@@ -10633,7 +10644,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="E24" s="5">
@@ -10655,7 +10666,7 @@
         <v>80</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="E25" s="5">
@@ -10676,9 +10687,12 @@
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="E26" s="5">
         <v>33</v>
@@ -10688,7 +10702,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10699,7 +10713,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="E27" s="5">
@@ -10721,7 +10735,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E28" s="5">
@@ -10759,7 +10773,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F28 G2:G29">
+  <conditionalFormatting sqref="G2:G29 B2:F28">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -10773,8 +10787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C160-C2A5-442A-8DC8-71573A4C39FB}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10820,14 +10834,17 @@
         <v>33</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
       <c r="E2" s="5">
-        <f>IF(D2&gt;C2,D2,C2)</f>
-        <v>50</v>
+        <f>IF(D2&gt;C2,IF(D2&gt;80,80,D2),C2)</f>
+        <v>80</v>
       </c>
       <c r="F2" s="5">
         <v>100</v>
@@ -10837,7 +10854,7 @@
       </c>
       <c r="H2" s="5">
         <f>ROUND((B2*3+E2*3+F2+G2)/8,0)</f>
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10851,7 +10868,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E28" si="0">IF(D3&gt;C3,D3,C3)</f>
+        <f t="shared" ref="E3:E29" si="0">IF(D3&gt;C3,IF(D3&gt;80,80,D3),C3)</f>
         <v>95</v>
       </c>
       <c r="F3" s="5">
@@ -10870,14 +10887,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5">
         <v>75</v>
@@ -10887,7 +10904,7 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -10980,7 +10997,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5">
         <v>38</v>
@@ -10990,7 +11007,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11125,9 +11142,12 @@
       <c r="B14" s="5">
         <v>85</v>
       </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5">
         <v>50</v>
@@ -11137,7 +11157,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11325,9 +11345,12 @@
       <c r="C22">
         <v>50</v>
       </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F22" s="5">
         <v>100</v>
@@ -11337,7 +11360,7 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11498,7 +11521,8 @@
         <v>3</v>
       </c>
       <c r="E29" s="5">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -11508,7 +11532,7 @@
       </c>
       <c r="H29" s="5">
         <f>SUM(B29:G29)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -11517,7 +11541,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H28">
+  <conditionalFormatting sqref="B2:H2 B3:D28 F3:H28 E3:E29">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -11532,7 +11556,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11684,7 +11708,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5">
         <v>85</v>
@@ -11694,7 +11718,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12273,7 +12297,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F28" s="5">
         <v>55</v>
@@ -12283,7 +12307,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12328,7 +12352,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA615A-BCA0-4B97-8D38-52EB17E767C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DFFD6-FE8B-44F6-ABFB-A49E0502BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -853,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CW14" sqref="CW14"/>
+      <selection pane="topRight" activeCell="CS11" sqref="CS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10094,7 +10105,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10346,8 +10357,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -10357,7 +10367,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10691,8 +10701,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E26" s="5">
         <v>33</v>
@@ -10702,7 +10711,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10788,7 +10797,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11556,7 +11565,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DFFD6-FE8B-44F6-ABFB-A49E0502BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED6D144-AC6A-42A5-ABBD-610DC46CD5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="78">
   <si>
     <t>Aluno</t>
   </si>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS11" sqref="CS11"/>
+      <selection pane="topRight" activeCell="DC29" sqref="DC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,6 +1875,18 @@
       <c r="CY3" t="s">
         <v>35</v>
       </c>
+      <c r="CZ3" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2186,6 +2198,18 @@
       <c r="CY4" t="s">
         <v>35</v>
       </c>
+      <c r="CZ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2497,6 +2521,18 @@
       <c r="CY5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CZ5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2808,6 +2844,18 @@
       <c r="CY6" t="s">
         <v>35</v>
       </c>
+      <c r="CZ6" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3119,6 +3167,18 @@
       <c r="CY7" t="s">
         <v>35</v>
       </c>
+      <c r="CZ7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3430,6 +3490,18 @@
       <c r="CY8" t="s">
         <v>35</v>
       </c>
+      <c r="CZ8" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3741,6 +3813,18 @@
       <c r="CY9" t="s">
         <v>35</v>
       </c>
+      <c r="CZ9" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4052,6 +4136,18 @@
       <c r="CY10" t="s">
         <v>35</v>
       </c>
+      <c r="CZ10" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4363,6 +4459,18 @@
       <c r="CY11" t="s">
         <v>35</v>
       </c>
+      <c r="CZ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4674,6 +4782,18 @@
       <c r="CY12" t="s">
         <v>35</v>
       </c>
+      <c r="CZ12" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5107,6 +5227,18 @@
       <c r="CY14" t="s">
         <v>35</v>
       </c>
+      <c r="CZ14" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5418,6 +5550,18 @@
       <c r="CY15" t="s">
         <v>35</v>
       </c>
+      <c r="CZ15" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5729,8 +5873,20 @@
       <c r="CY16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6040,8 +6196,20 @@
       <c r="CY17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ17" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6351,8 +6519,20 @@
       <c r="CY18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ18" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6662,8 +6842,20 @@
       <c r="CY19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ19" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6973,8 +7165,20 @@
       <c r="CY20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ20" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB20" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7284,8 +7488,20 @@
       <c r="CY21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ21" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7595,8 +7811,20 @@
       <c r="CY22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ22" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7906,8 +8134,20 @@
       <c r="CY23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ23" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8217,8 +8457,20 @@
       <c r="CY24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ24" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA24" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8528,8 +8780,20 @@
       <c r="CY25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ25" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8839,8 +9103,20 @@
       <c r="CY26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9150,8 +9426,20 @@
       <c r="CY27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ27" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA27" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB27" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9461,8 +9749,20 @@
       <c r="CY28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ28" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9772,8 +10072,20 @@
       <c r="CY29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ29" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA29" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB29" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10081,6 +10393,18 @@
         <v>35</v>
       </c>
       <c r="CY30" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA30" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB30" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10105,7 +10429,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10797,7 +11121,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11530,8 +11854,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -11541,7 +11864,7 @@
       </c>
       <c r="H29" s="5">
         <f>SUM(B29:G29)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -11550,7 +11873,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2 B3:D28 F3:H28 E3:E29">
+  <conditionalFormatting sqref="B2:H28">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -11565,7 +11888,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12361,7 +12684,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED6D144-AC6A-42A5-ABBD-610DC46CD5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01644F6E-CC36-4631-9DA6-A1B88916F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="285" windowWidth="27165" windowHeight="15315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -862,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="DC29" sqref="DC29"/>
     </sheetView>
@@ -11201,7 +11190,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E29" si="0">IF(D3&gt;C3,IF(D3&gt;80,80,D3),C3)</f>
+        <f t="shared" ref="E3:E28" si="0">IF(D3&gt;C3,IF(D3&gt;80,80,D3),C3)</f>
         <v>95</v>
       </c>
       <c r="F3" s="5">
@@ -12683,8 +12672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,14 +12703,14 @@
         <v>33</v>
       </c>
       <c r="B2" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5">
         <v>50</v>
       </c>
       <c r="D2" s="5">
         <f>AVERAGE(B2:C2)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12729,14 +12718,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5">
         <v>50</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D28" si="0">AVERAGE(B3:C3)</f>
-        <v>50</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12759,14 +12748,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5">
         <v>50</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12774,14 +12763,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5">
         <v>50</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12789,14 +12778,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5">
         <v>50</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12804,14 +12793,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <v>50</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12819,14 +12808,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
         <v>50</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12834,14 +12823,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5">
         <v>50</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12849,14 +12838,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5">
         <v>50</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,14 +12853,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5">
         <v>50</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12879,14 +12868,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
         <v>50</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12894,14 +12883,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -12909,14 +12898,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5">
         <v>50</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12924,14 +12913,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5">
         <v>50</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -12939,14 +12928,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5">
         <v>50</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -12954,14 +12943,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5">
         <v>50</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12969,14 +12958,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5">
         <v>50</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -12984,14 +12973,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5">
         <v>50</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12999,14 +12988,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5">
         <v>50</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13014,14 +13003,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5">
         <v>50</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,14 +13018,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C23" s="5">
         <v>50</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13044,14 +13033,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C24" s="5">
         <v>50</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13059,14 +13048,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5">
         <v>50</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13074,14 +13063,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5">
         <v>50</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13089,14 +13078,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5">
         <v>50</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13104,14 +13093,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5">
         <v>50</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01644F6E-CC36-4631-9DA6-A1B88916F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A9999-9886-4349-AEBD-98F34B74BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="285" windowWidth="27165" windowHeight="15315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,12 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="78">
   <si>
     <t>Aluno</t>
   </si>
@@ -851,9 +862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC29" sqref="DC29"/>
+      <selection pane="topRight" activeCell="CV18" sqref="CV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,6 +1887,9 @@
       <c r="DC3" t="s">
         <v>35</v>
       </c>
+      <c r="DD3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2199,6 +2213,9 @@
       <c r="DC4" t="s">
         <v>35</v>
       </c>
+      <c r="DD4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2522,6 +2539,9 @@
       <c r="DC5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DD5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2845,6 +2865,9 @@
       <c r="DC6" t="s">
         <v>35</v>
       </c>
+      <c r="DD6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3168,6 +3191,9 @@
       <c r="DC7" t="s">
         <v>35</v>
       </c>
+      <c r="DD7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3491,6 +3517,9 @@
       <c r="DC8" t="s">
         <v>35</v>
       </c>
+      <c r="DD8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3814,6 +3843,9 @@
       <c r="DC9" t="s">
         <v>35</v>
       </c>
+      <c r="DD9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4137,6 +4169,9 @@
       <c r="DC10" t="s">
         <v>35</v>
       </c>
+      <c r="DD10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4460,6 +4495,9 @@
       <c r="DC11" t="s">
         <v>35</v>
       </c>
+      <c r="DD11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4783,6 +4821,9 @@
       <c r="DC12" t="s">
         <v>35</v>
       </c>
+      <c r="DD12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5228,6 +5269,9 @@
       <c r="DC14" t="s">
         <v>35</v>
       </c>
+      <c r="DD14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5551,6 +5595,9 @@
       <c r="DC15" t="s">
         <v>35</v>
       </c>
+      <c r="DD15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5874,8 +5921,11 @@
       <c r="DC16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6197,8 +6247,11 @@
       <c r="DC17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6520,8 +6573,11 @@
       <c r="DC18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6843,8 +6899,11 @@
       <c r="DC19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7166,8 +7225,11 @@
       <c r="DC20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7489,8 +7551,11 @@
       <c r="DC21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7812,8 +7877,11 @@
       <c r="DC22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8135,8 +8203,11 @@
       <c r="DC23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8458,8 +8529,11 @@
       <c r="DC24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8781,8 +8855,11 @@
       <c r="DC25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9104,8 +9181,11 @@
       <c r="DC26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9427,8 +9507,11 @@
       <c r="DC27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9750,8 +9833,11 @@
       <c r="DC28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10073,8 +10159,11 @@
       <c r="DC29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DD29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10394,6 +10483,9 @@
         <v>35</v>
       </c>
       <c r="DC30" t="s">
+        <v>35</v>
+      </c>
+      <c r="DD30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12672,7 +12764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A9999-9886-4349-AEBD-98F34B74BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35224CF5-0D8D-4AAB-8551-1AEF9209118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -862,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="CV18" sqref="CV18"/>
     </sheetView>
@@ -10510,7 +10507,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10587,11 +10584,11 @@
         <v>75</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G28" si="1">ROUND((D3*2+E3+F3)/4,0)</f>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10656,11 +10653,11 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10678,11 +10675,11 @@
         <v>75</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10790,11 +10787,11 @@
         <v>33</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10884,11 +10881,11 @@
         <v>33</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11022,11 +11019,11 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -11066,11 +11063,11 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -11112,11 +11109,11 @@
         <v>33</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11134,11 +11131,11 @@
         <v>75</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11156,11 +11153,11 @@
         <v>33</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11202,7 +11199,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11289,11 +11286,11 @@
         <v>75</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H28" si="1">ROUND((B3*3+E3*3+F3+G3)/8,0)</f>
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11364,11 +11361,11 @@
         <v>50</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11517,11 +11514,11 @@
         <v>75</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11617,11 +11614,11 @@
         <v>75</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11770,11 +11767,11 @@
         <v>100</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11820,11 +11817,11 @@
         <v>38</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -11870,11 +11867,11 @@
         <v>38</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11895,11 +11892,11 @@
         <v>75</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11920,11 +11917,11 @@
         <v>50</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11969,7 +11966,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12052,11 +12049,11 @@
         <v>90</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H28" si="1">ROUND((D3*3+E3+F3+G3)/6,0)</f>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12127,11 +12124,11 @@
         <v>85</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12155,11 +12152,11 @@
         <v>85</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12170,11 +12167,11 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -12187,7 +12184,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12233,14 +12230,14 @@
         <v>50</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12289,11 +12286,11 @@
         <v>85</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12304,11 +12301,11 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5">
         <v>33</v>
@@ -12321,7 +12318,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12338,12 +12335,15 @@
       <c r="E14" s="5">
         <v>33</v>
       </c>
+      <c r="F14" s="5">
+        <v>80</v>
+      </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12392,11 +12392,11 @@
         <v>85</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12488,11 +12488,11 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5">
         <v>33</v>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -12554,11 +12554,11 @@
         <v>90</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -12610,11 +12610,11 @@
         <v>80</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12660,11 +12660,11 @@
         <v>50</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -12688,11 +12688,11 @@
         <v>60</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <f>ROUND((D27*3+E27+F27+G27)/6,0)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -12703,11 +12703,11 @@
         <v>44</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E28" s="5">
         <v>50</v>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12764,8 +12764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12813,11 +12813,11 @@
         <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D28" si="0">AVERAGE(B3:C3)</f>
-        <v>67.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12858,11 +12858,11 @@
         <v>79</v>
       </c>
       <c r="C6" s="5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>64.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,11 +12948,11 @@
         <v>88</v>
       </c>
       <c r="C12" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -13008,11 +13008,11 @@
         <v>100</v>
       </c>
       <c r="C16" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -13128,11 +13128,11 @@
         <v>0</v>
       </c>
       <c r="C24" s="5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13158,11 +13158,11 @@
         <v>61</v>
       </c>
       <c r="C26" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>55.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35224CF5-0D8D-4AAB-8551-1AEF9209118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4138D-4F01-492B-8A09-9C0668A52BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="78">
   <si>
     <t>Aluno</t>
   </si>
@@ -859,9 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV18" sqref="CV18"/>
+      <selection pane="topRight" activeCell="DE5" sqref="DE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,6 +1879,9 @@
       <c r="DD3" t="s">
         <v>35</v>
       </c>
+      <c r="DE3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2213,6 +2208,9 @@
       <c r="DD4" t="s">
         <v>35</v>
       </c>
+      <c r="DE4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2539,6 +2537,9 @@
       <c r="DD5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DE5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2865,6 +2866,9 @@
       <c r="DD6" t="s">
         <v>35</v>
       </c>
+      <c r="DE6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3191,6 +3195,9 @@
       <c r="DD7" t="s">
         <v>35</v>
       </c>
+      <c r="DE7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3517,6 +3524,9 @@
       <c r="DD8" t="s">
         <v>35</v>
       </c>
+      <c r="DE8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3843,6 +3853,9 @@
       <c r="DD9" t="s">
         <v>35</v>
       </c>
+      <c r="DE9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4169,6 +4182,9 @@
       <c r="DD10" t="s">
         <v>35</v>
       </c>
+      <c r="DE10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4495,6 +4511,9 @@
       <c r="DD11" t="s">
         <v>35</v>
       </c>
+      <c r="DE11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4821,6 +4840,9 @@
       <c r="DD12" t="s">
         <v>35</v>
       </c>
+      <c r="DE12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5269,6 +5291,9 @@
       <c r="DD14" t="s">
         <v>35</v>
       </c>
+      <c r="DE14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5595,6 +5620,9 @@
       <c r="DD15" t="s">
         <v>35</v>
       </c>
+      <c r="DE15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5921,8 +5949,11 @@
       <c r="DD16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6247,8 +6278,11 @@
       <c r="DD17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6573,8 +6607,11 @@
       <c r="DD18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6899,8 +6936,11 @@
       <c r="DD19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7225,8 +7265,11 @@
       <c r="DD20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7551,8 +7594,11 @@
       <c r="DD21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7877,8 +7923,11 @@
       <c r="DD22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8203,8 +8252,11 @@
       <c r="DD23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8529,8 +8581,11 @@
       <c r="DD24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8855,8 +8910,11 @@
       <c r="DD25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9181,8 +9239,11 @@
       <c r="DD26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9507,8 +9568,11 @@
       <c r="DD27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9833,8 +9897,11 @@
       <c r="DD28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10159,8 +10226,11 @@
       <c r="DD29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10483,6 +10553,9 @@
         <v>35</v>
       </c>
       <c r="DD30" t="s">
+        <v>35</v>
+      </c>
+      <c r="DE30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10507,14 +10580,14 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -10562,11 +10635,11 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2" s="5">
         <f>ROUND((D2*2+E2+F2)/4,0)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10631,11 +10704,11 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10653,11 +10726,11 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10697,11 +10770,11 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10741,11 +10814,11 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10765,11 +10838,11 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10812,11 +10885,11 @@
         <v>33</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10837,11 +10910,11 @@
         <v>33</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10859,11 +10932,11 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10906,11 +10979,11 @@
         <v>75</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10928,11 +11001,11 @@
         <v>33</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10953,11 +11026,11 @@
         <v>33</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10975,11 +11048,11 @@
         <v>33</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10997,11 +11070,11 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5">
         <f>ROUND((D21*2+E21+F21)/4,0)</f>
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11041,11 +11114,11 @@
         <v>75</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -11063,11 +11136,11 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -11085,11 +11158,11 @@
         <v>75</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -11199,15 +11272,15 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -11261,11 +11334,11 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5">
         <f>ROUND((B2*3+E2*3+F2+G2)/8,0)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11336,11 +11409,11 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11386,11 +11459,11 @@
         <v>75</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11414,11 +11487,11 @@
         <v>38</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11464,11 +11537,11 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11489,11 +11562,11 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11539,11 +11612,11 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11564,11 +11637,11 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11589,11 +11662,11 @@
         <v>100</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11639,11 +11712,11 @@
         <v>38</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11664,11 +11737,11 @@
         <v>75</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11689,11 +11762,11 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11714,11 +11787,11 @@
         <v>38</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11739,11 +11812,11 @@
         <v>100</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11792,11 +11865,11 @@
         <v>75</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11842,11 +11915,11 @@
         <v>38</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H25" s="5">
         <f>ROUND((B25*3+E25*3+F25+G25)/8,0)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -11917,11 +11990,11 @@
         <v>50</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11966,14 +12039,13 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="0.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -12011,24 +12083,24 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <f>IF(C2&gt;B2,C2,B2)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5">
         <v>55</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <f>ROUND((D2*3+E2+F2+G2)/6,0)</f>
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12096,11 +12168,11 @@
         <v>80</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12233,11 +12305,11 @@
         <v>90</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12445,11 +12517,11 @@
         <v>55</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12457,14 +12529,14 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>39</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="5">
         <v>50</v>
@@ -12477,7 +12549,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12501,11 +12573,11 @@
         <v>70</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -12516,24 +12588,24 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E21" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F21" s="5">
         <v>55</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12582,11 +12654,11 @@
         <v>55</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -12635,11 +12707,11 @@
         <v>55</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12764,8 +12836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA76305-011D-44BC-8D71-D82B7AD1FF07}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12795,14 +12867,14 @@
         <v>33</v>
       </c>
       <c r="B2" s="5">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5">
         <f>AVERAGE(B2:C2)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12963,11 +13035,11 @@
         <v>79</v>
       </c>
       <c r="C13" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>64.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13038,11 +13110,11 @@
         <v>70</v>
       </c>
       <c r="C18" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -13050,14 +13122,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5">
         <v>50</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13065,14 +13137,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5">
         <v>50</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -13080,14 +13152,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5">
         <v>40</v>
-      </c>
-      <c r="C21" s="5">
-        <v>50</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13098,11 +13170,11 @@
         <v>85</v>
       </c>
       <c r="C22" s="5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13113,11 +13185,11 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13125,14 +13197,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C24" s="5">
         <v>90</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13185,14 +13257,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5">
         <v>50</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4138D-4F01-492B-8A09-9C0668A52BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D890AFE-D4EB-4A71-9481-2FDF4528932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -851,9 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:DF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DE5" sqref="DE5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CZ1" sqref="CZ1:CZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10579,8 +10579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11272,7 +11272,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D890AFE-D4EB-4A71-9481-2FDF4528932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A905CC93-2A1A-47EB-BEA9-429F9239B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10580,7 +10580,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10634,7 +10634,7 @@
       <c r="E2" s="5">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>100</v>
       </c>
       <c r="G2" s="5">
@@ -10656,7 +10656,7 @@
       <c r="E3" s="5">
         <v>75</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>95</v>
       </c>
       <c r="G3" s="5">
@@ -10681,7 +10681,7 @@
       <c r="E4" s="5">
         <v>33</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>50</v>
       </c>
       <c r="G4" s="5">
@@ -10703,7 +10703,7 @@
       <c r="E5" s="5">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>100</v>
       </c>
       <c r="G5" s="5">
@@ -10725,7 +10725,7 @@
       <c r="E6" s="5">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>90</v>
       </c>
       <c r="G6" s="5">
@@ -10747,7 +10747,7 @@
       <c r="E7" s="5">
         <v>75</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
       <c r="G7" s="5">
@@ -10769,7 +10769,7 @@
       <c r="E8" s="5">
         <v>50</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>90</v>
       </c>
       <c r="G8" s="5">
@@ -10791,7 +10791,7 @@
       <c r="E9" s="5">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>50</v>
       </c>
       <c r="G9" s="5">
@@ -10813,7 +10813,7 @@
       <c r="E10" s="5">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>100</v>
       </c>
       <c r="G10" s="5">
@@ -10837,7 +10837,7 @@
       <c r="E11" s="5">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>100</v>
       </c>
       <c r="G11" s="5">
@@ -10859,7 +10859,7 @@
       <c r="E12" s="5">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>100</v>
       </c>
       <c r="G12" s="5">
@@ -10884,7 +10884,7 @@
       <c r="E13" s="5">
         <v>33</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>90</v>
       </c>
       <c r="G13" s="5">
@@ -10909,7 +10909,7 @@
       <c r="E14" s="5">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>100</v>
       </c>
       <c r="G14" s="5">
@@ -10931,7 +10931,7 @@
       <c r="E15" s="5">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>90</v>
       </c>
       <c r="G15" s="5">
@@ -10953,7 +10953,7 @@
       <c r="E16" s="5">
         <v>33</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>100</v>
       </c>
       <c r="G16" s="5">
@@ -10978,7 +10978,7 @@
       <c r="E17" s="5">
         <v>75</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>100</v>
       </c>
       <c r="G17" s="5">
@@ -11000,7 +11000,7 @@
       <c r="E18" s="5">
         <v>33</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>80</v>
       </c>
       <c r="G18" s="5">
@@ -11025,7 +11025,7 @@
       <c r="E19" s="5">
         <v>33</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>100</v>
       </c>
       <c r="G19" s="5">
@@ -11047,7 +11047,7 @@
       <c r="E20" s="5">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>90</v>
       </c>
       <c r="G20" s="5">
@@ -11069,7 +11069,7 @@
       <c r="E21" s="5">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>100</v>
       </c>
       <c r="G21" s="5">
@@ -11091,7 +11091,7 @@
       <c r="E22" s="5">
         <v>20</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>95</v>
       </c>
       <c r="G22" s="5">
@@ -11113,7 +11113,7 @@
       <c r="E23" s="5">
         <v>75</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>80</v>
       </c>
       <c r="G23" s="5">
@@ -11135,7 +11135,7 @@
       <c r="E24" s="5">
         <v>50</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>90</v>
       </c>
       <c r="G24" s="5">
@@ -11157,7 +11157,7 @@
       <c r="E25" s="5">
         <v>75</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>90</v>
       </c>
       <c r="G25" s="5">
@@ -11181,7 +11181,7 @@
       <c r="E26" s="5">
         <v>33</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>100</v>
       </c>
       <c r="G26" s="5">
@@ -11203,7 +11203,7 @@
       <c r="E27" s="5">
         <v>75</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>100</v>
       </c>
       <c r="G27" s="5">
@@ -11225,7 +11225,7 @@
       <c r="E28" s="5">
         <v>33</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>90</v>
       </c>
       <c r="G28" s="5">
